--- a/JupyterNotebooks/AvgHW/GossA-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/GossA-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
     <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,37 +653,37 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1.009549869402041</v>
+      </c>
+      <c r="D3">
+        <v>0.9926379822485107</v>
+      </c>
+      <c r="E3">
         <v>1.034788392119574</v>
       </c>
-      <c r="D3">
+      <c r="F3">
+        <v>0.9856803892041108</v>
+      </c>
+      <c r="G3">
         <v>1.009549869402041</v>
       </c>
-      <c r="E3">
-        <v>0.9926379822485107</v>
-      </c>
-      <c r="F3">
+      <c r="H3">
+        <v>1.005145105906757</v>
+      </c>
+      <c r="I3">
+        <v>0.9970288124353552</v>
+      </c>
+      <c r="J3">
         <v>1.034788392119574</v>
       </c>
-      <c r="G3">
+      <c r="K3">
+        <v>1.034788392119574</v>
+      </c>
+      <c r="L3">
+        <v>1.001894007941505</v>
+      </c>
+      <c r="M3">
         <v>0.9939116694126299</v>
-      </c>
-      <c r="H3">
-        <v>1.001894007941505</v>
-      </c>
-      <c r="I3">
-        <v>1.034788392119574</v>
-      </c>
-      <c r="J3">
-        <v>1.009549869402041</v>
-      </c>
-      <c r="K3">
-        <v>0.9856803892041111</v>
-      </c>
-      <c r="L3">
-        <v>1.005145105906757</v>
-      </c>
-      <c r="M3">
-        <v>0.9970288124353552</v>
       </c>
       <c r="N3">
         <v>1.034788392119574</v>
@@ -764,7 +716,7 @@
         <v>1.00257952858381</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,37 +724,37 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>1.018061987890342</v>
+      </c>
+      <c r="D4">
+        <v>0.9845095129184515</v>
+      </c>
+      <c r="E4">
         <v>1.066965948100107</v>
       </c>
-      <c r="D4">
+      <c r="F4">
+        <v>0.9724853073651298</v>
+      </c>
+      <c r="G4">
         <v>1.018061987890342</v>
       </c>
-      <c r="E4">
-        <v>0.9845095129184515</v>
-      </c>
-      <c r="F4">
+      <c r="H4">
+        <v>1.010594042399899</v>
+      </c>
+      <c r="I4">
+        <v>0.9942119729208772</v>
+      </c>
+      <c r="J4">
         <v>1.066965948100107</v>
       </c>
-      <c r="G4">
+      <c r="K4">
+        <v>1.066965948100107</v>
+      </c>
+      <c r="L4">
+        <v>1.003216506674783</v>
+      </c>
+      <c r="M4">
         <v>0.9886094469464985</v>
-      </c>
-      <c r="H4">
-        <v>1.003216506674783</v>
-      </c>
-      <c r="I4">
-        <v>1.066965948100107</v>
-      </c>
-      <c r="J4">
-        <v>1.018061987890342</v>
-      </c>
-      <c r="K4">
-        <v>0.9724853073651302</v>
-      </c>
-      <c r="L4">
-        <v>1.010594042399899</v>
-      </c>
-      <c r="M4">
-        <v>0.9942119729208772</v>
       </c>
       <c r="N4">
         <v>1.066965948100107</v>
@@ -835,7 +787,7 @@
         <v>1.004831840652011</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,37 +795,37 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>1.033681632001416</v>
+      </c>
+      <c r="D5">
+        <v>0.9767116085414443</v>
+      </c>
+      <c r="E5">
         <v>1.124612576346047</v>
       </c>
-      <c r="D5">
+      <c r="F5">
+        <v>0.9480230225651949</v>
+      </c>
+      <c r="G5">
         <v>1.033681632001416</v>
       </c>
-      <c r="E5">
-        <v>0.9767116085414443</v>
-      </c>
-      <c r="F5">
+      <c r="H5">
+        <v>1.018176753936587</v>
+      </c>
+      <c r="I5">
+        <v>0.9881490442745923</v>
+      </c>
+      <c r="J5">
         <v>1.124612576346047</v>
       </c>
-      <c r="G5">
+      <c r="K5">
+        <v>1.124612576346047</v>
+      </c>
+      <c r="L5">
+        <v>1.008173636262436</v>
+      </c>
+      <c r="M5">
         <v>0.9776778493363298</v>
-      </c>
-      <c r="H5">
-        <v>1.008173636262436</v>
-      </c>
-      <c r="I5">
-        <v>1.124612576346047</v>
-      </c>
-      <c r="J5">
-        <v>1.033681632001416</v>
-      </c>
-      <c r="K5">
-        <v>0.948023022565195</v>
-      </c>
-      <c r="L5">
-        <v>1.018176753936587</v>
-      </c>
-      <c r="M5">
-        <v>0.9881490442745923</v>
       </c>
       <c r="N5">
         <v>1.124612576346047</v>
@@ -906,7 +858,7 @@
         <v>1.009400765408006</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,70 +866,70 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>1.047816968171457</v>
+      </c>
+      <c r="D6">
+        <v>0.9750638460803325</v>
+      </c>
+      <c r="E6">
         <v>1.191060643435945</v>
       </c>
-      <c r="D6">
+      <c r="F6">
+        <v>0.9201409371506901</v>
+      </c>
+      <c r="G6">
         <v>1.047816968171457</v>
       </c>
-      <c r="E6">
-        <v>0.9750638460803326</v>
-      </c>
-      <c r="F6">
+      <c r="H6">
+        <v>1.023513649639335</v>
+      </c>
+      <c r="I6">
+        <v>0.9853001637731883</v>
+      </c>
+      <c r="J6">
         <v>1.191060643435945</v>
       </c>
-      <c r="G6">
-        <v>0.9745994015497637</v>
-      </c>
-      <c r="H6">
+      <c r="K6">
+        <v>1.191060643435945</v>
+      </c>
+      <c r="L6">
         <v>1.01144661808824</v>
       </c>
-      <c r="I6">
-        <v>1.191060643435945</v>
-      </c>
-      <c r="J6">
-        <v>1.047816968171457</v>
-      </c>
-      <c r="K6">
-        <v>0.9201409371506901</v>
-      </c>
-      <c r="L6">
-        <v>1.023513649639335</v>
-      </c>
       <c r="M6">
-        <v>0.9853001637731883</v>
+        <v>0.9745994015497633</v>
       </c>
       <c r="N6">
         <v>1.191060643435945</v>
       </c>
       <c r="O6">
-        <v>0.9750638460803326</v>
+        <v>0.9750638460803325</v>
       </c>
       <c r="P6">
         <v>1.011440407125895</v>
       </c>
       <c r="Q6">
-        <v>0.9748316238150481</v>
+        <v>0.9748316238150478</v>
       </c>
       <c r="R6">
         <v>1.071313819229245</v>
       </c>
       <c r="S6">
-        <v>0.9991600719338511</v>
+        <v>0.999160071933851</v>
       </c>
       <c r="T6">
         <v>1.071313819229245</v>
       </c>
       <c r="U6">
-        <v>1.047135214809375</v>
+        <v>1.047135214809374</v>
       </c>
       <c r="V6">
-        <v>1.075920300534689</v>
+        <v>1.075920300534688</v>
       </c>
       <c r="W6">
         <v>1.016117778486119</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,49 +937,49 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9989712151970772</v>
+        <v>0.9998006516551128</v>
       </c>
       <c r="D7">
+        <v>1.002404298021776</v>
+      </c>
+      <c r="E7">
+        <v>0.9989712151970769</v>
+      </c>
+      <c r="F7">
+        <v>1.000200758621121</v>
+      </c>
+      <c r="G7">
         <v>0.9998006516551128</v>
       </c>
-      <c r="E7">
-        <v>1.002404298021777</v>
-      </c>
-      <c r="F7">
-        <v>0.9989712151970772</v>
-      </c>
-      <c r="G7">
-        <v>0.9992816217352419</v>
-      </c>
       <c r="H7">
-        <v>1.000926134346775</v>
+        <v>0.9992850789786711</v>
       </c>
       <c r="I7">
-        <v>0.9989712151970772</v>
+        <v>0.9993954462897544</v>
       </c>
       <c r="J7">
-        <v>0.9998006516551128</v>
+        <v>0.9989712151970769</v>
       </c>
       <c r="K7">
-        <v>1.000200758621121</v>
+        <v>0.9989712151970769</v>
       </c>
       <c r="L7">
-        <v>0.9992850789786706</v>
+        <v>1.000926134346776</v>
       </c>
       <c r="M7">
-        <v>0.9993954462897535</v>
+        <v>0.9992816217352416</v>
       </c>
       <c r="N7">
-        <v>0.9989712151970772</v>
+        <v>0.9989712151970769</v>
       </c>
       <c r="O7">
-        <v>1.002404298021777</v>
+        <v>1.002404298021776</v>
       </c>
       <c r="P7">
         <v>1.001102474838445</v>
       </c>
       <c r="Q7">
-        <v>1.00084295987851</v>
+        <v>1.000842959878509</v>
       </c>
       <c r="R7">
         <v>1.000392054957989</v>
@@ -1042,13 +994,13 @@
         <v>1.000114446652302</v>
       </c>
       <c r="V7">
-        <v>0.9998858003612572</v>
+        <v>0.999885800361257</v>
       </c>
       <c r="W7">
         <v>1.000033150605691</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,49 +1008,49 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9973468970691649</v>
+        <v>1.000861543284914</v>
       </c>
       <c r="D8">
-        <v>1.000861543284915</v>
+        <v>1.005303480927447</v>
       </c>
       <c r="E8">
-        <v>1.005303480927446</v>
+        <v>0.9973468970691651</v>
       </c>
       <c r="F8">
-        <v>0.9973468970691649</v>
+        <v>1.000588497274555</v>
       </c>
       <c r="G8">
-        <v>0.9981908621956809</v>
+        <v>1.000861543284914</v>
       </c>
       <c r="H8">
-        <v>1.00194942193519</v>
+        <v>0.9980167828463806</v>
       </c>
       <c r="I8">
-        <v>0.9973468970691649</v>
+        <v>0.9990393613569375</v>
       </c>
       <c r="J8">
-        <v>1.000861543284915</v>
+        <v>0.9973468970691651</v>
       </c>
       <c r="K8">
-        <v>1.000588497274556</v>
+        <v>0.9973468970691651</v>
       </c>
       <c r="L8">
-        <v>0.9980167828463808</v>
+        <v>1.001949421935191</v>
       </c>
       <c r="M8">
-        <v>0.9990393613569374</v>
+        <v>0.9981908621956811</v>
       </c>
       <c r="N8">
-        <v>0.9973468970691649</v>
+        <v>0.9973468970691651</v>
       </c>
       <c r="O8">
-        <v>1.005303480927446</v>
+        <v>1.005303480927447</v>
       </c>
       <c r="P8">
-        <v>1.003082512106181</v>
+        <v>1.00308251210618</v>
       </c>
       <c r="Q8">
-        <v>1.001747171561563</v>
+        <v>1.001747171561564</v>
       </c>
       <c r="R8">
         <v>1.001170640427175</v>
@@ -1119,7 +1071,7 @@
         <v>1.000162105861284</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,37 +1079,37 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>1.003881370254968</v>
+      </c>
+      <c r="D9">
+        <v>1.00607071036577</v>
+      </c>
+      <c r="E9">
         <v>0.9964126993379409</v>
       </c>
-      <c r="D9">
+      <c r="F9">
+        <v>1.00045959047096</v>
+      </c>
+      <c r="G9">
         <v>1.003881370254968</v>
       </c>
-      <c r="E9">
-        <v>1.00607071036577</v>
-      </c>
-      <c r="F9">
+      <c r="H9">
+        <v>0.9972243407458872</v>
+      </c>
+      <c r="I9">
+        <v>0.9999360742238969</v>
+      </c>
+      <c r="J9">
         <v>0.9964126993379409</v>
       </c>
-      <c r="G9">
+      <c r="K9">
+        <v>0.9964126993379409</v>
+      </c>
+      <c r="L9">
+        <v>1.001907294808494</v>
+      </c>
+      <c r="M9">
         <v>0.9978529115446052</v>
-      </c>
-      <c r="H9">
-        <v>1.001907294808494</v>
-      </c>
-      <c r="I9">
-        <v>0.9964126993379409</v>
-      </c>
-      <c r="J9">
-        <v>1.003881370254968</v>
-      </c>
-      <c r="K9">
-        <v>1.00045959047096</v>
-      </c>
-      <c r="L9">
-        <v>0.9972243407458872</v>
-      </c>
-      <c r="M9">
-        <v>0.9999360742238969</v>
       </c>
       <c r="N9">
         <v>0.9964126993379409</v>
@@ -1190,7 +1142,7 @@
         <v>1.000468123969065</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,37 +1150,37 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>1.005827713176583</v>
+      </c>
+      <c r="D10">
+        <v>1.014877577586833</v>
+      </c>
+      <c r="E10">
         <v>0.9919134572592941</v>
       </c>
-      <c r="D10">
+      <c r="F10">
+        <v>1.001341369592853</v>
+      </c>
+      <c r="G10">
         <v>1.005827713176583</v>
       </c>
-      <c r="E10">
-        <v>1.014877577586833</v>
-      </c>
-      <c r="F10">
+      <c r="H10">
+        <v>0.9939199156388446</v>
+      </c>
+      <c r="I10">
+        <v>0.9986696069787083</v>
+      </c>
+      <c r="J10">
         <v>0.9919134572592941</v>
       </c>
-      <c r="G10">
+      <c r="K10">
+        <v>0.9919134572592941</v>
+      </c>
+      <c r="L10">
+        <v>1.004934278424824</v>
+      </c>
+      <c r="M10">
         <v>0.9950491254249291</v>
-      </c>
-      <c r="H10">
-        <v>1.004934278424824</v>
-      </c>
-      <c r="I10">
-        <v>0.9919134572592941</v>
-      </c>
-      <c r="J10">
-        <v>1.005827713176583</v>
-      </c>
-      <c r="K10">
-        <v>1.001341369592853</v>
-      </c>
-      <c r="L10">
-        <v>0.9939199156388446</v>
-      </c>
-      <c r="M10">
-        <v>0.9986696069787085</v>
       </c>
       <c r="N10">
         <v>0.9919134572592941</v>
@@ -1261,7 +1213,7 @@
         <v>1.000816630510359</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,37 +1221,37 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>1.017403749352137</v>
+      </c>
+      <c r="D11">
+        <v>1.021296944539634</v>
+      </c>
+      <c r="E11">
         <v>0.9868163179283931</v>
       </c>
-      <c r="D11">
+      <c r="F11">
+        <v>1.001099382174346</v>
+      </c>
+      <c r="G11">
         <v>1.017403749352137</v>
       </c>
-      <c r="E11">
-        <v>1.021296944539634</v>
-      </c>
-      <c r="F11">
+      <c r="H11">
+        <v>0.9896610023539382</v>
+      </c>
+      <c r="I11">
+        <v>1.000542049114229</v>
+      </c>
+      <c r="J11">
         <v>0.9868163179283931</v>
       </c>
-      <c r="G11">
+      <c r="K11">
+        <v>0.9868163179283931</v>
+      </c>
+      <c r="L11">
+        <v>1.00684771441653</v>
+      </c>
+      <c r="M11">
         <v>0.9919314426737693</v>
-      </c>
-      <c r="H11">
-        <v>1.00684771441653</v>
-      </c>
-      <c r="I11">
-        <v>0.9868163179283931</v>
-      </c>
-      <c r="J11">
-        <v>1.017403749352137</v>
-      </c>
-      <c r="K11">
-        <v>1.001099382174346</v>
-      </c>
-      <c r="L11">
-        <v>0.9896610023539382</v>
-      </c>
-      <c r="M11">
-        <v>1.000542049114229</v>
       </c>
       <c r="N11">
         <v>0.9868163179283931</v>
@@ -1332,7 +1284,7 @@
         <v>1.001949825319122</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,58 +1292,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9597020113045043</v>
+        <v>0.7496650844597287</v>
       </c>
       <c r="D12">
-        <v>0.7496650844597289</v>
+        <v>0.7997830995241429</v>
       </c>
       <c r="E12">
-        <v>0.7997830995241434</v>
+        <v>0.9597020113045045</v>
       </c>
       <c r="F12">
-        <v>0.9597020113045043</v>
+        <v>1.019123428434768</v>
       </c>
       <c r="G12">
-        <v>1.153831219304492</v>
+        <v>0.7496650844597287</v>
       </c>
       <c r="H12">
-        <v>0.9149525429399393</v>
+        <v>1.137698033442856</v>
       </c>
       <c r="I12">
-        <v>0.9597020113045043</v>
+        <v>1.001317200607892</v>
       </c>
       <c r="J12">
-        <v>0.7496650844597289</v>
+        <v>0.9597020113045045</v>
       </c>
       <c r="K12">
-        <v>1.019123428434767</v>
+        <v>0.9597020113045045</v>
       </c>
       <c r="L12">
-        <v>1.137698033442855</v>
+        <v>0.9149525429399392</v>
       </c>
       <c r="M12">
-        <v>1.001317200607892</v>
+        <v>1.153831219304493</v>
       </c>
       <c r="N12">
-        <v>0.9597020113045043</v>
+        <v>0.9597020113045045</v>
       </c>
       <c r="O12">
-        <v>0.7997830995241434</v>
+        <v>0.7997830995241429</v>
       </c>
       <c r="P12">
-        <v>0.7747240919919361</v>
+        <v>0.7747240919919358</v>
       </c>
       <c r="Q12">
         <v>0.9768071594143179</v>
       </c>
       <c r="R12">
-        <v>0.8363833984294589</v>
+        <v>0.8363833984294587</v>
       </c>
       <c r="S12">
         <v>0.9010931344294549</v>
       </c>
       <c r="T12">
-        <v>0.8363833984294589</v>
+        <v>0.8363833984294587</v>
       </c>
       <c r="U12">
         <v>0.9157453536482172</v>
@@ -1403,7 +1355,7 @@
         <v>0.9670090775022904</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,40 +1363,40 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.142429010762398</v>
+        <v>1.268981835564235</v>
       </c>
       <c r="D13">
+        <v>1.212438411798979</v>
+      </c>
+      <c r="E13">
+        <v>1.142429010762399</v>
+      </c>
+      <c r="F13">
+        <v>0.978023070069021</v>
+      </c>
+      <c r="G13">
         <v>1.268981835564235</v>
       </c>
-      <c r="E13">
-        <v>1.212438411798979</v>
-      </c>
-      <c r="F13">
-        <v>1.142429010762398</v>
-      </c>
-      <c r="G13">
-        <v>0.7945051915643692</v>
-      </c>
       <c r="H13">
+        <v>0.830276611624532</v>
+      </c>
+      <c r="I13">
+        <v>0.986909305837664</v>
+      </c>
+      <c r="J13">
+        <v>1.142429010762399</v>
+      </c>
+      <c r="K13">
+        <v>1.142429010762399</v>
+      </c>
+      <c r="L13">
         <v>1.098423037694314</v>
       </c>
-      <c r="I13">
-        <v>1.142429010762398</v>
-      </c>
-      <c r="J13">
-        <v>1.268981835564235</v>
-      </c>
-      <c r="K13">
-        <v>0.978023070069021</v>
-      </c>
-      <c r="L13">
-        <v>0.830276611624532</v>
-      </c>
       <c r="M13">
-        <v>0.9869093058376642</v>
+        <v>0.7945051915643689</v>
       </c>
       <c r="N13">
-        <v>1.142429010762398</v>
+        <v>1.142429010762399</v>
       </c>
       <c r="O13">
         <v>1.212438411798979</v>
@@ -1456,16 +1408,16 @@
         <v>1.003471801681674</v>
       </c>
       <c r="R13">
-        <v>1.207949752708537</v>
+        <v>1.207949752708538</v>
       </c>
       <c r="S13">
         <v>1.091975146309194</v>
       </c>
       <c r="T13">
-        <v>1.207949752708537</v>
+        <v>1.207949752708538</v>
       </c>
       <c r="U13">
-        <v>1.104588612422495</v>
+        <v>1.104588612422496</v>
       </c>
       <c r="V13">
         <v>1.112156692090476</v>
@@ -1474,7 +1426,7 @@
         <v>1.038998309364439</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,43 +1434,43 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>3.635942637510909</v>
+      </c>
+      <c r="D14">
+        <v>0.2404702404141349</v>
+      </c>
+      <c r="E14">
         <v>0.04375825964634195</v>
       </c>
-      <c r="D14">
+      <c r="F14">
+        <v>1.212490319680187</v>
+      </c>
+      <c r="G14">
         <v>3.635942637510909</v>
       </c>
-      <c r="E14">
-        <v>0.240470240414135</v>
-      </c>
-      <c r="F14">
+      <c r="H14">
+        <v>0.4758779848770468</v>
+      </c>
+      <c r="I14">
+        <v>2.492409552540417</v>
+      </c>
+      <c r="J14">
         <v>0.04375825964634195</v>
       </c>
-      <c r="G14">
+      <c r="K14">
+        <v>0.04375825964634195</v>
+      </c>
+      <c r="L14">
+        <v>0.177864771687463</v>
+      </c>
+      <c r="M14">
         <v>1.346905311395828</v>
-      </c>
-      <c r="H14">
-        <v>0.1778647716874631</v>
-      </c>
-      <c r="I14">
-        <v>0.04375825964634195</v>
-      </c>
-      <c r="J14">
-        <v>3.635942637510909</v>
-      </c>
-      <c r="K14">
-        <v>1.212490319680188</v>
-      </c>
-      <c r="L14">
-        <v>0.4758779848770468</v>
-      </c>
-      <c r="M14">
-        <v>2.492409552540417</v>
       </c>
       <c r="N14">
         <v>0.04375825964634195</v>
       </c>
       <c r="O14">
-        <v>0.240470240414135</v>
+        <v>0.2404702404141349</v>
       </c>
       <c r="P14">
         <v>1.938206438962522</v>
@@ -1545,7 +1497,7 @@
         <v>1.203214884719041</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,37 +1505,37 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>1.139827550582419</v>
+      </c>
+      <c r="D15">
+        <v>0.8386491562959589</v>
+      </c>
+      <c r="E15">
         <v>0.3732002823117419</v>
       </c>
-      <c r="D15">
+      <c r="F15">
+        <v>1.266482888926951</v>
+      </c>
+      <c r="G15">
         <v>1.139827550582419</v>
       </c>
-      <c r="E15">
-        <v>0.8386491562959589</v>
-      </c>
-      <c r="F15">
+      <c r="H15">
+        <v>0.9237306816719273</v>
+      </c>
+      <c r="I15">
+        <v>1.333188373975093</v>
+      </c>
+      <c r="J15">
         <v>0.3732002823117419</v>
       </c>
-      <c r="G15">
+      <c r="K15">
+        <v>0.3732002823117419</v>
+      </c>
+      <c r="L15">
+        <v>0.7202106691882119</v>
+      </c>
+      <c r="M15">
         <v>1.286060510114968</v>
-      </c>
-      <c r="H15">
-        <v>0.7202106691882119</v>
-      </c>
-      <c r="I15">
-        <v>0.3732002823117419</v>
-      </c>
-      <c r="J15">
-        <v>1.139827550582419</v>
-      </c>
-      <c r="K15">
-        <v>1.266482888926951</v>
-      </c>
-      <c r="L15">
-        <v>0.9237306816719273</v>
-      </c>
-      <c r="M15">
-        <v>1.333188373975094</v>
       </c>
       <c r="N15">
         <v>0.3732002823117419</v>
@@ -1613,10 +1565,10 @@
         <v>0.802187556323366</v>
       </c>
       <c r="W15">
-        <v>0.985168764133409</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>0.9851687641334088</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9933064491990004</v>
+        <v>1.13266606723797</v>
       </c>
       <c r="D16">
-        <v>0.9952012888710973</v>
+        <v>0.8803570771312796</v>
       </c>
       <c r="E16">
-        <v>1.004216966280962</v>
+        <v>1.607245341921403</v>
       </c>
       <c r="F16">
-        <v>0.9933064491990004</v>
+        <v>0.7505576322020405</v>
       </c>
       <c r="G16">
-        <v>1.001048778472865</v>
+        <v>1.13266606723797</v>
       </c>
       <c r="H16">
-        <v>1.001038764525782</v>
+        <v>1.095242531899154</v>
       </c>
       <c r="I16">
-        <v>0.9933064491990004</v>
+        <v>0.926957984865864</v>
       </c>
       <c r="J16">
-        <v>0.9952012888710973</v>
+        <v>1.607245341921403</v>
       </c>
       <c r="K16">
-        <v>1.001983811229735</v>
+        <v>1.607245341921403</v>
       </c>
       <c r="L16">
-        <v>0.9997145052085106</v>
+        <v>1.047428632414278</v>
       </c>
       <c r="M16">
-        <v>0.998756445089141</v>
+        <v>0.8862366476959828</v>
       </c>
       <c r="N16">
-        <v>0.9933064491990004</v>
+        <v>1.607245341921403</v>
       </c>
       <c r="O16">
-        <v>1.004216966280962</v>
+        <v>0.8803570771312796</v>
       </c>
       <c r="P16">
-        <v>0.9997091275760295</v>
+        <v>1.006511572184625</v>
       </c>
       <c r="Q16">
-        <v>1.002632872376914</v>
+        <v>0.8832968624136313</v>
       </c>
       <c r="R16">
-        <v>0.9975749014503531</v>
+        <v>1.206756162096884</v>
       </c>
       <c r="S16">
-        <v>1.000155677874975</v>
+        <v>0.9664199306884109</v>
       </c>
       <c r="T16">
-        <v>0.9975749014503531</v>
+        <v>1.206756162096884</v>
       </c>
       <c r="U16">
-        <v>0.9984433707059811</v>
+        <v>1.126626283496659</v>
       </c>
       <c r="V16">
-        <v>0.9974159864045851</v>
+        <v>1.222750095181608</v>
       </c>
       <c r="W16">
-        <v>0.9994083761096366</v>
+        <v>1.040836489420996</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.008239703266212</v>
+        <v>1.041178865559716</v>
       </c>
       <c r="D17">
-        <v>1.005127200166364</v>
+        <v>0.9968148897055098</v>
       </c>
       <c r="E17">
-        <v>0.9974414663356085</v>
+        <v>1.383423318000787</v>
       </c>
       <c r="F17">
-        <v>1.008239703266212</v>
+        <v>0.8407298491663797</v>
       </c>
       <c r="G17">
-        <v>0.9973096626796889</v>
+        <v>1.041178865559716</v>
       </c>
       <c r="H17">
-        <v>0.9999238758764857</v>
+        <v>1.048764406871592</v>
       </c>
       <c r="I17">
-        <v>1.008239703266212</v>
+        <v>0.9149483569277251</v>
       </c>
       <c r="J17">
-        <v>1.005127200166364</v>
+        <v>1.383423318000787</v>
       </c>
       <c r="K17">
-        <v>0.998000974263067</v>
+        <v>1.383423318000787</v>
       </c>
       <c r="L17">
-        <v>0.9994180783567008</v>
+        <v>1.068076262529563</v>
       </c>
       <c r="M17">
-        <v>1.000236106562591</v>
+        <v>0.9008460328295783</v>
       </c>
       <c r="N17">
-        <v>1.008239703266212</v>
+        <v>1.383423318000787</v>
       </c>
       <c r="O17">
-        <v>0.9974414663356085</v>
+        <v>0.9968148897055098</v>
       </c>
       <c r="P17">
-        <v>1.001284333250986</v>
+        <v>1.018996877632613</v>
       </c>
       <c r="Q17">
-        <v>0.9973755645076487</v>
+        <v>0.948830461267544</v>
       </c>
       <c r="R17">
-        <v>1.003602789922728</v>
+        <v>1.140472357755338</v>
       </c>
       <c r="S17">
-        <v>0.999959443060554</v>
+        <v>0.9796132626982681</v>
       </c>
       <c r="T17">
-        <v>1.003602789922728</v>
+        <v>1.140472357755338</v>
       </c>
       <c r="U17">
-        <v>1.002029508111968</v>
+        <v>1.080565776523898</v>
       </c>
       <c r="V17">
-        <v>1.003271547142817</v>
+        <v>1.141137284819276</v>
       </c>
       <c r="W17">
-        <v>1.00071213343834</v>
+        <v>1.024347747698857</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9938949339722025</v>
+        <v>0.8634322821107726</v>
       </c>
       <c r="D18">
-        <v>0.9910886276511572</v>
+        <v>1.225263004960876</v>
       </c>
       <c r="E18">
-        <v>1.007165445647784</v>
+        <v>0.937745587591214</v>
       </c>
       <c r="F18">
-        <v>0.9938949339722025</v>
+        <v>1.020053336523668</v>
       </c>
       <c r="G18">
-        <v>1.002415338122295</v>
+        <v>0.8634322821107726</v>
       </c>
       <c r="H18">
-        <v>1.00173263870619</v>
+        <v>0.9563796899489933</v>
       </c>
       <c r="I18">
-        <v>0.9938949339722025</v>
+        <v>0.8933436355826996</v>
       </c>
       <c r="J18">
-        <v>0.9910886276511572</v>
+        <v>0.937745587591214</v>
       </c>
       <c r="K18">
-        <v>1.000115476452915</v>
+        <v>0.937745587591214</v>
       </c>
       <c r="L18">
-        <v>1.002767888970694</v>
+        <v>1.107392829061261</v>
       </c>
       <c r="M18">
-        <v>0.9959690384992954</v>
+        <v>0.9308070036494395</v>
       </c>
       <c r="N18">
-        <v>0.9938949339722025</v>
+        <v>0.937745587591214</v>
       </c>
       <c r="O18">
-        <v>1.007165445647784</v>
+        <v>1.225263004960876</v>
       </c>
       <c r="P18">
-        <v>0.9991270366494704</v>
+        <v>1.044347643535825</v>
       </c>
       <c r="Q18">
-        <v>1.004790391885039</v>
+        <v>1.078035004305158</v>
       </c>
       <c r="R18">
-        <v>0.9973830024237144</v>
+        <v>1.008813624887621</v>
       </c>
       <c r="S18">
-        <v>1.000223137140412</v>
+        <v>1.006500763573696</v>
       </c>
       <c r="T18">
-        <v>0.9973830024237144</v>
+        <v>1.008813624887621</v>
       </c>
       <c r="U18">
-        <v>0.9986410863483595</v>
+        <v>0.9893119695780757</v>
       </c>
       <c r="V18">
-        <v>0.9976918558731281</v>
+        <v>0.9789986931807032</v>
       </c>
       <c r="W18">
-        <v>0.9993936735028166</v>
+        <v>0.9918021711786156</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.8591208969847812</v>
+      </c>
+      <c r="D19">
+        <v>1.324404140868784</v>
+      </c>
+      <c r="E19">
+        <v>0.8996825390640941</v>
+      </c>
+      <c r="F19">
+        <v>1.028440535143685</v>
+      </c>
+      <c r="G19">
+        <v>0.8591208969847812</v>
+      </c>
+      <c r="H19">
+        <v>0.9222872344281866</v>
+      </c>
+      <c r="I19">
+        <v>0.8686003937063391</v>
+      </c>
+      <c r="J19">
+        <v>0.8996825390640941</v>
+      </c>
+      <c r="K19">
+        <v>0.8996825390640941</v>
+      </c>
+      <c r="L19">
+        <v>1.148677266195585</v>
+      </c>
+      <c r="M19">
+        <v>0.8951417798623893</v>
+      </c>
+      <c r="N19">
+        <v>0.8996825390640941</v>
+      </c>
+      <c r="O19">
+        <v>1.324404140868784</v>
+      </c>
+      <c r="P19">
+        <v>1.091762518926783</v>
+      </c>
+      <c r="Q19">
+        <v>1.109772960365587</v>
+      </c>
+      <c r="R19">
+        <v>1.027735858972553</v>
+      </c>
+      <c r="S19">
+        <v>1.026222272571985</v>
+      </c>
+      <c r="T19">
+        <v>1.027735858972553</v>
+      </c>
+      <c r="U19">
+        <v>0.9945873391950122</v>
+      </c>
+      <c r="V19">
+        <v>0.9756063791688285</v>
+      </c>
+      <c r="W19">
+        <v>0.9932943482817307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9952012888710974</v>
+      </c>
+      <c r="D20">
+        <v>1.004216966280962</v>
+      </c>
+      <c r="E20">
+        <v>0.9933064491990006</v>
+      </c>
+      <c r="F20">
+        <v>1.001983811229734</v>
+      </c>
+      <c r="G20">
+        <v>0.9952012888710974</v>
+      </c>
+      <c r="H20">
+        <v>0.9997145052085106</v>
+      </c>
+      <c r="I20">
+        <v>0.998756445089141</v>
+      </c>
+      <c r="J20">
+        <v>0.9933064491990006</v>
+      </c>
+      <c r="K20">
+        <v>0.9933064491990006</v>
+      </c>
+      <c r="L20">
+        <v>1.001038764525782</v>
+      </c>
+      <c r="M20">
+        <v>1.001048778472865</v>
+      </c>
+      <c r="N20">
+        <v>0.9933064491990006</v>
+      </c>
+      <c r="O20">
+        <v>1.004216966280962</v>
+      </c>
+      <c r="P20">
+        <v>0.9997091275760295</v>
+      </c>
+      <c r="Q20">
+        <v>1.002632872376913</v>
+      </c>
+      <c r="R20">
+        <v>0.9975749014503532</v>
+      </c>
+      <c r="S20">
+        <v>1.000155677874975</v>
+      </c>
+      <c r="T20">
+        <v>0.9975749014503532</v>
+      </c>
+      <c r="U20">
+        <v>0.998443370705981</v>
+      </c>
+      <c r="V20">
+        <v>0.9974159864045848</v>
+      </c>
+      <c r="W20">
+        <v>0.9994083761096365</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.005127200166364</v>
+      </c>
+      <c r="D21">
+        <v>0.9974414663356086</v>
+      </c>
+      <c r="E21">
+        <v>1.008239703266212</v>
+      </c>
+      <c r="F21">
+        <v>0.9980009742630671</v>
+      </c>
+      <c r="G21">
+        <v>1.005127200166364</v>
+      </c>
+      <c r="H21">
+        <v>0.9994180783567008</v>
+      </c>
+      <c r="I21">
+        <v>1.00023610656259</v>
+      </c>
+      <c r="J21">
+        <v>1.008239703266212</v>
+      </c>
+      <c r="K21">
+        <v>1.008239703266212</v>
+      </c>
+      <c r="L21">
+        <v>0.9999238758764856</v>
+      </c>
+      <c r="M21">
+        <v>0.9973096626796888</v>
+      </c>
+      <c r="N21">
+        <v>1.008239703266212</v>
+      </c>
+      <c r="O21">
+        <v>0.9974414663356086</v>
+      </c>
+      <c r="P21">
+        <v>1.001284333250986</v>
+      </c>
+      <c r="Q21">
+        <v>0.9973755645076487</v>
+      </c>
+      <c r="R21">
+        <v>1.003602789922728</v>
+      </c>
+      <c r="S21">
+        <v>0.999959443060554</v>
+      </c>
+      <c r="T21">
+        <v>1.003602789922728</v>
+      </c>
+      <c r="U21">
+        <v>1.002029508111968</v>
+      </c>
+      <c r="V21">
+        <v>1.003271547142817</v>
+      </c>
+      <c r="W21">
+        <v>1.00071213343834</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9910886276511568</v>
+      </c>
+      <c r="D22">
+        <v>1.007165445647783</v>
+      </c>
+      <c r="E22">
+        <v>0.9938949339722026</v>
+      </c>
+      <c r="F22">
+        <v>1.000115476452914</v>
+      </c>
+      <c r="G22">
+        <v>0.9910886276511568</v>
+      </c>
+      <c r="H22">
+        <v>1.002767888970694</v>
+      </c>
+      <c r="I22">
+        <v>0.9959690384992957</v>
+      </c>
+      <c r="J22">
+        <v>0.9938949339722026</v>
+      </c>
+      <c r="K22">
+        <v>0.9938949339722026</v>
+      </c>
+      <c r="L22">
+        <v>1.001732638706191</v>
+      </c>
+      <c r="M22">
+        <v>1.002415338122295</v>
+      </c>
+      <c r="N22">
+        <v>0.9938949339722026</v>
+      </c>
+      <c r="O22">
+        <v>1.007165445647783</v>
+      </c>
+      <c r="P22">
+        <v>0.9991270366494701</v>
+      </c>
+      <c r="Q22">
+        <v>1.004790391885039</v>
+      </c>
+      <c r="R22">
+        <v>0.9973830024237142</v>
+      </c>
+      <c r="S22">
+        <v>1.000223137140412</v>
+      </c>
+      <c r="T22">
+        <v>0.9973830024237144</v>
+      </c>
+      <c r="U22">
+        <v>0.9986410863483595</v>
+      </c>
+      <c r="V22">
+        <v>0.9976918558731281</v>
+      </c>
+      <c r="W22">
+        <v>0.9993936735028166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.959140592634957</v>
+      </c>
+      <c r="D23">
+        <v>1.021554414375299</v>
+      </c>
+      <c r="E23">
         <v>0.9642719728820629</v>
       </c>
-      <c r="D19">
+      <c r="F23">
+        <v>1.003998331582548</v>
+      </c>
+      <c r="G23">
         <v>0.959140592634957</v>
       </c>
-      <c r="E19">
+      <c r="H23">
+        <v>1.008737280630876</v>
+      </c>
+      <c r="I23">
+        <v>0.9894631935095852</v>
+      </c>
+      <c r="J23">
+        <v>0.9642719728820629</v>
+      </c>
+      <c r="K23">
+        <v>0.9642719728820629</v>
+      </c>
+      <c r="L23">
+        <v>1.00713202133326</v>
+      </c>
+      <c r="M23">
+        <v>1.01245018747485</v>
+      </c>
+      <c r="N23">
+        <v>0.9642719728820629</v>
+      </c>
+      <c r="O23">
         <v>1.021554414375299</v>
       </c>
-      <c r="F19">
-        <v>0.9642719728820629</v>
-      </c>
-      <c r="G19">
-        <v>1.01245018747485</v>
-      </c>
-      <c r="H19">
-        <v>1.00713202133326</v>
-      </c>
-      <c r="I19">
-        <v>0.9642719728820629</v>
-      </c>
-      <c r="J19">
-        <v>0.959140592634957</v>
-      </c>
-      <c r="K19">
-        <v>1.003998331582548</v>
-      </c>
-      <c r="L19">
-        <v>1.008737280630876</v>
-      </c>
-      <c r="M19">
-        <v>0.989463193509585</v>
-      </c>
-      <c r="N19">
-        <v>0.9642719728820629</v>
-      </c>
-      <c r="O19">
-        <v>1.021554414375299</v>
-      </c>
-      <c r="P19">
-        <v>0.9903475035051281</v>
-      </c>
-      <c r="Q19">
+      <c r="P23">
+        <v>0.9903475035051279</v>
+      </c>
+      <c r="Q23">
         <v>1.017002300925074</v>
       </c>
-      <c r="R19">
-        <v>0.9816556599641064</v>
-      </c>
-      <c r="S19">
-        <v>0.9977150648283687</v>
-      </c>
-      <c r="T19">
-        <v>0.9816556599641064</v>
-      </c>
-      <c r="U19">
-        <v>0.9893542918417922</v>
-      </c>
-      <c r="V19">
-        <v>0.9843378280498463</v>
-      </c>
-      <c r="W19">
+      <c r="R23">
+        <v>0.9816556599641063</v>
+      </c>
+      <c r="S23">
+        <v>0.9977150648283685</v>
+      </c>
+      <c r="T23">
+        <v>0.9816556599641061</v>
+      </c>
+      <c r="U23">
+        <v>0.989354291841792</v>
+      </c>
+      <c r="V23">
+        <v>0.9843378280498462</v>
+      </c>
+      <c r="W23">
         <v>0.9958434993029296</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/GossA-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/GossA-HW15.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 0, 0]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.009549869402041</v>
+        <v>0.8477808095912102</v>
       </c>
       <c r="D3">
-        <v>0.9926379822485107</v>
+        <v>1.267623904252883</v>
       </c>
       <c r="E3">
-        <v>1.034788392119574</v>
+        <v>0.9505008452391173</v>
       </c>
       <c r="F3">
-        <v>0.9856803892041108</v>
+        <v>1.01298600756196</v>
       </c>
       <c r="G3">
-        <v>1.009549869402041</v>
+        <v>0.8477808095912102</v>
       </c>
       <c r="H3">
-        <v>1.005145105906757</v>
+        <v>0.9498403545749273</v>
       </c>
       <c r="I3">
-        <v>0.9970288124353552</v>
+        <v>0.8732505114308362</v>
       </c>
       <c r="J3">
-        <v>1.034788392119574</v>
+        <v>0.9505008452391173</v>
       </c>
       <c r="K3">
-        <v>1.034788392119574</v>
+        <v>0.9505008452391173</v>
       </c>
       <c r="L3">
-        <v>1.001894007941505</v>
+        <v>1.128868980282419</v>
       </c>
       <c r="M3">
-        <v>0.9939116694126299</v>
+        <v>0.9130528320821308</v>
       </c>
       <c r="N3">
-        <v>1.034788392119574</v>
+        <v>0.9505008452391173</v>
       </c>
       <c r="O3">
-        <v>0.9926379822485107</v>
+        <v>1.267623904252883</v>
       </c>
       <c r="P3">
-        <v>1.001093925825276</v>
+        <v>1.057702356922047</v>
       </c>
       <c r="Q3">
-        <v>0.9932748258305704</v>
+        <v>1.090338368167507</v>
       </c>
       <c r="R3">
-        <v>1.012325414590042</v>
+        <v>1.021968519694403</v>
       </c>
       <c r="S3">
-        <v>0.9986998403543937</v>
+        <v>1.009485848642075</v>
       </c>
       <c r="T3">
-        <v>1.012325414590042</v>
+        <v>1.021968519694403</v>
       </c>
       <c r="U3">
-        <v>1.007721978295689</v>
+        <v>0.9947395977913354</v>
       </c>
       <c r="V3">
-        <v>1.013135261060466</v>
+        <v>0.9858918472808916</v>
       </c>
       <c r="W3">
-        <v>1.00257952858381</v>
+        <v>0.9929880306269355</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.018061987890342</v>
+        <v>0.8502591955266513</v>
       </c>
       <c r="D4">
-        <v>0.9845095129184515</v>
+        <v>1.247076031779357</v>
       </c>
       <c r="E4">
-        <v>1.066965948100107</v>
+        <v>0.9435612647255238</v>
       </c>
       <c r="F4">
-        <v>0.9724853073651298</v>
+        <v>1.017338520289409</v>
       </c>
       <c r="G4">
-        <v>1.018061987890342</v>
+        <v>0.8502591955266513</v>
       </c>
       <c r="H4">
-        <v>1.010594042399899</v>
+        <v>0.9537450287094633</v>
       </c>
       <c r="I4">
-        <v>0.9942119729208772</v>
+        <v>0.8816981912363049</v>
       </c>
       <c r="J4">
-        <v>1.066965948100107</v>
+        <v>0.9435612647255238</v>
       </c>
       <c r="K4">
-        <v>1.066965948100107</v>
+        <v>0.9435612647255238</v>
       </c>
       <c r="L4">
-        <v>1.003216506674783</v>
+        <v>1.118685484710582</v>
       </c>
       <c r="M4">
-        <v>0.9886094469464985</v>
+        <v>0.9223899137225143</v>
       </c>
       <c r="N4">
-        <v>1.066965948100107</v>
+        <v>0.9435612647255238</v>
       </c>
       <c r="O4">
-        <v>0.9845095129184515</v>
+        <v>1.247076031779357</v>
       </c>
       <c r="P4">
-        <v>1.001285750404397</v>
+        <v>1.048667613653004</v>
       </c>
       <c r="Q4">
-        <v>0.9865594799324751</v>
+        <v>1.084732972750936</v>
       </c>
       <c r="R4">
-        <v>1.0231791496363</v>
+        <v>1.013632164010511</v>
       </c>
       <c r="S4">
-        <v>0.9970603159184307</v>
+        <v>1.006575047009508</v>
       </c>
       <c r="T4">
-        <v>1.0231791496363</v>
+        <v>1.013632164010511</v>
       </c>
       <c r="U4">
-        <v>1.01453672396385</v>
+        <v>0.9908216014385116</v>
       </c>
       <c r="V4">
-        <v>1.025022568791101</v>
+        <v>0.9813695340959141</v>
       </c>
       <c r="W4">
-        <v>1.004831840652011</v>
+        <v>0.9918442038374757</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.033681632001416</v>
+        <v>0.8451024057010793</v>
       </c>
       <c r="D5">
-        <v>0.9767116085414443</v>
+        <v>1.307442629428572</v>
       </c>
       <c r="E5">
-        <v>1.124612576346047</v>
+        <v>0.9614508491646903</v>
       </c>
       <c r="F5">
-        <v>0.9480230225651949</v>
+        <v>1.005294356846361</v>
       </c>
       <c r="G5">
-        <v>1.033681632001416</v>
+        <v>0.8451024057010793</v>
       </c>
       <c r="H5">
-        <v>1.018176753936587</v>
+        <v>0.9415718769002712</v>
       </c>
       <c r="I5">
-        <v>0.9881490442745923</v>
+        <v>0.8580422849407011</v>
       </c>
       <c r="J5">
-        <v>1.124612576346047</v>
+        <v>0.9614508491646903</v>
       </c>
       <c r="K5">
-        <v>1.124612576346047</v>
+        <v>0.9614508491646903</v>
       </c>
       <c r="L5">
-        <v>1.008173636262436</v>
+        <v>1.14805119065229</v>
       </c>
       <c r="M5">
-        <v>0.9776778493363298</v>
+        <v>0.895289791078168</v>
       </c>
       <c r="N5">
-        <v>1.124612576346047</v>
+        <v>0.9614508491646903</v>
       </c>
       <c r="O5">
-        <v>0.9767116085414443</v>
+        <v>1.307442629428572</v>
       </c>
       <c r="P5">
-        <v>1.00519662027143</v>
+        <v>1.076272517564826</v>
       </c>
       <c r="Q5">
-        <v>0.9771947289388871</v>
+        <v>1.10136621025337</v>
       </c>
       <c r="R5">
-        <v>1.045001938962969</v>
+        <v>1.037998628098114</v>
       </c>
       <c r="S5">
-        <v>0.9960236966263967</v>
+        <v>1.015944942069273</v>
       </c>
       <c r="T5">
-        <v>1.045001938962969</v>
+        <v>1.037998628098114</v>
       </c>
       <c r="U5">
-        <v>1.028170916556309</v>
+        <v>1.002321418843127</v>
       </c>
       <c r="V5">
-        <v>1.047459248514257</v>
+        <v>0.99414730490744</v>
       </c>
       <c r="W5">
-        <v>1.009400765408006</v>
+        <v>0.9952806730890165</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.047816968171457</v>
+        <v>0.8450136609715914</v>
       </c>
       <c r="D6">
-        <v>0.9750638460803325</v>
+        <v>1.345567950420455</v>
       </c>
       <c r="E6">
-        <v>1.191060643435945</v>
+        <v>0.9690240966664783</v>
       </c>
       <c r="F6">
-        <v>0.9201409371506901</v>
+        <v>0.9987955811363642</v>
       </c>
       <c r="G6">
-        <v>1.047816968171457</v>
+        <v>0.8450136609715914</v>
       </c>
       <c r="H6">
-        <v>1.023513649639335</v>
+        <v>0.9328371395454538</v>
       </c>
       <c r="I6">
-        <v>0.9853001637731883</v>
+        <v>0.8448351916590913</v>
       </c>
       <c r="J6">
-        <v>1.191060643435945</v>
+        <v>0.9690240966664783</v>
       </c>
       <c r="K6">
-        <v>1.191060643435945</v>
+        <v>0.9690240966664783</v>
       </c>
       <c r="L6">
-        <v>1.01144661808824</v>
+        <v>1.165774429761364</v>
       </c>
       <c r="M6">
-        <v>0.9745994015497633</v>
+        <v>0.8786677351704548</v>
       </c>
       <c r="N6">
-        <v>1.191060643435945</v>
+        <v>0.9690240966664783</v>
       </c>
       <c r="O6">
-        <v>0.9750638460803325</v>
+        <v>1.345567950420455</v>
       </c>
       <c r="P6">
-        <v>1.011440407125895</v>
+        <v>1.095290805696023</v>
       </c>
       <c r="Q6">
-        <v>0.9748316238150478</v>
+        <v>1.112117842795455</v>
       </c>
       <c r="R6">
-        <v>1.071313819229245</v>
+        <v>1.053201902686175</v>
       </c>
       <c r="S6">
-        <v>0.999160071933851</v>
+        <v>1.023083115520834</v>
       </c>
       <c r="T6">
-        <v>1.071313819229245</v>
+        <v>1.053201902686175</v>
       </c>
       <c r="U6">
-        <v>1.047135214809374</v>
+        <v>1.009568360807245</v>
       </c>
       <c r="V6">
-        <v>1.075920300534688</v>
+        <v>1.001459507979092</v>
       </c>
       <c r="W6">
-        <v>1.016117778486119</v>
+        <v>0.9975644731664066</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9998006516551128</v>
+        <v>1.306488216165257</v>
       </c>
       <c r="D7">
-        <v>1.002404298021776</v>
+        <v>0.6219309763036097</v>
       </c>
       <c r="E7">
-        <v>0.9989712151970769</v>
+        <v>1.910979662037557</v>
       </c>
       <c r="F7">
-        <v>1.000200758621121</v>
+        <v>0.6330971985798485</v>
       </c>
       <c r="G7">
-        <v>0.9998006516551128</v>
+        <v>1.306488216165257</v>
       </c>
       <c r="H7">
-        <v>0.9992850789786711</v>
+        <v>1.175827232589331</v>
       </c>
       <c r="I7">
-        <v>0.9993954462897544</v>
+        <v>0.9894375246798314</v>
       </c>
       <c r="J7">
-        <v>0.9989712151970769</v>
+        <v>1.910979662037557</v>
       </c>
       <c r="K7">
-        <v>0.9989712151970769</v>
+        <v>1.910979662037557</v>
       </c>
       <c r="L7">
-        <v>1.000926134346776</v>
+        <v>0.9694783013111864</v>
       </c>
       <c r="M7">
-        <v>0.9992816217352416</v>
+        <v>0.9018372414430864</v>
       </c>
       <c r="N7">
-        <v>0.9989712151970769</v>
+        <v>1.910979662037557</v>
       </c>
       <c r="O7">
-        <v>1.002404298021776</v>
+        <v>0.6219309763036097</v>
       </c>
       <c r="P7">
-        <v>1.001102474838445</v>
+        <v>0.9642095962344335</v>
       </c>
       <c r="Q7">
-        <v>1.000842959878509</v>
+        <v>0.7618841088733481</v>
       </c>
       <c r="R7">
-        <v>1.000392054957989</v>
+        <v>1.279799618168808</v>
       </c>
       <c r="S7">
-        <v>1.000495523804044</v>
+        <v>0.9434188113039844</v>
       </c>
       <c r="T7">
-        <v>1.000392054957989</v>
+        <v>1.279799618168808</v>
       </c>
       <c r="U7">
-        <v>1.000114446652302</v>
+        <v>1.185309023987378</v>
       </c>
       <c r="V7">
-        <v>0.999885800361257</v>
+        <v>1.330443151597413</v>
       </c>
       <c r="W7">
-        <v>1.000033150605691</v>
+        <v>1.063634544138714</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000861543284914</v>
+        <v>1.313038111058897</v>
       </c>
       <c r="D8">
-        <v>1.005303480927447</v>
+        <v>0.6309581088817445</v>
       </c>
       <c r="E8">
-        <v>0.9973468970691651</v>
+        <v>1.900281771655763</v>
       </c>
       <c r="F8">
-        <v>1.000588497274555</v>
+        <v>0.6356718308312986</v>
       </c>
       <c r="G8">
-        <v>1.000861543284914</v>
+        <v>1.313038111058897</v>
       </c>
       <c r="H8">
-        <v>0.9980167828463806</v>
+        <v>1.170963114224045</v>
       </c>
       <c r="I8">
-        <v>0.9990393613569375</v>
+        <v>0.9910472637975943</v>
       </c>
       <c r="J8">
-        <v>0.9973468970691651</v>
+        <v>1.900281771655763</v>
       </c>
       <c r="K8">
-        <v>0.9973468970691651</v>
+        <v>1.900281771655763</v>
       </c>
       <c r="L8">
-        <v>1.001949421935191</v>
+        <v>0.9711712363086175</v>
       </c>
       <c r="M8">
-        <v>0.9981908621956811</v>
+        <v>0.9001023562881852</v>
       </c>
       <c r="N8">
-        <v>0.9973468970691651</v>
+        <v>1.900281771655763</v>
       </c>
       <c r="O8">
-        <v>1.005303480927447</v>
+        <v>0.6309581088817445</v>
       </c>
       <c r="P8">
-        <v>1.00308251210618</v>
+        <v>0.9719981099703208</v>
       </c>
       <c r="Q8">
-        <v>1.001747171561564</v>
+        <v>0.7655302325849649</v>
       </c>
       <c r="R8">
-        <v>1.001170640427175</v>
+        <v>1.281425997198801</v>
       </c>
       <c r="S8">
-        <v>1.001451962136014</v>
+        <v>0.9480328587429422</v>
       </c>
       <c r="T8">
-        <v>1.001170640427175</v>
+        <v>1.281425997198801</v>
       </c>
       <c r="U8">
-        <v>1.000425695869302</v>
+        <v>1.186095086971147</v>
       </c>
       <c r="V8">
-        <v>0.9998099361092743</v>
+        <v>1.32893242390807</v>
       </c>
       <c r="W8">
-        <v>1.000162105861284</v>
+        <v>1.064154224130768</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.003881370254968</v>
+        <v>1.311969996332428</v>
       </c>
       <c r="D9">
-        <v>1.00607071036577</v>
+        <v>0.6412182806166583</v>
       </c>
       <c r="E9">
-        <v>0.9964126993379409</v>
+        <v>1.891310742830009</v>
       </c>
       <c r="F9">
-        <v>1.00045959047096</v>
+        <v>0.6385009535254347</v>
       </c>
       <c r="G9">
-        <v>1.003881370254968</v>
+        <v>1.311969996332428</v>
       </c>
       <c r="H9">
-        <v>0.9972243407458872</v>
+        <v>1.167304844590914</v>
       </c>
       <c r="I9">
-        <v>0.9999360742238969</v>
+        <v>0.990022859632738</v>
       </c>
       <c r="J9">
-        <v>0.9964126993379409</v>
+        <v>1.891310742830009</v>
       </c>
       <c r="K9">
-        <v>0.9964126993379409</v>
+        <v>1.891310742830009</v>
       </c>
       <c r="L9">
-        <v>1.001907294808494</v>
+        <v>0.9737855960180254</v>
       </c>
       <c r="M9">
-        <v>0.9978529115446052</v>
+        <v>0.898634092734761</v>
       </c>
       <c r="N9">
-        <v>0.9964126993379409</v>
+        <v>1.891310742830009</v>
       </c>
       <c r="O9">
-        <v>1.00607071036577</v>
+        <v>0.6412182806166583</v>
       </c>
       <c r="P9">
-        <v>1.004976040310369</v>
+        <v>0.9765941384745429</v>
       </c>
       <c r="Q9">
-        <v>1.001961810955188</v>
+        <v>0.7699261866757097</v>
       </c>
       <c r="R9">
-        <v>1.002121593319559</v>
+        <v>1.281499673259698</v>
       </c>
       <c r="S9">
-        <v>1.002601664055114</v>
+        <v>0.9506074565612823</v>
       </c>
       <c r="T9">
-        <v>1.00212159331956</v>
+        <v>1.281499673259698</v>
       </c>
       <c r="U9">
-        <v>1.001054422875821</v>
+        <v>1.185783278128464</v>
       </c>
       <c r="V9">
-        <v>1.000126078168245</v>
+        <v>1.326888771068773</v>
       </c>
       <c r="W9">
-        <v>1.000468123969065</v>
+        <v>1.064093420785121</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.005827713176583</v>
+        <v>1.359013946071301</v>
       </c>
       <c r="D10">
-        <v>1.014877577586833</v>
+        <v>0.6533301028775969</v>
       </c>
       <c r="E10">
-        <v>0.9919134572592941</v>
+        <v>1.86001395410939</v>
       </c>
       <c r="F10">
-        <v>1.001341369592853</v>
+        <v>0.6446190788544733</v>
       </c>
       <c r="G10">
-        <v>1.005827713176583</v>
+        <v>1.359013946071301</v>
       </c>
       <c r="H10">
-        <v>0.9939199156388446</v>
+        <v>1.152072406836917</v>
       </c>
       <c r="I10">
-        <v>0.9986696069787083</v>
+        <v>1.007701251087534</v>
       </c>
       <c r="J10">
-        <v>0.9919134572592941</v>
+        <v>1.86001395410939</v>
       </c>
       <c r="K10">
-        <v>0.9919134572592941</v>
+        <v>1.86001395410939</v>
       </c>
       <c r="L10">
-        <v>1.004934278424824</v>
+        <v>0.969466682701754</v>
       </c>
       <c r="M10">
-        <v>0.9950491254249291</v>
+        <v>0.8967224192174533</v>
       </c>
       <c r="N10">
-        <v>0.9919134572592941</v>
+        <v>1.86001395410939</v>
       </c>
       <c r="O10">
-        <v>1.014877577586833</v>
+        <v>0.6533301028775969</v>
       </c>
       <c r="P10">
-        <v>1.010352645381708</v>
+        <v>1.006172024474449</v>
       </c>
       <c r="Q10">
-        <v>1.004963351505881</v>
+        <v>0.7750262610475251</v>
       </c>
       <c r="R10">
-        <v>1.004206249340904</v>
+        <v>1.290786001019429</v>
       </c>
       <c r="S10">
-        <v>1.005251472062782</v>
+        <v>0.9696888227221169</v>
       </c>
       <c r="T10">
-        <v>1.004206249340903</v>
+        <v>1.290786001019429</v>
       </c>
       <c r="U10">
-        <v>1.00191696836191</v>
+        <v>1.192270105568935</v>
       </c>
       <c r="V10">
-        <v>0.9999162661413866</v>
+        <v>1.325818875277026</v>
       </c>
       <c r="W10">
-        <v>1.000816630510359</v>
+        <v>1.067867480219552</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.017403749352137</v>
+        <v>1.010403626782295</v>
       </c>
       <c r="D11">
-        <v>1.021296944539634</v>
+        <v>0.989305322038683</v>
       </c>
       <c r="E11">
-        <v>0.9868163179283931</v>
+        <v>1.040420257879107</v>
       </c>
       <c r="F11">
-        <v>1.001099382174346</v>
+        <v>0.983625000792049</v>
       </c>
       <c r="G11">
-        <v>1.017403749352137</v>
+        <v>1.010403626782295</v>
       </c>
       <c r="H11">
-        <v>0.9896610023539382</v>
+        <v>1.006274641959758</v>
       </c>
       <c r="I11">
-        <v>1.000542049114229</v>
+        <v>0.9966093621194336</v>
       </c>
       <c r="J11">
-        <v>0.9868163179283931</v>
+        <v>1.040420257879107</v>
       </c>
       <c r="K11">
-        <v>0.9868163179283931</v>
+        <v>1.040420257879107</v>
       </c>
       <c r="L11">
-        <v>1.00684771441653</v>
+        <v>1.002101409424883</v>
       </c>
       <c r="M11">
-        <v>0.9919314426737693</v>
+        <v>0.9930398909249045</v>
       </c>
       <c r="N11">
-        <v>0.9868163179283931</v>
+        <v>1.040420257879107</v>
       </c>
       <c r="O11">
-        <v>1.021296944539634</v>
+        <v>0.989305322038683</v>
       </c>
       <c r="P11">
-        <v>1.019350346945886</v>
+        <v>0.9998544744104889</v>
       </c>
       <c r="Q11">
-        <v>1.006614193606702</v>
+        <v>0.9911726064817938</v>
       </c>
       <c r="R11">
-        <v>1.008505670606721</v>
+        <v>1.013376402233362</v>
       </c>
       <c r="S11">
-        <v>1.010210712188514</v>
+        <v>0.9975829465819608</v>
       </c>
       <c r="T11">
-        <v>1.008505670606721</v>
+        <v>1.013376402233362</v>
       </c>
       <c r="U11">
-        <v>1.004362113623483</v>
+        <v>1.008292274406247</v>
       </c>
       <c r="V11">
-        <v>1.000852954484465</v>
+        <v>1.01471787110082</v>
       </c>
       <c r="W11">
-        <v>1.001949825319122</v>
+        <v>1.002722438990139</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7496650844597287</v>
+        <v>1.007426729687876</v>
       </c>
       <c r="D12">
-        <v>0.7997830995241429</v>
+        <v>0.9938856392334231</v>
       </c>
       <c r="E12">
-        <v>0.9597020113045045</v>
+        <v>1.020115741717492</v>
       </c>
       <c r="F12">
-        <v>1.019123428434768</v>
+        <v>0.9914196444295766</v>
       </c>
       <c r="G12">
-        <v>0.7496650844597287</v>
+        <v>1.007426729687876</v>
       </c>
       <c r="H12">
-        <v>1.137698033442856</v>
+        <v>1.003350199008055</v>
       </c>
       <c r="I12">
-        <v>1.001317200607892</v>
+        <v>0.9994013562041367</v>
       </c>
       <c r="J12">
-        <v>0.9597020113045045</v>
+        <v>1.020115741717492</v>
       </c>
       <c r="K12">
-        <v>0.9597020113045045</v>
+        <v>1.020115741717492</v>
       </c>
       <c r="L12">
-        <v>0.9149525429399392</v>
+        <v>1.000189871550107</v>
       </c>
       <c r="M12">
-        <v>1.153831219304493</v>
+        <v>0.9970799447324153</v>
       </c>
       <c r="N12">
-        <v>0.9597020113045045</v>
+        <v>1.020115741717492</v>
       </c>
       <c r="O12">
-        <v>0.7997830995241429</v>
+        <v>0.9938856392334231</v>
       </c>
       <c r="P12">
-        <v>0.7747240919919358</v>
+        <v>1.00065618446065</v>
       </c>
       <c r="Q12">
-        <v>0.9768071594143179</v>
+        <v>0.9954827919829192</v>
       </c>
       <c r="R12">
-        <v>0.8363833984294587</v>
+        <v>1.007142703546264</v>
       </c>
       <c r="S12">
-        <v>0.9010931344294549</v>
+        <v>0.9994641045512384</v>
       </c>
       <c r="T12">
-        <v>0.8363833984294587</v>
+        <v>1.007142703546264</v>
       </c>
       <c r="U12">
-        <v>0.9157453536482172</v>
+        <v>1.004627013842802</v>
       </c>
       <c r="V12">
-        <v>0.9245366851794745</v>
+        <v>1.00772475941774</v>
       </c>
       <c r="W12">
-        <v>0.9670090775022904</v>
+        <v>1.001608640820385</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.268981835564235</v>
+        <v>1.037459698424261</v>
       </c>
       <c r="D13">
-        <v>1.212438411798979</v>
+        <v>0.9746929723781538</v>
       </c>
       <c r="E13">
-        <v>1.142429010762399</v>
+        <v>1.062305913460125</v>
       </c>
       <c r="F13">
-        <v>0.978023070069021</v>
+        <v>0.9716344858747433</v>
       </c>
       <c r="G13">
-        <v>1.268981835564235</v>
+        <v>1.037459698424261</v>
       </c>
       <c r="H13">
-        <v>0.830276611624532</v>
+        <v>1.00966397898655</v>
       </c>
       <c r="I13">
-        <v>0.986909305837664</v>
+        <v>1.006308103077579</v>
       </c>
       <c r="J13">
-        <v>1.142429010762399</v>
+        <v>1.062305913460125</v>
       </c>
       <c r="K13">
-        <v>1.142429010762399</v>
+        <v>1.062305913460125</v>
       </c>
       <c r="L13">
-        <v>1.098423037694314</v>
+        <v>0.9958274396230715</v>
       </c>
       <c r="M13">
-        <v>0.7945051915643689</v>
+        <v>0.9933208837398076</v>
       </c>
       <c r="N13">
-        <v>1.142429010762399</v>
+        <v>1.062305913460125</v>
       </c>
       <c r="O13">
-        <v>1.212438411798979</v>
+        <v>0.9746929723781538</v>
       </c>
       <c r="P13">
-        <v>1.240710123681607</v>
+        <v>1.006076335401207</v>
       </c>
       <c r="Q13">
-        <v>1.003471801681674</v>
+        <v>0.9840069280589807</v>
       </c>
       <c r="R13">
-        <v>1.207949752708538</v>
+        <v>1.024819528087513</v>
       </c>
       <c r="S13">
-        <v>1.091975146309194</v>
+        <v>1.001824518180741</v>
       </c>
       <c r="T13">
-        <v>1.207949752708538</v>
+        <v>1.024819528087513</v>
       </c>
       <c r="U13">
-        <v>1.104588612422496</v>
+        <v>1.016944867000587</v>
       </c>
       <c r="V13">
-        <v>1.112156692090476</v>
+        <v>1.026017076292494</v>
       </c>
       <c r="W13">
-        <v>1.038998309364439</v>
+        <v>1.006401684445536</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>3.635942637510909</v>
+        <v>1.024512325554363</v>
       </c>
       <c r="D14">
-        <v>0.2404702404141349</v>
+        <v>0.9812644132309228</v>
       </c>
       <c r="E14">
-        <v>0.04375825964634195</v>
+        <v>1.092966054985522</v>
       </c>
       <c r="F14">
-        <v>1.212490319680187</v>
+        <v>0.9615026088752074</v>
       </c>
       <c r="G14">
-        <v>3.635942637510909</v>
+        <v>1.024512325554363</v>
       </c>
       <c r="H14">
-        <v>0.4758779848770468</v>
+        <v>1.013756717290583</v>
       </c>
       <c r="I14">
-        <v>2.492409552540417</v>
+        <v>0.9910497057609468</v>
       </c>
       <c r="J14">
-        <v>0.04375825964634195</v>
+        <v>1.092966054985522</v>
       </c>
       <c r="K14">
-        <v>0.04375825964634195</v>
+        <v>1.092966054985522</v>
       </c>
       <c r="L14">
-        <v>0.177864771687463</v>
+        <v>1.006075943637264</v>
       </c>
       <c r="M14">
-        <v>1.346905311395828</v>
+        <v>0.9831656076930448</v>
       </c>
       <c r="N14">
-        <v>0.04375825964634195</v>
+        <v>1.092966054985522</v>
       </c>
       <c r="O14">
-        <v>0.2404702404141349</v>
+        <v>0.9812644132309228</v>
       </c>
       <c r="P14">
-        <v>1.938206438962522</v>
+        <v>1.002888369392643</v>
       </c>
       <c r="Q14">
-        <v>0.7936877759049816</v>
+        <v>0.9822150104619838</v>
       </c>
       <c r="R14">
-        <v>1.306723712523795</v>
+        <v>1.032914264590269</v>
       </c>
       <c r="S14">
-        <v>1.741106063106957</v>
+        <v>0.9963141154927767</v>
       </c>
       <c r="T14">
-        <v>1.306723712523795</v>
+        <v>1.032914264590269</v>
       </c>
       <c r="U14">
-        <v>1.316769112241803</v>
+        <v>1.020477100365963</v>
       </c>
       <c r="V14">
-        <v>1.062166941722711</v>
+        <v>1.034974891289875</v>
       </c>
       <c r="W14">
-        <v>1.203214884719041</v>
+        <v>1.006786672128482</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.139827550582419</v>
+        <v>1.009549869402041</v>
       </c>
       <c r="D15">
-        <v>0.8386491562959589</v>
+        <v>0.9926379822485107</v>
       </c>
       <c r="E15">
-        <v>0.3732002823117419</v>
+        <v>1.034788392119574</v>
       </c>
       <c r="F15">
-        <v>1.266482888926951</v>
+        <v>0.9856803892041108</v>
       </c>
       <c r="G15">
-        <v>1.139827550582419</v>
+        <v>1.009549869402041</v>
       </c>
       <c r="H15">
-        <v>0.9237306816719273</v>
+        <v>1.005145105906757</v>
       </c>
       <c r="I15">
-        <v>1.333188373975093</v>
+        <v>0.9970288124353552</v>
       </c>
       <c r="J15">
-        <v>0.3732002823117419</v>
+        <v>1.034788392119574</v>
       </c>
       <c r="K15">
-        <v>0.3732002823117419</v>
+        <v>1.034788392119574</v>
       </c>
       <c r="L15">
-        <v>0.7202106691882119</v>
+        <v>1.001894007941505</v>
       </c>
       <c r="M15">
-        <v>1.286060510114968</v>
+        <v>0.9939116694126299</v>
       </c>
       <c r="N15">
-        <v>0.3732002823117419</v>
+        <v>1.034788392119574</v>
       </c>
       <c r="O15">
-        <v>0.8386491562959589</v>
+        <v>0.9926379822485107</v>
       </c>
       <c r="P15">
-        <v>0.9892383534391891</v>
+        <v>1.001093925825276</v>
       </c>
       <c r="Q15">
-        <v>1.062354833205463</v>
+        <v>0.9932748258305704</v>
       </c>
       <c r="R15">
-        <v>0.78389232973004</v>
+        <v>1.012325414590042</v>
       </c>
       <c r="S15">
-        <v>1.088179072331115</v>
+        <v>0.9986998403543937</v>
       </c>
       <c r="T15">
-        <v>0.7838923297300401</v>
+        <v>1.012325414590042</v>
       </c>
       <c r="U15">
-        <v>0.9094343748262721</v>
+        <v>1.007721978295689</v>
       </c>
       <c r="V15">
-        <v>0.802187556323366</v>
+        <v>1.013135261060466</v>
       </c>
       <c r="W15">
-        <v>0.9851687641334088</v>
+        <v>1.00257952858381</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.13266606723797</v>
+        <v>1.018061987890342</v>
       </c>
       <c r="D16">
-        <v>0.8803570771312796</v>
+        <v>0.9845095129184515</v>
       </c>
       <c r="E16">
-        <v>1.607245341921403</v>
+        <v>1.066965948100107</v>
       </c>
       <c r="F16">
-        <v>0.7505576322020405</v>
+        <v>0.9724853073651298</v>
       </c>
       <c r="G16">
-        <v>1.13266606723797</v>
+        <v>1.018061987890342</v>
       </c>
       <c r="H16">
-        <v>1.095242531899154</v>
+        <v>1.010594042399899</v>
       </c>
       <c r="I16">
-        <v>0.926957984865864</v>
+        <v>0.9942119729208772</v>
       </c>
       <c r="J16">
-        <v>1.607245341921403</v>
+        <v>1.066965948100107</v>
       </c>
       <c r="K16">
-        <v>1.607245341921403</v>
+        <v>1.066965948100107</v>
       </c>
       <c r="L16">
-        <v>1.047428632414278</v>
+        <v>1.003216506674783</v>
       </c>
       <c r="M16">
-        <v>0.8862366476959828</v>
+        <v>0.9886094469464985</v>
       </c>
       <c r="N16">
-        <v>1.607245341921403</v>
+        <v>1.066965948100107</v>
       </c>
       <c r="O16">
-        <v>0.8803570771312796</v>
+        <v>0.9845095129184515</v>
       </c>
       <c r="P16">
-        <v>1.006511572184625</v>
+        <v>1.001285750404397</v>
       </c>
       <c r="Q16">
-        <v>0.8832968624136313</v>
+        <v>0.9865594799324751</v>
       </c>
       <c r="R16">
-        <v>1.206756162096884</v>
+        <v>1.0231791496363</v>
       </c>
       <c r="S16">
-        <v>0.9664199306884109</v>
+        <v>0.9970603159184307</v>
       </c>
       <c r="T16">
-        <v>1.206756162096884</v>
+        <v>1.0231791496363</v>
       </c>
       <c r="U16">
-        <v>1.126626283496659</v>
+        <v>1.01453672396385</v>
       </c>
       <c r="V16">
-        <v>1.222750095181608</v>
+        <v>1.025022568791101</v>
       </c>
       <c r="W16">
-        <v>1.040836489420996</v>
+        <v>1.004831840652011</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.041178865559716</v>
+        <v>1.033681632001416</v>
       </c>
       <c r="D17">
-        <v>0.9968148897055098</v>
+        <v>0.9767116085414443</v>
       </c>
       <c r="E17">
-        <v>1.383423318000787</v>
+        <v>1.124612576346047</v>
       </c>
       <c r="F17">
-        <v>0.8407298491663797</v>
+        <v>0.9480230225651949</v>
       </c>
       <c r="G17">
-        <v>1.041178865559716</v>
+        <v>1.033681632001416</v>
       </c>
       <c r="H17">
-        <v>1.048764406871592</v>
+        <v>1.018176753936587</v>
       </c>
       <c r="I17">
-        <v>0.9149483569277251</v>
+        <v>0.9881490442745923</v>
       </c>
       <c r="J17">
-        <v>1.383423318000787</v>
+        <v>1.124612576346047</v>
       </c>
       <c r="K17">
-        <v>1.383423318000787</v>
+        <v>1.124612576346047</v>
       </c>
       <c r="L17">
-        <v>1.068076262529563</v>
+        <v>1.008173636262436</v>
       </c>
       <c r="M17">
-        <v>0.9008460328295783</v>
+        <v>0.9776778493363298</v>
       </c>
       <c r="N17">
-        <v>1.383423318000787</v>
+        <v>1.124612576346047</v>
       </c>
       <c r="O17">
-        <v>0.9968148897055098</v>
+        <v>0.9767116085414443</v>
       </c>
       <c r="P17">
-        <v>1.018996877632613</v>
+        <v>1.00519662027143</v>
       </c>
       <c r="Q17">
-        <v>0.948830461267544</v>
+        <v>0.9771947289388871</v>
       </c>
       <c r="R17">
-        <v>1.140472357755338</v>
+        <v>1.045001938962969</v>
       </c>
       <c r="S17">
-        <v>0.9796132626982681</v>
+        <v>0.9960236966263967</v>
       </c>
       <c r="T17">
-        <v>1.140472357755338</v>
+        <v>1.045001938962969</v>
       </c>
       <c r="U17">
-        <v>1.080565776523898</v>
+        <v>1.028170916556309</v>
       </c>
       <c r="V17">
-        <v>1.141137284819276</v>
+        <v>1.047459248514257</v>
       </c>
       <c r="W17">
-        <v>1.024347747698857</v>
+        <v>1.009400765408006</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8634322821107726</v>
+        <v>1.047816968171457</v>
       </c>
       <c r="D18">
-        <v>1.225263004960876</v>
+        <v>0.9750638460803325</v>
       </c>
       <c r="E18">
-        <v>0.937745587591214</v>
+        <v>1.191060643435945</v>
       </c>
       <c r="F18">
-        <v>1.020053336523668</v>
+        <v>0.9201409371506901</v>
       </c>
       <c r="G18">
-        <v>0.8634322821107726</v>
+        <v>1.047816968171457</v>
       </c>
       <c r="H18">
-        <v>0.9563796899489933</v>
+        <v>1.023513649639335</v>
       </c>
       <c r="I18">
-        <v>0.8933436355826996</v>
+        <v>0.9853001637731883</v>
       </c>
       <c r="J18">
-        <v>0.937745587591214</v>
+        <v>1.191060643435945</v>
       </c>
       <c r="K18">
-        <v>0.937745587591214</v>
+        <v>1.191060643435945</v>
       </c>
       <c r="L18">
-        <v>1.107392829061261</v>
+        <v>1.01144661808824</v>
       </c>
       <c r="M18">
-        <v>0.9308070036494395</v>
+        <v>0.9745994015497633</v>
       </c>
       <c r="N18">
-        <v>0.937745587591214</v>
+        <v>1.191060643435945</v>
       </c>
       <c r="O18">
-        <v>1.225263004960876</v>
+        <v>0.9750638460803325</v>
       </c>
       <c r="P18">
-        <v>1.044347643535825</v>
+        <v>1.011440407125895</v>
       </c>
       <c r="Q18">
-        <v>1.078035004305158</v>
+        <v>0.9748316238150478</v>
       </c>
       <c r="R18">
-        <v>1.008813624887621</v>
+        <v>1.071313819229245</v>
       </c>
       <c r="S18">
-        <v>1.006500763573696</v>
+        <v>0.999160071933851</v>
       </c>
       <c r="T18">
-        <v>1.008813624887621</v>
+        <v>1.071313819229245</v>
       </c>
       <c r="U18">
-        <v>0.9893119695780757</v>
+        <v>1.047135214809374</v>
       </c>
       <c r="V18">
-        <v>0.9789986931807032</v>
+        <v>1.075920300534688</v>
       </c>
       <c r="W18">
-        <v>0.9918021711786156</v>
+        <v>1.016117778486119</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8591208969847812</v>
+        <v>0.9998006516551128</v>
       </c>
       <c r="D19">
-        <v>1.324404140868784</v>
+        <v>1.002404298021776</v>
       </c>
       <c r="E19">
-        <v>0.8996825390640941</v>
+        <v>0.9989712151970769</v>
       </c>
       <c r="F19">
-        <v>1.028440535143685</v>
+        <v>1.000200758621121</v>
       </c>
       <c r="G19">
-        <v>0.8591208969847812</v>
+        <v>0.9998006516551128</v>
       </c>
       <c r="H19">
-        <v>0.9222872344281866</v>
+        <v>0.9992850789786711</v>
       </c>
       <c r="I19">
-        <v>0.8686003937063391</v>
+        <v>0.9993954462897544</v>
       </c>
       <c r="J19">
-        <v>0.8996825390640941</v>
+        <v>0.9989712151970769</v>
       </c>
       <c r="K19">
-        <v>0.8996825390640941</v>
+        <v>0.9989712151970769</v>
       </c>
       <c r="L19">
-        <v>1.148677266195585</v>
+        <v>1.000926134346776</v>
       </c>
       <c r="M19">
-        <v>0.8951417798623893</v>
+        <v>0.9992816217352416</v>
       </c>
       <c r="N19">
-        <v>0.8996825390640941</v>
+        <v>0.9989712151970769</v>
       </c>
       <c r="O19">
-        <v>1.324404140868784</v>
+        <v>1.002404298021776</v>
       </c>
       <c r="P19">
-        <v>1.091762518926783</v>
+        <v>1.001102474838445</v>
       </c>
       <c r="Q19">
-        <v>1.109772960365587</v>
+        <v>1.000842959878509</v>
       </c>
       <c r="R19">
-        <v>1.027735858972553</v>
+        <v>1.000392054957989</v>
       </c>
       <c r="S19">
-        <v>1.026222272571985</v>
+        <v>1.000495523804044</v>
       </c>
       <c r="T19">
-        <v>1.027735858972553</v>
+        <v>1.000392054957989</v>
       </c>
       <c r="U19">
-        <v>0.9945873391950122</v>
+        <v>1.000114446652302</v>
       </c>
       <c r="V19">
-        <v>0.9756063791688285</v>
+        <v>0.999885800361257</v>
       </c>
       <c r="W19">
-        <v>0.9932943482817307</v>
+        <v>1.000033150605691</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9952012888710974</v>
+        <v>1.000861543284914</v>
       </c>
       <c r="D20">
-        <v>1.004216966280962</v>
+        <v>1.005303480927447</v>
       </c>
       <c r="E20">
-        <v>0.9933064491990006</v>
+        <v>0.9973468970691651</v>
       </c>
       <c r="F20">
-        <v>1.001983811229734</v>
+        <v>1.000588497274555</v>
       </c>
       <c r="G20">
-        <v>0.9952012888710974</v>
+        <v>1.000861543284914</v>
       </c>
       <c r="H20">
-        <v>0.9997145052085106</v>
+        <v>0.9980167828463806</v>
       </c>
       <c r="I20">
-        <v>0.998756445089141</v>
+        <v>0.9990393613569375</v>
       </c>
       <c r="J20">
-        <v>0.9933064491990006</v>
+        <v>0.9973468970691651</v>
       </c>
       <c r="K20">
-        <v>0.9933064491990006</v>
+        <v>0.9973468970691651</v>
       </c>
       <c r="L20">
-        <v>1.001038764525782</v>
+        <v>1.001949421935191</v>
       </c>
       <c r="M20">
-        <v>1.001048778472865</v>
+        <v>0.9981908621956811</v>
       </c>
       <c r="N20">
-        <v>0.9933064491990006</v>
+        <v>0.9973468970691651</v>
       </c>
       <c r="O20">
-        <v>1.004216966280962</v>
+        <v>1.005303480927447</v>
       </c>
       <c r="P20">
-        <v>0.9997091275760295</v>
+        <v>1.00308251210618</v>
       </c>
       <c r="Q20">
-        <v>1.002632872376913</v>
+        <v>1.001747171561564</v>
       </c>
       <c r="R20">
-        <v>0.9975749014503532</v>
+        <v>1.001170640427175</v>
       </c>
       <c r="S20">
-        <v>1.000155677874975</v>
+        <v>1.001451962136014</v>
       </c>
       <c r="T20">
-        <v>0.9975749014503532</v>
+        <v>1.001170640427175</v>
       </c>
       <c r="U20">
-        <v>0.998443370705981</v>
+        <v>1.000425695869302</v>
       </c>
       <c r="V20">
-        <v>0.9974159864045848</v>
+        <v>0.9998099361092743</v>
       </c>
       <c r="W20">
-        <v>0.9994083761096365</v>
+        <v>1.000162105861284</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.005127200166364</v>
+        <v>1.003881370254968</v>
       </c>
       <c r="D21">
-        <v>0.9974414663356086</v>
+        <v>1.00607071036577</v>
       </c>
       <c r="E21">
-        <v>1.008239703266212</v>
+        <v>0.9964126993379409</v>
       </c>
       <c r="F21">
-        <v>0.9980009742630671</v>
+        <v>1.00045959047096</v>
       </c>
       <c r="G21">
-        <v>1.005127200166364</v>
+        <v>1.003881370254968</v>
       </c>
       <c r="H21">
-        <v>0.9994180783567008</v>
+        <v>0.9972243407458872</v>
       </c>
       <c r="I21">
-        <v>1.00023610656259</v>
+        <v>0.9999360742238969</v>
       </c>
       <c r="J21">
-        <v>1.008239703266212</v>
+        <v>0.9964126993379409</v>
       </c>
       <c r="K21">
-        <v>1.008239703266212</v>
+        <v>0.9964126993379409</v>
       </c>
       <c r="L21">
-        <v>0.9999238758764856</v>
+        <v>1.001907294808494</v>
       </c>
       <c r="M21">
-        <v>0.9973096626796888</v>
+        <v>0.9978529115446052</v>
       </c>
       <c r="N21">
-        <v>1.008239703266212</v>
+        <v>0.9964126993379409</v>
       </c>
       <c r="O21">
-        <v>0.9974414663356086</v>
+        <v>1.00607071036577</v>
       </c>
       <c r="P21">
-        <v>1.001284333250986</v>
+        <v>1.004976040310369</v>
       </c>
       <c r="Q21">
-        <v>0.9973755645076487</v>
+        <v>1.001961810955188</v>
       </c>
       <c r="R21">
-        <v>1.003602789922728</v>
+        <v>1.002121593319559</v>
       </c>
       <c r="S21">
-        <v>0.999959443060554</v>
+        <v>1.002601664055114</v>
       </c>
       <c r="T21">
-        <v>1.003602789922728</v>
+        <v>1.00212159331956</v>
       </c>
       <c r="U21">
-        <v>1.002029508111968</v>
+        <v>1.001054422875821</v>
       </c>
       <c r="V21">
-        <v>1.003271547142817</v>
+        <v>1.000126078168245</v>
       </c>
       <c r="W21">
-        <v>1.00071213343834</v>
+        <v>1.000468123969065</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9910886276511568</v>
+        <v>1.005827713176583</v>
       </c>
       <c r="D22">
-        <v>1.007165445647783</v>
+        <v>1.014877577586833</v>
       </c>
       <c r="E22">
-        <v>0.9938949339722026</v>
+        <v>0.9919134572592941</v>
       </c>
       <c r="F22">
-        <v>1.000115476452914</v>
+        <v>1.001341369592853</v>
       </c>
       <c r="G22">
-        <v>0.9910886276511568</v>
+        <v>1.005827713176583</v>
       </c>
       <c r="H22">
-        <v>1.002767888970694</v>
+        <v>0.9939199156388446</v>
       </c>
       <c r="I22">
-        <v>0.9959690384992957</v>
+        <v>0.9986696069787083</v>
       </c>
       <c r="J22">
-        <v>0.9938949339722026</v>
+        <v>0.9919134572592941</v>
       </c>
       <c r="K22">
-        <v>0.9938949339722026</v>
+        <v>0.9919134572592941</v>
       </c>
       <c r="L22">
-        <v>1.001732638706191</v>
+        <v>1.004934278424824</v>
       </c>
       <c r="M22">
-        <v>1.002415338122295</v>
+        <v>0.9950491254249291</v>
       </c>
       <c r="N22">
-        <v>0.9938949339722026</v>
+        <v>0.9919134572592941</v>
       </c>
       <c r="O22">
-        <v>1.007165445647783</v>
+        <v>1.014877577586833</v>
       </c>
       <c r="P22">
-        <v>0.9991270366494701</v>
+        <v>1.010352645381708</v>
       </c>
       <c r="Q22">
-        <v>1.004790391885039</v>
+        <v>1.004963351505881</v>
       </c>
       <c r="R22">
-        <v>0.9973830024237142</v>
+        <v>1.004206249340904</v>
       </c>
       <c r="S22">
-        <v>1.000223137140412</v>
+        <v>1.005251472062782</v>
       </c>
       <c r="T22">
-        <v>0.9973830024237144</v>
+        <v>1.004206249340903</v>
       </c>
       <c r="U22">
-        <v>0.9986410863483595</v>
+        <v>1.00191696836191</v>
       </c>
       <c r="V22">
-        <v>0.9976918558731281</v>
+        <v>0.9999162661413866</v>
       </c>
       <c r="W22">
-        <v>0.9993936735028166</v>
+        <v>1.000816630510359</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.017403749352137</v>
+      </c>
+      <c r="D23">
+        <v>1.021296944539634</v>
+      </c>
+      <c r="E23">
+        <v>0.9868163179283931</v>
+      </c>
+      <c r="F23">
+        <v>1.001099382174346</v>
+      </c>
+      <c r="G23">
+        <v>1.017403749352137</v>
+      </c>
+      <c r="H23">
+        <v>0.9896610023539382</v>
+      </c>
+      <c r="I23">
+        <v>1.000542049114229</v>
+      </c>
+      <c r="J23">
+        <v>0.9868163179283931</v>
+      </c>
+      <c r="K23">
+        <v>0.9868163179283931</v>
+      </c>
+      <c r="L23">
+        <v>1.00684771441653</v>
+      </c>
+      <c r="M23">
+        <v>0.9919314426737693</v>
+      </c>
+      <c r="N23">
+        <v>0.9868163179283931</v>
+      </c>
+      <c r="O23">
+        <v>1.021296944539634</v>
+      </c>
+      <c r="P23">
+        <v>1.019350346945886</v>
+      </c>
+      <c r="Q23">
+        <v>1.006614193606702</v>
+      </c>
+      <c r="R23">
+        <v>1.008505670606721</v>
+      </c>
+      <c r="S23">
+        <v>1.010210712188514</v>
+      </c>
+      <c r="T23">
+        <v>1.008505670606721</v>
+      </c>
+      <c r="U23">
+        <v>1.004362113623483</v>
+      </c>
+      <c r="V23">
+        <v>1.000852954484465</v>
+      </c>
+      <c r="W23">
+        <v>1.001949825319122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.7496650844597287</v>
+      </c>
+      <c r="D24">
+        <v>0.7997830995241429</v>
+      </c>
+      <c r="E24">
+        <v>0.9597020113045045</v>
+      </c>
+      <c r="F24">
+        <v>1.019123428434768</v>
+      </c>
+      <c r="G24">
+        <v>0.7496650844597287</v>
+      </c>
+      <c r="H24">
+        <v>1.137698033442856</v>
+      </c>
+      <c r="I24">
+        <v>1.001317200607892</v>
+      </c>
+      <c r="J24">
+        <v>0.9597020113045045</v>
+      </c>
+      <c r="K24">
+        <v>0.9597020113045045</v>
+      </c>
+      <c r="L24">
+        <v>0.9149525429399392</v>
+      </c>
+      <c r="M24">
+        <v>1.153831219304493</v>
+      </c>
+      <c r="N24">
+        <v>0.9597020113045045</v>
+      </c>
+      <c r="O24">
+        <v>0.7997830995241429</v>
+      </c>
+      <c r="P24">
+        <v>0.7747240919919358</v>
+      </c>
+      <c r="Q24">
+        <v>0.9768071594143179</v>
+      </c>
+      <c r="R24">
+        <v>0.8363833984294587</v>
+      </c>
+      <c r="S24">
+        <v>0.9010931344294549</v>
+      </c>
+      <c r="T24">
+        <v>0.8363833984294587</v>
+      </c>
+      <c r="U24">
+        <v>0.9157453536482172</v>
+      </c>
+      <c r="V24">
+        <v>0.9245366851794745</v>
+      </c>
+      <c r="W24">
+        <v>0.9670090775022904</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.268981835564235</v>
+      </c>
+      <c r="D25">
+        <v>1.212438411798979</v>
+      </c>
+      <c r="E25">
+        <v>1.142429010762399</v>
+      </c>
+      <c r="F25">
+        <v>0.978023070069021</v>
+      </c>
+      <c r="G25">
+        <v>1.268981835564235</v>
+      </c>
+      <c r="H25">
+        <v>0.830276611624532</v>
+      </c>
+      <c r="I25">
+        <v>0.986909305837664</v>
+      </c>
+      <c r="J25">
+        <v>1.142429010762399</v>
+      </c>
+      <c r="K25">
+        <v>1.142429010762399</v>
+      </c>
+      <c r="L25">
+        <v>1.098423037694314</v>
+      </c>
+      <c r="M25">
+        <v>0.7945051915643689</v>
+      </c>
+      <c r="N25">
+        <v>1.142429010762399</v>
+      </c>
+      <c r="O25">
+        <v>1.212438411798979</v>
+      </c>
+      <c r="P25">
+        <v>1.240710123681607</v>
+      </c>
+      <c r="Q25">
+        <v>1.003471801681674</v>
+      </c>
+      <c r="R25">
+        <v>1.207949752708538</v>
+      </c>
+      <c r="S25">
+        <v>1.091975146309194</v>
+      </c>
+      <c r="T25">
+        <v>1.207949752708538</v>
+      </c>
+      <c r="U25">
+        <v>1.104588612422496</v>
+      </c>
+      <c r="V25">
+        <v>1.112156692090476</v>
+      </c>
+      <c r="W25">
+        <v>1.038998309364439</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>3.635942637510909</v>
+      </c>
+      <c r="D26">
+        <v>0.2404702404141349</v>
+      </c>
+      <c r="E26">
+        <v>0.04375825964634195</v>
+      </c>
+      <c r="F26">
+        <v>1.212490319680187</v>
+      </c>
+      <c r="G26">
+        <v>3.635942637510909</v>
+      </c>
+      <c r="H26">
+        <v>0.4758779848770468</v>
+      </c>
+      <c r="I26">
+        <v>2.492409552540417</v>
+      </c>
+      <c r="J26">
+        <v>0.04375825964634195</v>
+      </c>
+      <c r="K26">
+        <v>0.04375825964634195</v>
+      </c>
+      <c r="L26">
+        <v>0.177864771687463</v>
+      </c>
+      <c r="M26">
+        <v>1.346905311395828</v>
+      </c>
+      <c r="N26">
+        <v>0.04375825964634195</v>
+      </c>
+      <c r="O26">
+        <v>0.2404702404141349</v>
+      </c>
+      <c r="P26">
+        <v>1.938206438962522</v>
+      </c>
+      <c r="Q26">
+        <v>0.7936877759049816</v>
+      </c>
+      <c r="R26">
+        <v>1.306723712523795</v>
+      </c>
+      <c r="S26">
+        <v>1.741106063106957</v>
+      </c>
+      <c r="T26">
+        <v>1.306723712523795</v>
+      </c>
+      <c r="U26">
+        <v>1.316769112241803</v>
+      </c>
+      <c r="V26">
+        <v>1.062166941722711</v>
+      </c>
+      <c r="W26">
+        <v>1.203214884719041</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.139827550582419</v>
+      </c>
+      <c r="D27">
+        <v>0.8386491562959589</v>
+      </c>
+      <c r="E27">
+        <v>0.3732002823117419</v>
+      </c>
+      <c r="F27">
+        <v>1.266482888926951</v>
+      </c>
+      <c r="G27">
+        <v>1.139827550582419</v>
+      </c>
+      <c r="H27">
+        <v>0.9237306816719273</v>
+      </c>
+      <c r="I27">
+        <v>1.333188373975093</v>
+      </c>
+      <c r="J27">
+        <v>0.3732002823117419</v>
+      </c>
+      <c r="K27">
+        <v>0.3732002823117419</v>
+      </c>
+      <c r="L27">
+        <v>0.7202106691882119</v>
+      </c>
+      <c r="M27">
+        <v>1.286060510114968</v>
+      </c>
+      <c r="N27">
+        <v>0.3732002823117419</v>
+      </c>
+      <c r="O27">
+        <v>0.8386491562959589</v>
+      </c>
+      <c r="P27">
+        <v>0.9892383534391891</v>
+      </c>
+      <c r="Q27">
+        <v>1.062354833205463</v>
+      </c>
+      <c r="R27">
+        <v>0.78389232973004</v>
+      </c>
+      <c r="S27">
+        <v>1.088179072331115</v>
+      </c>
+      <c r="T27">
+        <v>0.7838923297300401</v>
+      </c>
+      <c r="U27">
+        <v>0.9094343748262721</v>
+      </c>
+      <c r="V27">
+        <v>0.802187556323366</v>
+      </c>
+      <c r="W27">
+        <v>0.9851687641334088</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.13266606723797</v>
+      </c>
+      <c r="D28">
+        <v>0.8803570771312796</v>
+      </c>
+      <c r="E28">
+        <v>1.607245341921403</v>
+      </c>
+      <c r="F28">
+        <v>0.7505576322020405</v>
+      </c>
+      <c r="G28">
+        <v>1.13266606723797</v>
+      </c>
+      <c r="H28">
+        <v>1.095242531899154</v>
+      </c>
+      <c r="I28">
+        <v>0.926957984865864</v>
+      </c>
+      <c r="J28">
+        <v>1.607245341921403</v>
+      </c>
+      <c r="K28">
+        <v>1.607245341921403</v>
+      </c>
+      <c r="L28">
+        <v>1.047428632414278</v>
+      </c>
+      <c r="M28">
+        <v>0.8862366476959828</v>
+      </c>
+      <c r="N28">
+        <v>1.607245341921403</v>
+      </c>
+      <c r="O28">
+        <v>0.8803570771312796</v>
+      </c>
+      <c r="P28">
+        <v>1.006511572184625</v>
+      </c>
+      <c r="Q28">
+        <v>0.8832968624136313</v>
+      </c>
+      <c r="R28">
+        <v>1.206756162096884</v>
+      </c>
+      <c r="S28">
+        <v>0.9664199306884109</v>
+      </c>
+      <c r="T28">
+        <v>1.206756162096884</v>
+      </c>
+      <c r="U28">
+        <v>1.126626283496659</v>
+      </c>
+      <c r="V28">
+        <v>1.222750095181608</v>
+      </c>
+      <c r="W28">
+        <v>1.040836489420996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.041178865559716</v>
+      </c>
+      <c r="D29">
+        <v>0.9968148897055098</v>
+      </c>
+      <c r="E29">
+        <v>1.383423318000787</v>
+      </c>
+      <c r="F29">
+        <v>0.8407298491663797</v>
+      </c>
+      <c r="G29">
+        <v>1.041178865559716</v>
+      </c>
+      <c r="H29">
+        <v>1.048764406871592</v>
+      </c>
+      <c r="I29">
+        <v>0.9149483569277251</v>
+      </c>
+      <c r="J29">
+        <v>1.383423318000787</v>
+      </c>
+      <c r="K29">
+        <v>1.383423318000787</v>
+      </c>
+      <c r="L29">
+        <v>1.068076262529563</v>
+      </c>
+      <c r="M29">
+        <v>0.9008460328295783</v>
+      </c>
+      <c r="N29">
+        <v>1.383423318000787</v>
+      </c>
+      <c r="O29">
+        <v>0.9968148897055098</v>
+      </c>
+      <c r="P29">
+        <v>1.018996877632613</v>
+      </c>
+      <c r="Q29">
+        <v>0.948830461267544</v>
+      </c>
+      <c r="R29">
+        <v>1.140472357755338</v>
+      </c>
+      <c r="S29">
+        <v>0.9796132626982681</v>
+      </c>
+      <c r="T29">
+        <v>1.140472357755338</v>
+      </c>
+      <c r="U29">
+        <v>1.080565776523898</v>
+      </c>
+      <c r="V29">
+        <v>1.141137284819276</v>
+      </c>
+      <c r="W29">
+        <v>1.024347747698857</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.8634322821107726</v>
+      </c>
+      <c r="D30">
+        <v>1.225263004960876</v>
+      </c>
+      <c r="E30">
+        <v>0.937745587591214</v>
+      </c>
+      <c r="F30">
+        <v>1.020053336523668</v>
+      </c>
+      <c r="G30">
+        <v>0.8634322821107726</v>
+      </c>
+      <c r="H30">
+        <v>0.9563796899489933</v>
+      </c>
+      <c r="I30">
+        <v>0.8933436355826996</v>
+      </c>
+      <c r="J30">
+        <v>0.937745587591214</v>
+      </c>
+      <c r="K30">
+        <v>0.937745587591214</v>
+      </c>
+      <c r="L30">
+        <v>1.107392829061261</v>
+      </c>
+      <c r="M30">
+        <v>0.9308070036494395</v>
+      </c>
+      <c r="N30">
+        <v>0.937745587591214</v>
+      </c>
+      <c r="O30">
+        <v>1.225263004960876</v>
+      </c>
+      <c r="P30">
+        <v>1.044347643535825</v>
+      </c>
+      <c r="Q30">
+        <v>1.078035004305158</v>
+      </c>
+      <c r="R30">
+        <v>1.008813624887621</v>
+      </c>
+      <c r="S30">
+        <v>1.006500763573696</v>
+      </c>
+      <c r="T30">
+        <v>1.008813624887621</v>
+      </c>
+      <c r="U30">
+        <v>0.9893119695780757</v>
+      </c>
+      <c r="V30">
+        <v>0.9789986931807032</v>
+      </c>
+      <c r="W30">
+        <v>0.9918021711786156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.8591208969847812</v>
+      </c>
+      <c r="D31">
+        <v>1.324404140868784</v>
+      </c>
+      <c r="E31">
+        <v>0.8996825390640941</v>
+      </c>
+      <c r="F31">
+        <v>1.028440535143685</v>
+      </c>
+      <c r="G31">
+        <v>0.8591208969847812</v>
+      </c>
+      <c r="H31">
+        <v>0.9222872344281866</v>
+      </c>
+      <c r="I31">
+        <v>0.8686003937063391</v>
+      </c>
+      <c r="J31">
+        <v>0.8996825390640941</v>
+      </c>
+      <c r="K31">
+        <v>0.8996825390640941</v>
+      </c>
+      <c r="L31">
+        <v>1.148677266195585</v>
+      </c>
+      <c r="M31">
+        <v>0.8951417798623893</v>
+      </c>
+      <c r="N31">
+        <v>0.8996825390640941</v>
+      </c>
+      <c r="O31">
+        <v>1.324404140868784</v>
+      </c>
+      <c r="P31">
+        <v>1.091762518926783</v>
+      </c>
+      <c r="Q31">
+        <v>1.109772960365587</v>
+      </c>
+      <c r="R31">
+        <v>1.027735858972553</v>
+      </c>
+      <c r="S31">
+        <v>1.026222272571985</v>
+      </c>
+      <c r="T31">
+        <v>1.027735858972553</v>
+      </c>
+      <c r="U31">
+        <v>0.9945873391950122</v>
+      </c>
+      <c r="V31">
+        <v>0.9756063791688285</v>
+      </c>
+      <c r="W31">
+        <v>0.9932943482817307</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.302335194706849</v>
+      </c>
+      <c r="D32">
+        <v>0.7548764528219182</v>
+      </c>
+      <c r="E32">
+        <v>1.805248583839726</v>
+      </c>
+      <c r="F32">
+        <v>0.6620594544383563</v>
+      </c>
+      <c r="G32">
+        <v>1.302335194706849</v>
+      </c>
+      <c r="H32">
+        <v>1.127535245342466</v>
+      </c>
+      <c r="I32">
+        <v>0.9698589353424658</v>
+      </c>
+      <c r="J32">
+        <v>1.805248583839726</v>
+      </c>
+      <c r="K32">
+        <v>1.805248583839726</v>
+      </c>
+      <c r="L32">
+        <v>1.013239659095891</v>
+      </c>
+      <c r="M32">
+        <v>0.8724815289041099</v>
+      </c>
+      <c r="N32">
+        <v>1.805248583839726</v>
+      </c>
+      <c r="O32">
+        <v>0.7548764528219182</v>
+      </c>
+      <c r="P32">
+        <v>1.028605823764384</v>
+      </c>
+      <c r="Q32">
+        <v>0.813678990863014</v>
+      </c>
+      <c r="R32">
+        <v>1.287486743789498</v>
+      </c>
+      <c r="S32">
+        <v>0.9765643921442925</v>
+      </c>
+      <c r="T32">
+        <v>1.287486743789498</v>
+      </c>
+      <c r="U32">
+        <v>1.183735440068151</v>
+      </c>
+      <c r="V32">
+        <v>1.308038068822466</v>
+      </c>
+      <c r="W32">
+        <v>1.063454381811473</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>2.313446413578948</v>
+      </c>
+      <c r="D33">
+        <v>1.341504682947369</v>
+      </c>
+      <c r="E33">
+        <v>0.08656499415263157</v>
+      </c>
+      <c r="F33">
+        <v>1.35322254368421</v>
+      </c>
+      <c r="G33">
+        <v>2.313446413578948</v>
+      </c>
+      <c r="H33">
+        <v>0.4148450784210526</v>
+      </c>
+      <c r="I33">
+        <v>1.598232091578947</v>
+      </c>
+      <c r="J33">
+        <v>0.08656499415263157</v>
+      </c>
+      <c r="K33">
+        <v>0.08656499415263157</v>
+      </c>
+      <c r="L33">
+        <v>0.7895791353684212</v>
+      </c>
+      <c r="M33">
+        <v>0.921983937368421</v>
+      </c>
+      <c r="N33">
+        <v>0.08656499415263157</v>
+      </c>
+      <c r="O33">
+        <v>1.341504682947369</v>
+      </c>
+      <c r="P33">
+        <v>1.827475548263158</v>
+      </c>
+      <c r="Q33">
+        <v>1.131744310157895</v>
+      </c>
+      <c r="R33">
+        <v>1.247172030226316</v>
+      </c>
+      <c r="S33">
+        <v>1.525645011298246</v>
+      </c>
+      <c r="T33">
+        <v>1.247172030226316</v>
+      </c>
+      <c r="U33">
+        <v>1.165875007011842</v>
+      </c>
+      <c r="V33">
+        <v>0.95001300444</v>
+      </c>
+      <c r="W33">
+        <v>1.1024223596375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.342166235863158</v>
+      </c>
+      <c r="D34">
+        <v>0.8159869238421055</v>
+      </c>
+      <c r="E34">
+        <v>1.739638943468421</v>
+      </c>
+      <c r="F34">
+        <v>0.6779404597894736</v>
+      </c>
+      <c r="G34">
+        <v>1.342166235863158</v>
+      </c>
+      <c r="H34">
+        <v>1.095994567894737</v>
+      </c>
+      <c r="I34">
+        <v>0.9773479268421053</v>
+      </c>
+      <c r="J34">
+        <v>1.739638943468421</v>
+      </c>
+      <c r="K34">
+        <v>1.739638943468421</v>
+      </c>
+      <c r="L34">
+        <v>1.026298970947369</v>
+      </c>
+      <c r="M34">
+        <v>0.8589722563157896</v>
+      </c>
+      <c r="N34">
+        <v>1.739638943468421</v>
+      </c>
+      <c r="O34">
+        <v>0.8159869238421055</v>
+      </c>
+      <c r="P34">
+        <v>1.079076579852632</v>
+      </c>
+      <c r="Q34">
+        <v>0.8374795900789476</v>
+      </c>
+      <c r="R34">
+        <v>1.299264034391228</v>
+      </c>
+      <c r="S34">
+        <v>1.005708472007018</v>
+      </c>
+      <c r="T34">
+        <v>1.299264034391228</v>
+      </c>
+      <c r="U34">
+        <v>1.189191089872369</v>
+      </c>
+      <c r="V34">
+        <v>1.299280660591579</v>
+      </c>
+      <c r="W34">
+        <v>1.066793285620395</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.4385092129803458</v>
+      </c>
+      <c r="D35">
+        <v>2.334482157112217</v>
+      </c>
+      <c r="E35">
+        <v>0.5747055985020091</v>
+      </c>
+      <c r="F35">
+        <v>1.116024297814418</v>
+      </c>
+      <c r="G35">
+        <v>0.4385092129803458</v>
+      </c>
+      <c r="H35">
+        <v>0.6895102014881167</v>
+      </c>
+      <c r="I35">
+        <v>0.5166063997628573</v>
+      </c>
+      <c r="J35">
+        <v>0.5747055985020091</v>
+      </c>
+      <c r="K35">
+        <v>0.5747055985020091</v>
+      </c>
+      <c r="L35">
+        <v>1.558378770403783</v>
+      </c>
+      <c r="M35">
+        <v>0.6240961799865764</v>
+      </c>
+      <c r="N35">
+        <v>0.5747055985020091</v>
+      </c>
+      <c r="O35">
+        <v>2.334482157112217</v>
+      </c>
+      <c r="P35">
+        <v>1.386495685046282</v>
+      </c>
+      <c r="Q35">
+        <v>1.479289168549397</v>
+      </c>
+      <c r="R35">
+        <v>1.115898989531524</v>
+      </c>
+      <c r="S35">
+        <v>1.132362516693046</v>
+      </c>
+      <c r="T35">
+        <v>1.115898989531524</v>
+      </c>
+      <c r="U35">
+        <v>0.9929482871452873</v>
+      </c>
+      <c r="V35">
+        <v>0.9092997494166315</v>
+      </c>
+      <c r="W35">
+        <v>0.9815391022562905</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9952012888710974</v>
+      </c>
+      <c r="D36">
+        <v>1.004216966280962</v>
+      </c>
+      <c r="E36">
+        <v>0.9933064491990006</v>
+      </c>
+      <c r="F36">
+        <v>1.001983811229734</v>
+      </c>
+      <c r="G36">
+        <v>0.9952012888710974</v>
+      </c>
+      <c r="H36">
+        <v>0.9997145052085106</v>
+      </c>
+      <c r="I36">
+        <v>0.998756445089141</v>
+      </c>
+      <c r="J36">
+        <v>0.9933064491990006</v>
+      </c>
+      <c r="K36">
+        <v>0.9933064491990006</v>
+      </c>
+      <c r="L36">
+        <v>1.001038764525782</v>
+      </c>
+      <c r="M36">
+        <v>1.001048778472865</v>
+      </c>
+      <c r="N36">
+        <v>0.9933064491990006</v>
+      </c>
+      <c r="O36">
+        <v>1.004216966280962</v>
+      </c>
+      <c r="P36">
+        <v>0.9997091275760295</v>
+      </c>
+      <c r="Q36">
+        <v>1.002632872376913</v>
+      </c>
+      <c r="R36">
+        <v>0.9975749014503532</v>
+      </c>
+      <c r="S36">
+        <v>1.000155677874975</v>
+      </c>
+      <c r="T36">
+        <v>0.9975749014503532</v>
+      </c>
+      <c r="U36">
+        <v>0.998443370705981</v>
+      </c>
+      <c r="V36">
+        <v>0.9974159864045848</v>
+      </c>
+      <c r="W36">
+        <v>0.9994083761096365</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.005127200166364</v>
+      </c>
+      <c r="D37">
+        <v>0.9974414663356086</v>
+      </c>
+      <c r="E37">
+        <v>1.008239703266212</v>
+      </c>
+      <c r="F37">
+        <v>0.9980009742630671</v>
+      </c>
+      <c r="G37">
+        <v>1.005127200166364</v>
+      </c>
+      <c r="H37">
+        <v>0.9994180783567008</v>
+      </c>
+      <c r="I37">
+        <v>1.00023610656259</v>
+      </c>
+      <c r="J37">
+        <v>1.008239703266212</v>
+      </c>
+      <c r="K37">
+        <v>1.008239703266212</v>
+      </c>
+      <c r="L37">
+        <v>0.9999238758764856</v>
+      </c>
+      <c r="M37">
+        <v>0.9973096626796888</v>
+      </c>
+      <c r="N37">
+        <v>1.008239703266212</v>
+      </c>
+      <c r="O37">
+        <v>0.9974414663356086</v>
+      </c>
+      <c r="P37">
+        <v>1.001284333250986</v>
+      </c>
+      <c r="Q37">
+        <v>0.9973755645076487</v>
+      </c>
+      <c r="R37">
+        <v>1.003602789922728</v>
+      </c>
+      <c r="S37">
+        <v>0.999959443060554</v>
+      </c>
+      <c r="T37">
+        <v>1.003602789922728</v>
+      </c>
+      <c r="U37">
+        <v>1.002029508111968</v>
+      </c>
+      <c r="V37">
+        <v>1.003271547142817</v>
+      </c>
+      <c r="W37">
+        <v>1.00071213343834</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9910886276511568</v>
+      </c>
+      <c r="D38">
+        <v>1.007165445647783</v>
+      </c>
+      <c r="E38">
+        <v>0.9938949339722026</v>
+      </c>
+      <c r="F38">
+        <v>1.000115476452914</v>
+      </c>
+      <c r="G38">
+        <v>0.9910886276511568</v>
+      </c>
+      <c r="H38">
+        <v>1.002767888970694</v>
+      </c>
+      <c r="I38">
+        <v>0.9959690384992957</v>
+      </c>
+      <c r="J38">
+        <v>0.9938949339722026</v>
+      </c>
+      <c r="K38">
+        <v>0.9938949339722026</v>
+      </c>
+      <c r="L38">
+        <v>1.001732638706191</v>
+      </c>
+      <c r="M38">
+        <v>1.002415338122295</v>
+      </c>
+      <c r="N38">
+        <v>0.9938949339722026</v>
+      </c>
+      <c r="O38">
+        <v>1.007165445647783</v>
+      </c>
+      <c r="P38">
+        <v>0.9991270366494701</v>
+      </c>
+      <c r="Q38">
+        <v>1.004790391885039</v>
+      </c>
+      <c r="R38">
+        <v>0.9973830024237142</v>
+      </c>
+      <c r="S38">
+        <v>1.000223137140412</v>
+      </c>
+      <c r="T38">
+        <v>0.9973830024237144</v>
+      </c>
+      <c r="U38">
+        <v>0.9986410863483595</v>
+      </c>
+      <c r="V38">
+        <v>0.9976918558731281</v>
+      </c>
+      <c r="W38">
+        <v>0.9993936735028166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.959140592634957</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.021554414375299</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9642719728820629</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.003998331582548</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.959140592634957</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.008737280630876</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9894631935095852</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9642719728820629</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9642719728820629</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.00713202133326</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.01245018747485</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9642719728820629</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.021554414375299</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9903475035051279</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.017002300925074</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9816556599641063</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9977150648283685</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9816556599641061</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>0.989354291841792</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>0.9843378280498462</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>0.9958434993029296</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.8986369109390666</v>
+      </c>
+      <c r="D40">
+        <v>1.205658809073799</v>
+      </c>
+      <c r="E40">
+        <v>0.9182952508329895</v>
+      </c>
+      <c r="F40">
+        <v>1.029721593538399</v>
+      </c>
+      <c r="G40">
+        <v>0.8986369109390666</v>
+      </c>
+      <c r="H40">
+        <v>0.9486494071342561</v>
+      </c>
+      <c r="I40">
+        <v>0.9165483207142882</v>
+      </c>
+      <c r="J40">
+        <v>0.9182952508329895</v>
+      </c>
+      <c r="K40">
+        <v>0.9182952508329895</v>
+      </c>
+      <c r="L40">
+        <v>1.090970945582834</v>
+      </c>
+      <c r="M40">
+        <v>0.9384513449126813</v>
+      </c>
+      <c r="N40">
+        <v>0.9182952508329895</v>
+      </c>
+      <c r="O40">
+        <v>1.205658809073799</v>
+      </c>
+      <c r="P40">
+        <v>1.052147860006433</v>
+      </c>
+      <c r="Q40">
+        <v>1.07205507699324</v>
+      </c>
+      <c r="R40">
+        <v>1.007530323615285</v>
+      </c>
+      <c r="S40">
+        <v>1.014249021641849</v>
+      </c>
+      <c r="T40">
+        <v>1.007530323615285</v>
+      </c>
+      <c r="U40">
+        <v>0.9902605789396342</v>
+      </c>
+      <c r="V40">
+        <v>0.9758675133183052</v>
+      </c>
+      <c r="W40">
+        <v>0.9933665728410391</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.624313653688683</v>
+      </c>
+      <c r="D41">
+        <v>1.094447464465899</v>
+      </c>
+      <c r="E41">
+        <v>1.230293526248312</v>
+      </c>
+      <c r="F41">
+        <v>0.9337056225653246</v>
+      </c>
+      <c r="G41">
+        <v>0.624313653688683</v>
+      </c>
+      <c r="H41">
+        <v>1.091731570324572</v>
+      </c>
+      <c r="I41">
+        <v>0.7600535397194573</v>
+      </c>
+      <c r="J41">
+        <v>1.230293526248312</v>
+      </c>
+      <c r="K41">
+        <v>1.230293526248312</v>
+      </c>
+      <c r="L41">
+        <v>1.134386835653451</v>
+      </c>
+      <c r="M41">
+        <v>0.9255137188379977</v>
+      </c>
+      <c r="N41">
+        <v>1.230293526248312</v>
+      </c>
+      <c r="O41">
+        <v>1.094447464465899</v>
+      </c>
+      <c r="P41">
+        <v>0.8593805590772909</v>
+      </c>
+      <c r="Q41">
+        <v>1.009980591651948</v>
+      </c>
+      <c r="R41">
+        <v>0.9830182148009646</v>
+      </c>
+      <c r="S41">
+        <v>0.8814249456641932</v>
+      </c>
+      <c r="T41">
+        <v>0.9830182148009646</v>
+      </c>
+      <c r="U41">
+        <v>0.9686420908102229</v>
+      </c>
+      <c r="V41">
+        <v>1.020972377897841</v>
+      </c>
+      <c r="W41">
+        <v>0.9743057414379621</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.6130461667782735</v>
+      </c>
+      <c r="D42">
+        <v>1.191872431518504</v>
+      </c>
+      <c r="E42">
+        <v>1.377003309757392</v>
+      </c>
+      <c r="F42">
+        <v>0.8593104225697512</v>
+      </c>
+      <c r="G42">
+        <v>0.6130461667782735</v>
+      </c>
+      <c r="H42">
+        <v>1.080038410305963</v>
+      </c>
+      <c r="I42">
+        <v>0.6774222028334261</v>
+      </c>
+      <c r="J42">
+        <v>1.377003309757392</v>
+      </c>
+      <c r="K42">
+        <v>1.377003309757392</v>
+      </c>
+      <c r="L42">
+        <v>1.235402056493452</v>
+      </c>
+      <c r="M42">
+        <v>0.8255592087198973</v>
+      </c>
+      <c r="N42">
+        <v>1.377003309757392</v>
+      </c>
+      <c r="O42">
+        <v>1.191872431518504</v>
+      </c>
+      <c r="P42">
+        <v>0.9024592991483888</v>
+      </c>
+      <c r="Q42">
+        <v>1.008715820119201</v>
+      </c>
+      <c r="R42">
+        <v>1.060640636018056</v>
+      </c>
+      <c r="S42">
+        <v>0.8768259356722249</v>
+      </c>
+      <c r="T42">
+        <v>1.060640636018056</v>
+      </c>
+      <c r="U42">
+        <v>1.001870279193517</v>
+      </c>
+      <c r="V42">
+        <v>1.076896885306292</v>
+      </c>
+      <c r="W42">
+        <v>0.9824567761220824</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GossA-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/GossA-HW15.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
     <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.034788392119574</v>
+        <v>1.000861543284914</v>
       </c>
       <c r="D3">
-        <v>1.009549869402041</v>
+        <v>1.005303480927447</v>
       </c>
       <c r="E3">
-        <v>0.9926379822485107</v>
+        <v>0.9973468970691651</v>
       </c>
       <c r="F3">
-        <v>1.034788392119574</v>
+        <v>1.000588497274555</v>
       </c>
       <c r="G3">
-        <v>0.9939116694126299</v>
+        <v>1.000861543284914</v>
       </c>
       <c r="H3">
-        <v>1.001894007941505</v>
+        <v>0.9980167828463806</v>
       </c>
       <c r="I3">
-        <v>1.034788392119574</v>
+        <v>0.9990393613569375</v>
       </c>
       <c r="J3">
-        <v>1.009549869402041</v>
+        <v>0.9973468970691651</v>
       </c>
       <c r="K3">
-        <v>0.9856803892041111</v>
+        <v>0.9973468970691651</v>
       </c>
       <c r="L3">
-        <v>1.005145105906757</v>
+        <v>1.001949421935191</v>
       </c>
       <c r="M3">
-        <v>0.9970288124353552</v>
+        <v>0.9981908621956811</v>
       </c>
       <c r="N3">
-        <v>1.034788392119574</v>
+        <v>0.9973468970691651</v>
       </c>
       <c r="O3">
-        <v>0.9926379822485107</v>
+        <v>1.005303480927447</v>
       </c>
       <c r="P3">
-        <v>1.001093925825276</v>
+        <v>1.00308251210618</v>
       </c>
       <c r="Q3">
-        <v>0.9932748258305704</v>
+        <v>1.001747171561564</v>
       </c>
       <c r="R3">
-        <v>1.012325414590042</v>
+        <v>1.001170640427175</v>
       </c>
       <c r="S3">
-        <v>0.9986998403543937</v>
+        <v>1.001451962136014</v>
       </c>
       <c r="T3">
-        <v>1.012325414590042</v>
+        <v>1.001170640427175</v>
       </c>
       <c r="U3">
-        <v>1.007721978295689</v>
+        <v>1.000425695869302</v>
       </c>
       <c r="V3">
-        <v>1.013135261060466</v>
+        <v>0.9998099361092743</v>
       </c>
       <c r="W3">
-        <v>1.00257952858381</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>1.000162105861284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.066965948100107</v>
+        <v>0.8986369109390666</v>
       </c>
       <c r="D4">
-        <v>1.018061987890342</v>
+        <v>1.205658809073799</v>
       </c>
       <c r="E4">
-        <v>0.9845095129184515</v>
+        <v>0.9182952508329895</v>
       </c>
       <c r="F4">
-        <v>1.066965948100107</v>
+        <v>1.029721593538399</v>
       </c>
       <c r="G4">
-        <v>0.9886094469464985</v>
+        <v>0.8986369109390666</v>
       </c>
       <c r="H4">
-        <v>1.003216506674783</v>
+        <v>0.9486494071342561</v>
       </c>
       <c r="I4">
-        <v>1.066965948100107</v>
+        <v>0.9165483207142882</v>
       </c>
       <c r="J4">
-        <v>1.018061987890342</v>
+        <v>0.9182952508329895</v>
       </c>
       <c r="K4">
-        <v>0.9724853073651302</v>
+        <v>0.9182952508329895</v>
       </c>
       <c r="L4">
-        <v>1.010594042399899</v>
+        <v>1.090970945582834</v>
       </c>
       <c r="M4">
-        <v>0.9942119729208772</v>
+        <v>0.9384513449126813</v>
       </c>
       <c r="N4">
-        <v>1.066965948100107</v>
+        <v>0.9182952508329895</v>
       </c>
       <c r="O4">
-        <v>0.9845095129184515</v>
+        <v>1.205658809073799</v>
       </c>
       <c r="P4">
-        <v>1.001285750404397</v>
+        <v>1.052147860006433</v>
       </c>
       <c r="Q4">
-        <v>0.9865594799324751</v>
+        <v>1.07205507699324</v>
       </c>
       <c r="R4">
-        <v>1.0231791496363</v>
+        <v>1.007530323615285</v>
       </c>
       <c r="S4">
-        <v>0.9970603159184307</v>
+        <v>1.014249021641849</v>
       </c>
       <c r="T4">
-        <v>1.0231791496363</v>
+        <v>1.007530323615285</v>
       </c>
       <c r="U4">
-        <v>1.01453672396385</v>
+        <v>0.9902605789396342</v>
       </c>
       <c r="V4">
-        <v>1.025022568791101</v>
+        <v>0.9758675133183052</v>
       </c>
       <c r="W4">
-        <v>1.004831840652011</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>0.9933665728410391</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.124612576346047</v>
+        <v>0.8477808095912102</v>
       </c>
       <c r="D5">
-        <v>1.033681632001416</v>
+        <v>1.267623904252883</v>
       </c>
       <c r="E5">
-        <v>0.9767116085414443</v>
+        <v>0.9505008452391173</v>
       </c>
       <c r="F5">
-        <v>1.124612576346047</v>
+        <v>1.01298600756196</v>
       </c>
       <c r="G5">
-        <v>0.9776778493363298</v>
+        <v>0.8477808095912102</v>
       </c>
       <c r="H5">
-        <v>1.008173636262436</v>
+        <v>0.9498403545749273</v>
       </c>
       <c r="I5">
-        <v>1.124612576346047</v>
+        <v>0.8732505114308362</v>
       </c>
       <c r="J5">
-        <v>1.033681632001416</v>
+        <v>0.9505008452391173</v>
       </c>
       <c r="K5">
-        <v>0.948023022565195</v>
+        <v>0.9505008452391173</v>
       </c>
       <c r="L5">
-        <v>1.018176753936587</v>
+        <v>1.128868980282419</v>
       </c>
       <c r="M5">
-        <v>0.9881490442745923</v>
+        <v>0.9130528320821308</v>
       </c>
       <c r="N5">
-        <v>1.124612576346047</v>
+        <v>0.9505008452391173</v>
       </c>
       <c r="O5">
-        <v>0.9767116085414443</v>
+        <v>1.267623904252883</v>
       </c>
       <c r="P5">
-        <v>1.00519662027143</v>
+        <v>1.057702356922047</v>
       </c>
       <c r="Q5">
-        <v>0.9771947289388871</v>
+        <v>1.090338368167507</v>
       </c>
       <c r="R5">
-        <v>1.045001938962969</v>
+        <v>1.021968519694403</v>
       </c>
       <c r="S5">
-        <v>0.9960236966263967</v>
+        <v>1.009485848642075</v>
       </c>
       <c r="T5">
-        <v>1.045001938962969</v>
+        <v>1.021968519694403</v>
       </c>
       <c r="U5">
-        <v>1.028170916556309</v>
+        <v>0.9947395977913354</v>
       </c>
       <c r="V5">
-        <v>1.047459248514257</v>
+        <v>0.9858918472808916</v>
       </c>
       <c r="W5">
-        <v>1.009400765408006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>0.9929880306269355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.191060643435945</v>
+        <v>0.4385092129803458</v>
       </c>
       <c r="D6">
-        <v>1.047816968171457</v>
+        <v>2.334482157112217</v>
       </c>
       <c r="E6">
-        <v>0.9750638460803326</v>
+        <v>0.5747055985020091</v>
       </c>
       <c r="F6">
-        <v>1.191060643435945</v>
+        <v>1.116024297814418</v>
       </c>
       <c r="G6">
-        <v>0.9745994015497637</v>
+        <v>0.4385092129803458</v>
       </c>
       <c r="H6">
-        <v>1.01144661808824</v>
+        <v>0.6895102014881167</v>
       </c>
       <c r="I6">
-        <v>1.191060643435945</v>
+        <v>0.5166063997628573</v>
       </c>
       <c r="J6">
-        <v>1.047816968171457</v>
+        <v>0.5747055985020091</v>
       </c>
       <c r="K6">
-        <v>0.9201409371506901</v>
+        <v>0.5747055985020091</v>
       </c>
       <c r="L6">
-        <v>1.023513649639335</v>
+        <v>1.558378770403783</v>
       </c>
       <c r="M6">
-        <v>0.9853001637731883</v>
+        <v>0.6240961799865764</v>
       </c>
       <c r="N6">
-        <v>1.191060643435945</v>
+        <v>0.5747055985020091</v>
       </c>
       <c r="O6">
-        <v>0.9750638460803326</v>
+        <v>2.334482157112217</v>
       </c>
       <c r="P6">
-        <v>1.011440407125895</v>
+        <v>1.386495685046282</v>
       </c>
       <c r="Q6">
-        <v>0.9748316238150481</v>
+        <v>1.479289168549397</v>
       </c>
       <c r="R6">
-        <v>1.071313819229245</v>
+        <v>1.115898989531524</v>
       </c>
       <c r="S6">
-        <v>0.9991600719338511</v>
+        <v>1.132362516693046</v>
       </c>
       <c r="T6">
-        <v>1.071313819229245</v>
+        <v>1.115898989531524</v>
       </c>
       <c r="U6">
-        <v>1.047135214809375</v>
+        <v>0.9929482871452873</v>
       </c>
       <c r="V6">
-        <v>1.075920300534689</v>
+        <v>0.9092997494166315</v>
       </c>
       <c r="W6">
-        <v>1.016117778486119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>0.9815391022562905</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9989712151970772</v>
+        <v>1.010403626782295</v>
       </c>
       <c r="D7">
-        <v>0.9998006516551128</v>
+        <v>0.989305322038683</v>
       </c>
       <c r="E7">
-        <v>1.002404298021777</v>
+        <v>1.040420257879107</v>
       </c>
       <c r="F7">
-        <v>0.9989712151970772</v>
+        <v>0.983625000792049</v>
       </c>
       <c r="G7">
-        <v>0.9992816217352419</v>
+        <v>1.010403626782295</v>
       </c>
       <c r="H7">
-        <v>1.000926134346775</v>
+        <v>1.006274641959758</v>
       </c>
       <c r="I7">
-        <v>0.9989712151970772</v>
+        <v>0.9966093621194336</v>
       </c>
       <c r="J7">
-        <v>0.9998006516551128</v>
+        <v>1.040420257879107</v>
       </c>
       <c r="K7">
-        <v>1.000200758621121</v>
+        <v>1.040420257879107</v>
       </c>
       <c r="L7">
-        <v>0.9992850789786706</v>
+        <v>1.002101409424883</v>
       </c>
       <c r="M7">
-        <v>0.9993954462897535</v>
+        <v>0.9930398909249045</v>
       </c>
       <c r="N7">
-        <v>0.9989712151970772</v>
+        <v>1.040420257879107</v>
       </c>
       <c r="O7">
-        <v>1.002404298021777</v>
+        <v>0.989305322038683</v>
       </c>
       <c r="P7">
-        <v>1.001102474838445</v>
+        <v>0.9998544744104889</v>
       </c>
       <c r="Q7">
-        <v>1.00084295987851</v>
+        <v>0.9911726064817938</v>
       </c>
       <c r="R7">
-        <v>1.000392054957989</v>
+        <v>1.013376402233362</v>
       </c>
       <c r="S7">
-        <v>1.000495523804044</v>
+        <v>0.9975829465819608</v>
       </c>
       <c r="T7">
-        <v>1.000392054957989</v>
+        <v>1.013376402233362</v>
       </c>
       <c r="U7">
-        <v>1.000114446652302</v>
+        <v>1.008292274406247</v>
       </c>
       <c r="V7">
-        <v>0.9998858003612572</v>
+        <v>1.01471787110082</v>
       </c>
       <c r="W7">
-        <v>1.000033150605691</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>1.002722438990139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9973468970691649</v>
+        <v>1.005127200166364</v>
       </c>
       <c r="D8">
-        <v>1.000861543284915</v>
+        <v>0.9974414663356086</v>
       </c>
       <c r="E8">
-        <v>1.005303480927446</v>
+        <v>1.008239703266212</v>
       </c>
       <c r="F8">
-        <v>0.9973468970691649</v>
+        <v>0.9980009742630671</v>
       </c>
       <c r="G8">
-        <v>0.9981908621956809</v>
+        <v>1.005127200166364</v>
       </c>
       <c r="H8">
-        <v>1.00194942193519</v>
+        <v>0.9994180783567008</v>
       </c>
       <c r="I8">
-        <v>0.9973468970691649</v>
+        <v>1.00023610656259</v>
       </c>
       <c r="J8">
-        <v>1.000861543284915</v>
+        <v>1.008239703266212</v>
       </c>
       <c r="K8">
-        <v>1.000588497274556</v>
+        <v>1.008239703266212</v>
       </c>
       <c r="L8">
-        <v>0.9980167828463808</v>
+        <v>0.9999238758764856</v>
       </c>
       <c r="M8">
-        <v>0.9990393613569374</v>
+        <v>0.9973096626796888</v>
       </c>
       <c r="N8">
-        <v>0.9973468970691649</v>
+        <v>1.008239703266212</v>
       </c>
       <c r="O8">
-        <v>1.005303480927446</v>
+        <v>0.9974414663356086</v>
       </c>
       <c r="P8">
-        <v>1.003082512106181</v>
+        <v>1.001284333250986</v>
       </c>
       <c r="Q8">
-        <v>1.001747171561563</v>
+        <v>0.9973755645076487</v>
       </c>
       <c r="R8">
-        <v>1.001170640427175</v>
+        <v>1.003602789922728</v>
       </c>
       <c r="S8">
-        <v>1.001451962136014</v>
+        <v>0.999959443060554</v>
       </c>
       <c r="T8">
-        <v>1.001170640427175</v>
+        <v>1.003602789922728</v>
       </c>
       <c r="U8">
-        <v>1.000425695869302</v>
+        <v>1.002029508111968</v>
       </c>
       <c r="V8">
-        <v>0.9998099361092743</v>
+        <v>1.003271547142817</v>
       </c>
       <c r="W8">
-        <v>1.000162105861284</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>1.00071213343834</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9964126993379409</v>
+        <v>1.018061987890342</v>
       </c>
       <c r="D9">
-        <v>1.003881370254968</v>
+        <v>0.9845095129184515</v>
       </c>
       <c r="E9">
-        <v>1.00607071036577</v>
+        <v>1.066965948100107</v>
       </c>
       <c r="F9">
-        <v>0.9964126993379409</v>
+        <v>0.9724853073651298</v>
       </c>
       <c r="G9">
-        <v>0.9978529115446052</v>
+        <v>1.018061987890342</v>
       </c>
       <c r="H9">
-        <v>1.001907294808494</v>
+        <v>1.010594042399899</v>
       </c>
       <c r="I9">
-        <v>0.9964126993379409</v>
+        <v>0.9942119729208772</v>
       </c>
       <c r="J9">
-        <v>1.003881370254968</v>
+        <v>1.066965948100107</v>
       </c>
       <c r="K9">
-        <v>1.00045959047096</v>
+        <v>1.066965948100107</v>
       </c>
       <c r="L9">
-        <v>0.9972243407458872</v>
+        <v>1.003216506674783</v>
       </c>
       <c r="M9">
-        <v>0.9999360742238969</v>
+        <v>0.9886094469464985</v>
       </c>
       <c r="N9">
-        <v>0.9964126993379409</v>
+        <v>1.066965948100107</v>
       </c>
       <c r="O9">
-        <v>1.00607071036577</v>
+        <v>0.9845095129184515</v>
       </c>
       <c r="P9">
-        <v>1.004976040310369</v>
+        <v>1.001285750404397</v>
       </c>
       <c r="Q9">
-        <v>1.001961810955188</v>
+        <v>0.9865594799324751</v>
       </c>
       <c r="R9">
-        <v>1.002121593319559</v>
+        <v>1.0231791496363</v>
       </c>
       <c r="S9">
-        <v>1.002601664055114</v>
+        <v>0.9970603159184307</v>
       </c>
       <c r="T9">
-        <v>1.00212159331956</v>
+        <v>1.0231791496363</v>
       </c>
       <c r="U9">
-        <v>1.001054422875821</v>
+        <v>1.01453672396385</v>
       </c>
       <c r="V9">
-        <v>1.000126078168245</v>
+        <v>1.025022568791101</v>
       </c>
       <c r="W9">
-        <v>1.000468123969065</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>1.004831840652011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9919134572592941</v>
+        <v>0.4433765392047035</v>
       </c>
       <c r="D10">
-        <v>1.005827713176583</v>
+        <v>2.381196502040565</v>
       </c>
       <c r="E10">
-        <v>1.014877577586833</v>
+        <v>0.5598695232096317</v>
       </c>
       <c r="F10">
-        <v>0.9919134572592941</v>
+        <v>1.118527375267104</v>
       </c>
       <c r="G10">
-        <v>0.9950491254249291</v>
+        <v>0.4433765392047035</v>
       </c>
       <c r="H10">
-        <v>1.004934278424824</v>
+        <v>0.6719721326797238</v>
       </c>
       <c r="I10">
-        <v>0.9919134572592941</v>
+        <v>0.5059101400744392</v>
       </c>
       <c r="J10">
-        <v>1.005827713176583</v>
+        <v>0.5598695232096317</v>
       </c>
       <c r="K10">
-        <v>1.001341369592853</v>
+        <v>0.5598695232096317</v>
       </c>
       <c r="L10">
-        <v>0.9939199156388446</v>
+        <v>1.578326877268044</v>
       </c>
       <c r="M10">
-        <v>0.9986696069787085</v>
+        <v>0.6048502953611316</v>
       </c>
       <c r="N10">
-        <v>0.9919134572592941</v>
+        <v>0.5598695232096317</v>
       </c>
       <c r="O10">
-        <v>1.014877577586833</v>
+        <v>2.381196502040565</v>
       </c>
       <c r="P10">
-        <v>1.010352645381708</v>
+        <v>1.412286520622634</v>
       </c>
       <c r="Q10">
-        <v>1.004963351505881</v>
+        <v>1.493023398700848</v>
       </c>
       <c r="R10">
-        <v>1.004206249340904</v>
+        <v>1.128147521484967</v>
       </c>
       <c r="S10">
-        <v>1.005251472062782</v>
+        <v>1.143141112202133</v>
       </c>
       <c r="T10">
-        <v>1.004206249340903</v>
+        <v>1.128147521484967</v>
       </c>
       <c r="U10">
-        <v>1.00191696836191</v>
+        <v>0.997323214954008</v>
       </c>
       <c r="V10">
-        <v>0.9999162661413866</v>
+        <v>0.9098324766051327</v>
       </c>
       <c r="W10">
-        <v>1.000816630510359</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>0.9830036731381677</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9868163179283931</v>
+        <v>0.4684520838985147</v>
       </c>
       <c r="D11">
-        <v>1.017403749352137</v>
+        <v>1.29652235431551</v>
       </c>
       <c r="E11">
-        <v>1.021296944539634</v>
+        <v>1.193828020659943</v>
       </c>
       <c r="F11">
-        <v>0.9868163179283931</v>
+        <v>0.9336955637600742</v>
       </c>
       <c r="G11">
-        <v>0.9919314426737693</v>
+        <v>0.4684520838985147</v>
       </c>
       <c r="H11">
-        <v>1.00684771441653</v>
+        <v>1.07022058055835</v>
       </c>
       <c r="I11">
-        <v>0.9868163179283931</v>
+        <v>0.6411936653680785</v>
       </c>
       <c r="J11">
-        <v>1.017403749352137</v>
+        <v>1.193828020659943</v>
       </c>
       <c r="K11">
-        <v>1.001099382174346</v>
+        <v>1.193828020659943</v>
       </c>
       <c r="L11">
-        <v>0.9896610023539382</v>
+        <v>1.248727256418112</v>
       </c>
       <c r="M11">
-        <v>1.000542049114229</v>
+        <v>0.8600429324605693</v>
       </c>
       <c r="N11">
-        <v>0.9868163179283931</v>
+        <v>1.193828020659943</v>
       </c>
       <c r="O11">
-        <v>1.021296944539634</v>
+        <v>1.29652235431551</v>
       </c>
       <c r="P11">
-        <v>1.019350346945886</v>
+        <v>0.8824872191070123</v>
       </c>
       <c r="Q11">
-        <v>1.006614193606702</v>
+        <v>1.07828264338804</v>
       </c>
       <c r="R11">
-        <v>1.008505670606721</v>
+        <v>0.9862674862913227</v>
       </c>
       <c r="S11">
-        <v>1.010210712188514</v>
+        <v>0.8750057902248646</v>
       </c>
       <c r="T11">
-        <v>1.008505670606721</v>
+        <v>0.9862674862913227</v>
       </c>
       <c r="U11">
-        <v>1.004362113623483</v>
+        <v>0.9547113478336343</v>
       </c>
       <c r="V11">
-        <v>1.000852954484465</v>
+        <v>1.002534682398896</v>
       </c>
       <c r="W11">
-        <v>1.001949825319122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>0.964085307179894</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9597020113045043</v>
+        <v>0.8192004398949468</v>
       </c>
       <c r="D12">
-        <v>0.7496650844597289</v>
+        <v>1.404667167479996</v>
       </c>
       <c r="E12">
-        <v>0.7997830995241434</v>
+        <v>0.8781127026111538</v>
       </c>
       <c r="F12">
-        <v>0.9597020113045043</v>
+        <v>1.035454017002105</v>
       </c>
       <c r="G12">
-        <v>1.153831219304492</v>
+        <v>0.8192004398949468</v>
       </c>
       <c r="H12">
-        <v>0.9149525429399393</v>
+        <v>0.9046973195894729</v>
       </c>
       <c r="I12">
-        <v>0.9597020113045043</v>
+        <v>0.8388834451557873</v>
       </c>
       <c r="J12">
-        <v>0.7496650844597289</v>
+        <v>0.8781127026111538</v>
       </c>
       <c r="K12">
-        <v>1.019123428434767</v>
+        <v>0.8781127026111538</v>
       </c>
       <c r="L12">
-        <v>1.137698033442855</v>
+        <v>1.181168457233681</v>
       </c>
       <c r="M12">
-        <v>1.001317200607892</v>
+        <v>0.8741875467368424</v>
       </c>
       <c r="N12">
-        <v>0.9597020113045043</v>
+        <v>0.8781127026111538</v>
       </c>
       <c r="O12">
-        <v>0.7997830995241434</v>
+        <v>1.404667167479996</v>
       </c>
       <c r="P12">
-        <v>0.7747240919919361</v>
+        <v>1.111933803687472</v>
       </c>
       <c r="Q12">
-        <v>0.9768071594143179</v>
+        <v>1.139427357108419</v>
       </c>
       <c r="R12">
-        <v>0.8363833984294589</v>
+        <v>1.033993436662032</v>
       </c>
       <c r="S12">
-        <v>0.9010931344294549</v>
+        <v>1.032685051370595</v>
       </c>
       <c r="T12">
-        <v>0.8363833984294589</v>
+        <v>1.033993436662032</v>
       </c>
       <c r="U12">
-        <v>0.9157453536482172</v>
+        <v>0.9940419641807349</v>
       </c>
       <c r="V12">
-        <v>0.9245366851794745</v>
+        <v>0.9708561118668186</v>
       </c>
       <c r="W12">
-        <v>0.9670090775022904</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>0.9920463869629982</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.142429010762398</v>
+        <v>1.164790025901699</v>
       </c>
       <c r="D13">
-        <v>1.268981835564235</v>
+        <v>0.9865520076879692</v>
       </c>
       <c r="E13">
-        <v>1.212438411798979</v>
+        <v>0.9819036849905249</v>
       </c>
       <c r="F13">
-        <v>1.142429010762398</v>
+        <v>0.9964452724376196</v>
       </c>
       <c r="G13">
-        <v>0.7945051915643692</v>
+        <v>1.164790025901699</v>
       </c>
       <c r="H13">
-        <v>1.098423037694314</v>
+        <v>0.9607708408790863</v>
       </c>
       <c r="I13">
-        <v>1.142429010762398</v>
+        <v>1.065374401430652</v>
       </c>
       <c r="J13">
-        <v>1.268981835564235</v>
+        <v>0.9819036849905249</v>
       </c>
       <c r="K13">
-        <v>0.978023070069021</v>
+        <v>0.9819036849905249</v>
       </c>
       <c r="L13">
-        <v>0.830276611624532</v>
+        <v>0.9782546329189276</v>
       </c>
       <c r="M13">
-        <v>0.9869093058376642</v>
+        <v>0.9863329662155578</v>
       </c>
       <c r="N13">
-        <v>1.142429010762398</v>
+        <v>0.9819036849905249</v>
       </c>
       <c r="O13">
-        <v>1.212438411798979</v>
+        <v>0.9865520076879692</v>
       </c>
       <c r="P13">
-        <v>1.240710123681607</v>
+        <v>1.075671016794834</v>
       </c>
       <c r="Q13">
-        <v>1.003471801681674</v>
+        <v>0.9864424869517635</v>
       </c>
       <c r="R13">
-        <v>1.207949752708537</v>
+        <v>1.044415239526731</v>
       </c>
       <c r="S13">
-        <v>1.091975146309194</v>
+        <v>1.045891666601742</v>
       </c>
       <c r="T13">
-        <v>1.207949752708537</v>
+        <v>1.044415239526731</v>
       </c>
       <c r="U13">
-        <v>1.104588612422495</v>
+        <v>1.029894671198938</v>
       </c>
       <c r="V13">
-        <v>1.112156692090476</v>
+        <v>1.020296473957255</v>
       </c>
       <c r="W13">
-        <v>1.038998309364439</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>1.015052979057755</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.04375825964634195</v>
+        <v>0.02330075600000002</v>
       </c>
       <c r="D14">
-        <v>3.635942637510909</v>
+        <v>3.442862200000002</v>
       </c>
       <c r="E14">
-        <v>0.240470240414135</v>
+        <v>0.2138068799999999</v>
       </c>
       <c r="F14">
-        <v>0.04375825964634195</v>
+        <v>1.209990899999999</v>
       </c>
       <c r="G14">
-        <v>1.346905311395828</v>
+        <v>0.02330075600000002</v>
       </c>
       <c r="H14">
-        <v>0.1778647716874631</v>
+        <v>0.4216041200000005</v>
       </c>
       <c r="I14">
-        <v>0.04375825964634195</v>
+        <v>0.1424155799999999</v>
       </c>
       <c r="J14">
-        <v>3.635942637510909</v>
+        <v>0.2138068799999999</v>
       </c>
       <c r="K14">
-        <v>1.212490319680188</v>
+        <v>0.2138068799999999</v>
       </c>
       <c r="L14">
-        <v>0.4758779848770468</v>
+        <v>2.008686600000002</v>
       </c>
       <c r="M14">
-        <v>2.492409552540417</v>
+        <v>0.31618718</v>
       </c>
       <c r="N14">
-        <v>0.04375825964634195</v>
+        <v>0.2138068799999999</v>
       </c>
       <c r="O14">
-        <v>0.240470240414135</v>
+        <v>3.442862200000002</v>
       </c>
       <c r="P14">
-        <v>1.938206438962522</v>
+        <v>1.733081478000001</v>
       </c>
       <c r="Q14">
-        <v>0.7936877759049816</v>
+        <v>1.879524690000001</v>
       </c>
       <c r="R14">
-        <v>1.306723712523795</v>
+        <v>1.226656612000001</v>
       </c>
       <c r="S14">
-        <v>1.741106063106957</v>
+        <v>1.260783378666667</v>
       </c>
       <c r="T14">
-        <v>1.306723712523795</v>
+        <v>1.226656612000001</v>
       </c>
       <c r="U14">
-        <v>1.316769112241803</v>
+        <v>0.9990392540000006</v>
       </c>
       <c r="V14">
-        <v>1.062166941722711</v>
+        <v>0.8419927792000005</v>
       </c>
       <c r="W14">
-        <v>1.203214884719041</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>0.9723567770000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.3732002823117419</v>
+        <v>6.8875632</v>
       </c>
       <c r="D15">
-        <v>1.139827550582419</v>
+        <v>0.023300756</v>
       </c>
       <c r="E15">
-        <v>0.8386491562959589</v>
+        <v>0.0017993233</v>
       </c>
       <c r="F15">
-        <v>0.3732002823117419</v>
+        <v>0.7731529700000001</v>
       </c>
       <c r="G15">
-        <v>1.286060510114968</v>
+        <v>6.8875632</v>
       </c>
       <c r="H15">
-        <v>0.7202106691882119</v>
+        <v>0.14230601</v>
       </c>
       <c r="I15">
-        <v>0.3732002823117419</v>
+        <v>3.193909</v>
       </c>
       <c r="J15">
-        <v>1.139827550582419</v>
+        <v>0.0017993233</v>
       </c>
       <c r="K15">
-        <v>1.266482888926951</v>
+        <v>0.0017993233</v>
       </c>
       <c r="L15">
-        <v>0.9237306816719273</v>
+        <v>0.014853478</v>
       </c>
       <c r="M15">
-        <v>1.333188373975094</v>
+        <v>0.95836551</v>
       </c>
       <c r="N15">
-        <v>0.3732002823117419</v>
+        <v>0.0017993233</v>
       </c>
       <c r="O15">
-        <v>0.8386491562959589</v>
+        <v>0.023300756</v>
       </c>
       <c r="P15">
-        <v>0.9892383534391891</v>
+        <v>3.455431978</v>
       </c>
       <c r="Q15">
-        <v>1.062354833205463</v>
+        <v>0.490833133</v>
       </c>
       <c r="R15">
-        <v>0.78389232973004</v>
+        <v>2.3042210931</v>
       </c>
       <c r="S15">
-        <v>1.088179072331115</v>
+        <v>2.623076488666667</v>
       </c>
       <c r="T15">
-        <v>0.7838923297300401</v>
+        <v>2.3042210931</v>
       </c>
       <c r="U15">
-        <v>0.9094343748262721</v>
+        <v>1.967757197325</v>
       </c>
       <c r="V15">
-        <v>0.802187556323366</v>
+        <v>1.57456562252</v>
       </c>
       <c r="W15">
-        <v>0.985168764133409</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>1.4994062809125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9933064491990004</v>
+        <v>0.023300756</v>
       </c>
       <c r="D16">
-        <v>0.9952012888710973</v>
+        <v>3.4428622</v>
       </c>
       <c r="E16">
-        <v>1.004216966280962</v>
+        <v>0.21380688</v>
       </c>
       <c r="F16">
-        <v>0.9933064491990004</v>
+        <v>1.2099909</v>
       </c>
       <c r="G16">
-        <v>1.001048778472865</v>
+        <v>0.023300756</v>
       </c>
       <c r="H16">
-        <v>1.001038764525782</v>
+        <v>0.42160412</v>
       </c>
       <c r="I16">
-        <v>0.9933064491990004</v>
+        <v>0.14241558</v>
       </c>
       <c r="J16">
-        <v>0.9952012888710973</v>
+        <v>0.21380688</v>
       </c>
       <c r="K16">
-        <v>1.001983811229735</v>
+        <v>0.21380688</v>
       </c>
       <c r="L16">
-        <v>0.9997145052085106</v>
+        <v>2.0086866</v>
       </c>
       <c r="M16">
-        <v>0.998756445089141</v>
+        <v>0.31618718</v>
       </c>
       <c r="N16">
-        <v>0.9933064491990004</v>
+        <v>0.21380688</v>
       </c>
       <c r="O16">
-        <v>1.004216966280962</v>
+        <v>3.4428622</v>
       </c>
       <c r="P16">
-        <v>0.9997091275760295</v>
+        <v>1.733081478</v>
       </c>
       <c r="Q16">
-        <v>1.002632872376914</v>
+        <v>1.87952469</v>
       </c>
       <c r="R16">
-        <v>0.9975749014503531</v>
+        <v>1.226656612</v>
       </c>
       <c r="S16">
-        <v>1.000155677874975</v>
+        <v>1.260783378666667</v>
       </c>
       <c r="T16">
-        <v>0.9975749014503531</v>
+        <v>1.226656612</v>
       </c>
       <c r="U16">
-        <v>0.9984433707059811</v>
+        <v>0.999039254</v>
       </c>
       <c r="V16">
-        <v>0.9974159864045851</v>
+        <v>0.8419927792000002</v>
       </c>
       <c r="W16">
-        <v>0.9994083761096366</v>
+        <v>0.9723567770000001</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.008239703266212</v>
+        <v>3.4457045</v>
       </c>
       <c r="D17">
-        <v>1.005127200166364</v>
+        <v>0.21658931</v>
       </c>
       <c r="E17">
-        <v>0.9974414663356085</v>
+        <v>0.017301633</v>
       </c>
       <c r="F17">
-        <v>1.008239703266212</v>
+        <v>1.3509898</v>
       </c>
       <c r="G17">
-        <v>0.9973096626796889</v>
+        <v>3.4457045</v>
       </c>
       <c r="H17">
-        <v>0.9999238758764857</v>
+        <v>0.38954228</v>
       </c>
       <c r="I17">
-        <v>1.008239703266212</v>
+        <v>2.5451957</v>
       </c>
       <c r="J17">
-        <v>1.005127200166364</v>
+        <v>0.017301633</v>
       </c>
       <c r="K17">
-        <v>0.998000974263067</v>
+        <v>0.017301633</v>
       </c>
       <c r="L17">
-        <v>0.9994180783567008</v>
+        <v>0.13660416</v>
       </c>
       <c r="M17">
-        <v>1.000236106562591</v>
+        <v>1.3306803</v>
       </c>
       <c r="N17">
-        <v>1.008239703266212</v>
+        <v>0.017301633</v>
       </c>
       <c r="O17">
-        <v>0.9974414663356085</v>
+        <v>0.21658931</v>
       </c>
       <c r="P17">
-        <v>1.001284333250986</v>
+        <v>1.831146905</v>
       </c>
       <c r="Q17">
-        <v>0.9973755645076487</v>
+        <v>0.773634805</v>
       </c>
       <c r="R17">
-        <v>1.003602789922728</v>
+        <v>1.226531814333333</v>
       </c>
       <c r="S17">
-        <v>0.999959443060554</v>
+        <v>1.664324703333333</v>
       </c>
       <c r="T17">
-        <v>1.003602789922728</v>
+        <v>1.226531814333333</v>
       </c>
       <c r="U17">
-        <v>1.002029508111968</v>
+        <v>1.25256893575</v>
       </c>
       <c r="V17">
-        <v>1.003271547142817</v>
+        <v>1.0055154752</v>
       </c>
       <c r="W17">
-        <v>1.00071213343834</v>
+        <v>1.179075960375</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9938949339722025</v>
+        <v>1.302335194706849</v>
       </c>
       <c r="D18">
-        <v>0.9910886276511572</v>
+        <v>0.7548764528219182</v>
       </c>
       <c r="E18">
-        <v>1.007165445647784</v>
+        <v>1.805248583839726</v>
       </c>
       <c r="F18">
-        <v>0.9938949339722025</v>
+        <v>0.6620594544383563</v>
       </c>
       <c r="G18">
-        <v>1.002415338122295</v>
+        <v>1.302335194706849</v>
       </c>
       <c r="H18">
-        <v>1.00173263870619</v>
+        <v>1.127535245342466</v>
       </c>
       <c r="I18">
-        <v>0.9938949339722025</v>
+        <v>0.9698589353424658</v>
       </c>
       <c r="J18">
-        <v>0.9910886276511572</v>
+        <v>1.805248583839726</v>
       </c>
       <c r="K18">
-        <v>1.000115476452915</v>
+        <v>1.805248583839726</v>
       </c>
       <c r="L18">
-        <v>1.002767888970694</v>
+        <v>1.013239659095891</v>
       </c>
       <c r="M18">
-        <v>0.9959690384992954</v>
+        <v>0.8724815289041099</v>
       </c>
       <c r="N18">
-        <v>0.9938949339722025</v>
+        <v>1.805248583839726</v>
       </c>
       <c r="O18">
-        <v>1.007165445647784</v>
+        <v>0.7548764528219182</v>
       </c>
       <c r="P18">
-        <v>0.9991270366494704</v>
+        <v>1.028605823764384</v>
       </c>
       <c r="Q18">
-        <v>1.004790391885039</v>
+        <v>0.813678990863014</v>
       </c>
       <c r="R18">
-        <v>0.9973830024237144</v>
+        <v>1.287486743789498</v>
       </c>
       <c r="S18">
-        <v>1.000223137140412</v>
+        <v>0.9765643921442925</v>
       </c>
       <c r="T18">
-        <v>0.9973830024237144</v>
+        <v>1.287486743789498</v>
       </c>
       <c r="U18">
-        <v>0.9986410863483595</v>
+        <v>1.183735440068151</v>
       </c>
       <c r="V18">
-        <v>0.9976918558731281</v>
+        <v>1.308038068822466</v>
       </c>
       <c r="W18">
-        <v>0.9993936735028166</v>
+        <v>1.063454381811473</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9642719728820629</v>
+        <v>2.313446413578948</v>
       </c>
       <c r="D19">
-        <v>0.959140592634957</v>
+        <v>1.341504682947369</v>
       </c>
       <c r="E19">
-        <v>1.021554414375299</v>
+        <v>0.08656499415263157</v>
       </c>
       <c r="F19">
-        <v>0.9642719728820629</v>
+        <v>1.35322254368421</v>
       </c>
       <c r="G19">
-        <v>1.01245018747485</v>
+        <v>2.313446413578948</v>
       </c>
       <c r="H19">
-        <v>1.00713202133326</v>
+        <v>0.4148450784210526</v>
       </c>
       <c r="I19">
-        <v>0.9642719728820629</v>
+        <v>1.598232091578947</v>
       </c>
       <c r="J19">
-        <v>0.959140592634957</v>
+        <v>0.08656499415263157</v>
       </c>
       <c r="K19">
-        <v>1.003998331582548</v>
+        <v>0.08656499415263157</v>
       </c>
       <c r="L19">
-        <v>1.008737280630876</v>
+        <v>0.7895791353684212</v>
       </c>
       <c r="M19">
-        <v>0.989463193509585</v>
+        <v>0.921983937368421</v>
       </c>
       <c r="N19">
-        <v>0.9642719728820629</v>
+        <v>0.08656499415263157</v>
       </c>
       <c r="O19">
-        <v>1.021554414375299</v>
+        <v>1.341504682947369</v>
       </c>
       <c r="P19">
-        <v>0.9903475035051281</v>
+        <v>1.827475548263158</v>
       </c>
       <c r="Q19">
-        <v>1.017002300925074</v>
+        <v>1.131744310157895</v>
       </c>
       <c r="R19">
-        <v>0.9816556599641064</v>
+        <v>1.247172030226316</v>
       </c>
       <c r="S19">
-        <v>0.9977150648283687</v>
+        <v>1.525645011298246</v>
       </c>
       <c r="T19">
-        <v>0.9816556599641064</v>
+        <v>1.247172030226316</v>
       </c>
       <c r="U19">
-        <v>0.9893542918417922</v>
+        <v>1.165875007011842</v>
       </c>
       <c r="V19">
-        <v>0.9843378280498463</v>
+        <v>0.95001300444</v>
       </c>
       <c r="W19">
-        <v>0.9958434993029296</v>
+        <v>1.1024223596375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.342166235863158</v>
+      </c>
+      <c r="D20">
+        <v>0.8159869238421055</v>
+      </c>
+      <c r="E20">
+        <v>1.739638943468421</v>
+      </c>
+      <c r="F20">
+        <v>0.6779404597894736</v>
+      </c>
+      <c r="G20">
+        <v>1.342166235863158</v>
+      </c>
+      <c r="H20">
+        <v>1.095994567894737</v>
+      </c>
+      <c r="I20">
+        <v>0.9773479268421053</v>
+      </c>
+      <c r="J20">
+        <v>1.739638943468421</v>
+      </c>
+      <c r="K20">
+        <v>1.739638943468421</v>
+      </c>
+      <c r="L20">
+        <v>1.026298970947369</v>
+      </c>
+      <c r="M20">
+        <v>0.8589722563157896</v>
+      </c>
+      <c r="N20">
+        <v>1.739638943468421</v>
+      </c>
+      <c r="O20">
+        <v>0.8159869238421055</v>
+      </c>
+      <c r="P20">
+        <v>1.079076579852632</v>
+      </c>
+      <c r="Q20">
+        <v>0.8374795900789476</v>
+      </c>
+      <c r="R20">
+        <v>1.299264034391228</v>
+      </c>
+      <c r="S20">
+        <v>1.005708472007018</v>
+      </c>
+      <c r="T20">
+        <v>1.299264034391228</v>
+      </c>
+      <c r="U20">
+        <v>1.189191089872369</v>
+      </c>
+      <c r="V20">
+        <v>1.299280660591579</v>
+      </c>
+      <c r="W20">
+        <v>1.066793285620395</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>3.635942637510909</v>
+      </c>
+      <c r="D21">
+        <v>0.2404702404141349</v>
+      </c>
+      <c r="E21">
+        <v>0.04375825964634195</v>
+      </c>
+      <c r="F21">
+        <v>1.212490319680187</v>
+      </c>
+      <c r="G21">
+        <v>3.635942637510909</v>
+      </c>
+      <c r="H21">
+        <v>0.4758779848770468</v>
+      </c>
+      <c r="I21">
+        <v>2.492409552540417</v>
+      </c>
+      <c r="J21">
+        <v>0.04375825964634195</v>
+      </c>
+      <c r="K21">
+        <v>0.04375825964634195</v>
+      </c>
+      <c r="L21">
+        <v>0.177864771687463</v>
+      </c>
+      <c r="M21">
+        <v>1.346905311395828</v>
+      </c>
+      <c r="N21">
+        <v>0.04375825964634195</v>
+      </c>
+      <c r="O21">
+        <v>0.2404702404141349</v>
+      </c>
+      <c r="P21">
+        <v>1.938206438962522</v>
+      </c>
+      <c r="Q21">
+        <v>0.7936877759049816</v>
+      </c>
+      <c r="R21">
+        <v>1.306723712523795</v>
+      </c>
+      <c r="S21">
+        <v>1.741106063106957</v>
+      </c>
+      <c r="T21">
+        <v>1.306723712523795</v>
+      </c>
+      <c r="U21">
+        <v>1.316769112241803</v>
+      </c>
+      <c r="V21">
+        <v>1.062166941722711</v>
+      </c>
+      <c r="W21">
+        <v>1.203214884719041</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.139827550582419</v>
+      </c>
+      <c r="D22">
+        <v>0.8386491562959589</v>
+      </c>
+      <c r="E22">
+        <v>0.3732002823117419</v>
+      </c>
+      <c r="F22">
+        <v>1.266482888926951</v>
+      </c>
+      <c r="G22">
+        <v>1.139827550582419</v>
+      </c>
+      <c r="H22">
+        <v>0.9237306816719273</v>
+      </c>
+      <c r="I22">
+        <v>1.333188373975093</v>
+      </c>
+      <c r="J22">
+        <v>0.3732002823117419</v>
+      </c>
+      <c r="K22">
+        <v>0.3732002823117419</v>
+      </c>
+      <c r="L22">
+        <v>0.7202106691882119</v>
+      </c>
+      <c r="M22">
+        <v>1.286060510114968</v>
+      </c>
+      <c r="N22">
+        <v>0.3732002823117419</v>
+      </c>
+      <c r="O22">
+        <v>0.8386491562959589</v>
+      </c>
+      <c r="P22">
+        <v>0.9892383534391891</v>
+      </c>
+      <c r="Q22">
+        <v>1.062354833205463</v>
+      </c>
+      <c r="R22">
+        <v>0.78389232973004</v>
+      </c>
+      <c r="S22">
+        <v>1.088179072331115</v>
+      </c>
+      <c r="T22">
+        <v>0.7838923297300401</v>
+      </c>
+      <c r="U22">
+        <v>0.9094343748262721</v>
+      </c>
+      <c r="V22">
+        <v>0.802187556323366</v>
+      </c>
+      <c r="W22">
+        <v>0.9851687641334088</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.7496650844597287</v>
+      </c>
+      <c r="D23">
+        <v>0.7997830995241429</v>
+      </c>
+      <c r="E23">
+        <v>0.9597020113045045</v>
+      </c>
+      <c r="F23">
+        <v>1.019123428434768</v>
+      </c>
+      <c r="G23">
+        <v>0.7496650844597287</v>
+      </c>
+      <c r="H23">
+        <v>1.137698033442856</v>
+      </c>
+      <c r="I23">
+        <v>1.001317200607892</v>
+      </c>
+      <c r="J23">
+        <v>0.9597020113045045</v>
+      </c>
+      <c r="K23">
+        <v>0.9597020113045045</v>
+      </c>
+      <c r="L23">
+        <v>0.9149525429399392</v>
+      </c>
+      <c r="M23">
+        <v>1.153831219304493</v>
+      </c>
+      <c r="N23">
+        <v>0.9597020113045045</v>
+      </c>
+      <c r="O23">
+        <v>0.7997830995241429</v>
+      </c>
+      <c r="P23">
+        <v>0.7747240919919358</v>
+      </c>
+      <c r="Q23">
+        <v>0.9768071594143179</v>
+      </c>
+      <c r="R23">
+        <v>0.8363833984294587</v>
+      </c>
+      <c r="S23">
+        <v>0.9010931344294549</v>
+      </c>
+      <c r="T23">
+        <v>0.8363833984294587</v>
+      </c>
+      <c r="U23">
+        <v>0.9157453536482172</v>
+      </c>
+      <c r="V23">
+        <v>0.9245366851794745</v>
+      </c>
+      <c r="W23">
+        <v>0.9670090775022904</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.268981835564235</v>
+      </c>
+      <c r="D24">
+        <v>1.212438411798979</v>
+      </c>
+      <c r="E24">
+        <v>1.142429010762399</v>
+      </c>
+      <c r="F24">
+        <v>0.978023070069021</v>
+      </c>
+      <c r="G24">
+        <v>1.268981835564235</v>
+      </c>
+      <c r="H24">
+        <v>0.830276611624532</v>
+      </c>
+      <c r="I24">
+        <v>0.986909305837664</v>
+      </c>
+      <c r="J24">
+        <v>1.142429010762399</v>
+      </c>
+      <c r="K24">
+        <v>1.142429010762399</v>
+      </c>
+      <c r="L24">
+        <v>1.098423037694314</v>
+      </c>
+      <c r="M24">
+        <v>0.7945051915643689</v>
+      </c>
+      <c r="N24">
+        <v>1.142429010762399</v>
+      </c>
+      <c r="O24">
+        <v>1.212438411798979</v>
+      </c>
+      <c r="P24">
+        <v>1.240710123681607</v>
+      </c>
+      <c r="Q24">
+        <v>1.003471801681674</v>
+      </c>
+      <c r="R24">
+        <v>1.207949752708538</v>
+      </c>
+      <c r="S24">
+        <v>1.091975146309194</v>
+      </c>
+      <c r="T24">
+        <v>1.207949752708538</v>
+      </c>
+      <c r="U24">
+        <v>1.104588612422496</v>
+      </c>
+      <c r="V24">
+        <v>1.112156692090476</v>
+      </c>
+      <c r="W24">
+        <v>1.038998309364439</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.01541286061306674</v>
+      </c>
+      <c r="D25">
+        <v>0.5393055635557686</v>
+      </c>
+      <c r="E25">
+        <v>3.239353708501929</v>
+      </c>
+      <c r="F25">
+        <v>0.274247890737627</v>
+      </c>
+      <c r="G25">
+        <v>0.01541286061306674</v>
+      </c>
+      <c r="H25">
+        <v>1.636972449125893</v>
+      </c>
+      <c r="I25">
+        <v>0.1483227251941897</v>
+      </c>
+      <c r="J25">
+        <v>3.239353708501929</v>
+      </c>
+      <c r="K25">
+        <v>3.239353708501929</v>
+      </c>
+      <c r="L25">
+        <v>1.358578469365289</v>
+      </c>
+      <c r="M25">
+        <v>0.6052023913083295</v>
+      </c>
+      <c r="N25">
+        <v>3.239353708501929</v>
+      </c>
+      <c r="O25">
+        <v>0.5393055635557686</v>
+      </c>
+      <c r="P25">
+        <v>0.2773592120844177</v>
+      </c>
+      <c r="Q25">
+        <v>0.5722539774320491</v>
+      </c>
+      <c r="R25">
+        <v>1.264690710890255</v>
+      </c>
+      <c r="S25">
+        <v>0.3866402718257216</v>
+      </c>
+      <c r="T25">
+        <v>1.264690710890255</v>
+      </c>
+      <c r="U25">
+        <v>1.099818630994773</v>
+      </c>
+      <c r="V25">
+        <v>1.527725646496204</v>
+      </c>
+      <c r="W25">
+        <v>0.9771745073002615</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.2282703272202107</v>
+      </c>
+      <c r="D26">
+        <v>1.409578004869539</v>
+      </c>
+      <c r="E26">
+        <v>0.6710635157005971</v>
+      </c>
+      <c r="F26">
+        <v>1.013506945489436</v>
+      </c>
+      <c r="G26">
+        <v>0.2282703272202107</v>
+      </c>
+      <c r="H26">
+        <v>1.131783605331437</v>
+      </c>
+      <c r="I26">
+        <v>0.6058989482421134</v>
+      </c>
+      <c r="J26">
+        <v>0.6710635157005971</v>
+      </c>
+      <c r="K26">
+        <v>0.6710635157005971</v>
+      </c>
+      <c r="L26">
+        <v>1.284452279092895</v>
+      </c>
+      <c r="M26">
+        <v>1.020287393186638</v>
+      </c>
+      <c r="N26">
+        <v>0.6710635157005971</v>
+      </c>
+      <c r="O26">
+        <v>1.409578004869539</v>
+      </c>
+      <c r="P26">
+        <v>0.8189241660448749</v>
+      </c>
+      <c r="Q26">
+        <v>1.214932699028089</v>
+      </c>
+      <c r="R26">
+        <v>0.7696372825967823</v>
+      </c>
+      <c r="S26">
+        <v>0.886045241758796</v>
+      </c>
+      <c r="T26">
+        <v>0.7696372825967823</v>
+      </c>
+      <c r="U26">
+        <v>0.8322998102442463</v>
+      </c>
+      <c r="V26">
+        <v>0.8000525513355164</v>
+      </c>
+      <c r="W26">
+        <v>0.9206051273916083</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.8799281347641448</v>
+      </c>
+      <c r="D27">
+        <v>0.9664443216067362</v>
+      </c>
+      <c r="E27">
+        <v>1.063381027047922</v>
+      </c>
+      <c r="F27">
+        <v>0.9664400315857395</v>
+      </c>
+      <c r="G27">
+        <v>0.8799281347641448</v>
+      </c>
+      <c r="H27">
+        <v>1.039176766960464</v>
+      </c>
+      <c r="I27">
+        <v>0.998687515102231</v>
+      </c>
+      <c r="J27">
+        <v>1.063381027047922</v>
+      </c>
+      <c r="K27">
+        <v>1.063381027047922</v>
+      </c>
+      <c r="L27">
+        <v>0.9996533598188774</v>
+      </c>
+      <c r="M27">
+        <v>1.048176835544121</v>
+      </c>
+      <c r="N27">
+        <v>1.063381027047922</v>
+      </c>
+      <c r="O27">
+        <v>0.9664443216067362</v>
+      </c>
+      <c r="P27">
+        <v>0.9231862281854405</v>
+      </c>
+      <c r="Q27">
+        <v>1.007310578575429</v>
+      </c>
+      <c r="R27">
+        <v>0.9699178278062677</v>
+      </c>
+      <c r="S27">
+        <v>0.9648497639716674</v>
+      </c>
+      <c r="T27">
+        <v>0.9699178278062677</v>
+      </c>
+      <c r="U27">
+        <v>0.9894825797407312</v>
+      </c>
+      <c r="V27">
+        <v>1.004262269202169</v>
+      </c>
+      <c r="W27">
+        <v>0.9952359990537796</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.127388372737343</v>
+      </c>
+      <c r="D28">
+        <v>0.850064924454385</v>
+      </c>
+      <c r="E28">
+        <v>1.13809338825602</v>
+      </c>
+      <c r="F28">
+        <v>0.8886509388033247</v>
+      </c>
+      <c r="G28">
+        <v>1.127388372737343</v>
+      </c>
+      <c r="H28">
+        <v>1.068205745052721</v>
+      </c>
+      <c r="I28">
+        <v>1.098889913839875</v>
+      </c>
+      <c r="J28">
+        <v>1.13809338825602</v>
+      </c>
+      <c r="K28">
+        <v>1.13809338825602</v>
+      </c>
+      <c r="L28">
+        <v>0.9308148223452857</v>
+      </c>
+      <c r="M28">
+        <v>1.084414291141361</v>
+      </c>
+      <c r="N28">
+        <v>1.13809338825602</v>
+      </c>
+      <c r="O28">
+        <v>0.850064924454385</v>
+      </c>
+      <c r="P28">
+        <v>0.9887266485958638</v>
+      </c>
+      <c r="Q28">
+        <v>0.9672396077978732</v>
+      </c>
+      <c r="R28">
+        <v>1.038515561815916</v>
+      </c>
+      <c r="S28">
+        <v>1.020622529444363</v>
+      </c>
+      <c r="T28">
+        <v>1.038515561815916</v>
+      </c>
+      <c r="U28">
+        <v>1.049990244147277</v>
+      </c>
+      <c r="V28">
+        <v>1.067610872969026</v>
+      </c>
+      <c r="W28">
+        <v>1.02331529957879</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.671020857415538</v>
+      </c>
+      <c r="D29">
+        <v>0.8804038564634685</v>
+      </c>
+      <c r="E29">
+        <v>1.377010916546527</v>
+      </c>
+      <c r="F29">
+        <v>0.8335011395042078</v>
+      </c>
+      <c r="G29">
+        <v>1.671020857415538</v>
+      </c>
+      <c r="H29">
+        <v>0.8943972772203008</v>
+      </c>
+      <c r="I29">
+        <v>1.23937203971718</v>
+      </c>
+      <c r="J29">
+        <v>1.377010916546527</v>
+      </c>
+      <c r="K29">
+        <v>1.377010916546527</v>
+      </c>
+      <c r="L29">
+        <v>0.9100717848401919</v>
+      </c>
+      <c r="M29">
+        <v>0.9239339613005311</v>
+      </c>
+      <c r="N29">
+        <v>1.377010916546527</v>
+      </c>
+      <c r="O29">
+        <v>0.8804038564634685</v>
+      </c>
+      <c r="P29">
+        <v>1.275712356939503</v>
+      </c>
+      <c r="Q29">
+        <v>0.9021689088819997</v>
+      </c>
+      <c r="R29">
+        <v>1.309478543475178</v>
+      </c>
+      <c r="S29">
+        <v>1.158452891726512</v>
+      </c>
+      <c r="T29">
+        <v>1.309478543475177</v>
+      </c>
+      <c r="U29">
+        <v>1.213092397931516</v>
+      </c>
+      <c r="V29">
+        <v>1.245876101654518</v>
+      </c>
+      <c r="W29">
+        <v>1.091213979125993</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GossA-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/GossA-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8986369109390666</v>
+        <v>0.8297629789073429</v>
       </c>
       <c r="D4">
-        <v>1.205658809073799</v>
+        <v>1.23508634909403</v>
       </c>
       <c r="E4">
-        <v>0.9182952508329895</v>
+        <v>0.9436532248701144</v>
       </c>
       <c r="F4">
-        <v>1.029721593538399</v>
+        <v>1.02082945210831</v>
       </c>
       <c r="G4">
-        <v>0.8986369109390666</v>
+        <v>0.8297629789073429</v>
       </c>
       <c r="H4">
-        <v>0.9486494071342561</v>
+        <v>0.960755595370459</v>
       </c>
       <c r="I4">
-        <v>0.9165483207142882</v>
+        <v>0.8780909728672018</v>
       </c>
       <c r="J4">
-        <v>0.9182952508329895</v>
+        <v>0.9436532248701144</v>
       </c>
       <c r="K4">
-        <v>0.9182952508329895</v>
+        <v>0.9436532248701144</v>
       </c>
       <c r="L4">
-        <v>1.090970945582834</v>
+        <v>1.115468154351949</v>
       </c>
       <c r="M4">
-        <v>0.9384513449126813</v>
+        <v>0.9287471941219848</v>
       </c>
       <c r="N4">
-        <v>0.9182952508329895</v>
+        <v>0.9436532248701144</v>
       </c>
       <c r="O4">
-        <v>1.205658809073799</v>
+        <v>1.23508634909403</v>
       </c>
       <c r="P4">
-        <v>1.052147860006433</v>
+        <v>1.032424664000687</v>
       </c>
       <c r="Q4">
-        <v>1.07205507699324</v>
+        <v>1.081916771608008</v>
       </c>
       <c r="R4">
-        <v>1.007530323615285</v>
+        <v>1.002834184290496</v>
       </c>
       <c r="S4">
-        <v>1.014249021641849</v>
+        <v>0.9978655073744527</v>
       </c>
       <c r="T4">
-        <v>1.007530323615285</v>
+        <v>1.002834184290496</v>
       </c>
       <c r="U4">
-        <v>0.9902605789396342</v>
+        <v>0.9843124367483681</v>
       </c>
       <c r="V4">
-        <v>0.9758675133183052</v>
+        <v>0.9761805943727173</v>
       </c>
       <c r="W4">
-        <v>0.9933665728410391</v>
+        <v>0.9890492402114239</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8477808095912102</v>
+        <v>1.313038111058897</v>
       </c>
       <c r="D5">
-        <v>1.267623904252883</v>
+        <v>0.6309581088817445</v>
       </c>
       <c r="E5">
-        <v>0.9505008452391173</v>
+        <v>1.900281771655763</v>
       </c>
       <c r="F5">
-        <v>1.01298600756196</v>
+        <v>0.6356718308312986</v>
       </c>
       <c r="G5">
-        <v>0.8477808095912102</v>
+        <v>1.313038111058897</v>
       </c>
       <c r="H5">
-        <v>0.9498403545749273</v>
+        <v>1.170963114224045</v>
       </c>
       <c r="I5">
-        <v>0.8732505114308362</v>
+        <v>0.9910472637975943</v>
       </c>
       <c r="J5">
-        <v>0.9505008452391173</v>
+        <v>1.900281771655763</v>
       </c>
       <c r="K5">
-        <v>0.9505008452391173</v>
+        <v>1.900281771655763</v>
       </c>
       <c r="L5">
-        <v>1.128868980282419</v>
+        <v>0.9711712363086175</v>
       </c>
       <c r="M5">
-        <v>0.9130528320821308</v>
+        <v>0.9001023562881852</v>
       </c>
       <c r="N5">
-        <v>0.9505008452391173</v>
+        <v>1.900281771655763</v>
       </c>
       <c r="O5">
-        <v>1.267623904252883</v>
+        <v>0.6309581088817445</v>
       </c>
       <c r="P5">
-        <v>1.057702356922047</v>
+        <v>0.9719981099703208</v>
       </c>
       <c r="Q5">
-        <v>1.090338368167507</v>
+        <v>0.7655302325849649</v>
       </c>
       <c r="R5">
-        <v>1.021968519694403</v>
+        <v>1.281425997198801</v>
       </c>
       <c r="S5">
-        <v>1.009485848642075</v>
+        <v>0.9480328587429422</v>
       </c>
       <c r="T5">
-        <v>1.021968519694403</v>
+        <v>1.281425997198801</v>
       </c>
       <c r="U5">
-        <v>0.9947395977913354</v>
+        <v>1.186095086971147</v>
       </c>
       <c r="V5">
-        <v>0.9858918472808916</v>
+        <v>1.32893242390807</v>
       </c>
       <c r="W5">
-        <v>0.9929880306269355</v>
+        <v>1.064154224130768</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.4385092129803458</v>
+        <v>0.8986369109390666</v>
       </c>
       <c r="D6">
-        <v>2.334482157112217</v>
+        <v>1.205658809073799</v>
       </c>
       <c r="E6">
-        <v>0.5747055985020091</v>
+        <v>0.9182952508329895</v>
       </c>
       <c r="F6">
-        <v>1.116024297814418</v>
+        <v>1.029721593538399</v>
       </c>
       <c r="G6">
-        <v>0.4385092129803458</v>
+        <v>0.8986369109390666</v>
       </c>
       <c r="H6">
-        <v>0.6895102014881167</v>
+        <v>0.9486494071342561</v>
       </c>
       <c r="I6">
-        <v>0.5166063997628573</v>
+        <v>0.9165483207142882</v>
       </c>
       <c r="J6">
-        <v>0.5747055985020091</v>
+        <v>0.9182952508329895</v>
       </c>
       <c r="K6">
-        <v>0.5747055985020091</v>
+        <v>0.9182952508329895</v>
       </c>
       <c r="L6">
-        <v>1.558378770403783</v>
+        <v>1.090970945582834</v>
       </c>
       <c r="M6">
-        <v>0.6240961799865764</v>
+        <v>0.9384513449126813</v>
       </c>
       <c r="N6">
-        <v>0.5747055985020091</v>
+        <v>0.9182952508329895</v>
       </c>
       <c r="O6">
-        <v>2.334482157112217</v>
+        <v>1.205658809073799</v>
       </c>
       <c r="P6">
-        <v>1.386495685046282</v>
+        <v>1.052147860006433</v>
       </c>
       <c r="Q6">
-        <v>1.479289168549397</v>
+        <v>1.07205507699324</v>
       </c>
       <c r="R6">
-        <v>1.115898989531524</v>
+        <v>1.007530323615285</v>
       </c>
       <c r="S6">
-        <v>1.132362516693046</v>
+        <v>1.014249021641849</v>
       </c>
       <c r="T6">
-        <v>1.115898989531524</v>
+        <v>1.007530323615285</v>
       </c>
       <c r="U6">
-        <v>0.9929482871452873</v>
+        <v>0.9902605789396342</v>
       </c>
       <c r="V6">
-        <v>0.9092997494166315</v>
+        <v>0.9758675133183052</v>
       </c>
       <c r="W6">
-        <v>0.9815391022562905</v>
+        <v>0.9933665728410391</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.010403626782295</v>
+        <v>0.8477808095912102</v>
       </c>
       <c r="D7">
-        <v>0.989305322038683</v>
+        <v>1.267623904252883</v>
       </c>
       <c r="E7">
-        <v>1.040420257879107</v>
+        <v>0.9505008452391173</v>
       </c>
       <c r="F7">
-        <v>0.983625000792049</v>
+        <v>1.01298600756196</v>
       </c>
       <c r="G7">
-        <v>1.010403626782295</v>
+        <v>0.8477808095912102</v>
       </c>
       <c r="H7">
-        <v>1.006274641959758</v>
+        <v>0.9498403545749273</v>
       </c>
       <c r="I7">
-        <v>0.9966093621194336</v>
+        <v>0.8732505114308362</v>
       </c>
       <c r="J7">
-        <v>1.040420257879107</v>
+        <v>0.9505008452391173</v>
       </c>
       <c r="K7">
-        <v>1.040420257879107</v>
+        <v>0.9505008452391173</v>
       </c>
       <c r="L7">
-        <v>1.002101409424883</v>
+        <v>1.128868980282419</v>
       </c>
       <c r="M7">
-        <v>0.9930398909249045</v>
+        <v>0.9130528320821308</v>
       </c>
       <c r="N7">
-        <v>1.040420257879107</v>
+        <v>0.9505008452391173</v>
       </c>
       <c r="O7">
-        <v>0.989305322038683</v>
+        <v>1.267623904252883</v>
       </c>
       <c r="P7">
-        <v>0.9998544744104889</v>
+        <v>1.057702356922047</v>
       </c>
       <c r="Q7">
-        <v>0.9911726064817938</v>
+        <v>1.090338368167507</v>
       </c>
       <c r="R7">
-        <v>1.013376402233362</v>
+        <v>1.021968519694403</v>
       </c>
       <c r="S7">
-        <v>0.9975829465819608</v>
+        <v>1.009485848642075</v>
       </c>
       <c r="T7">
-        <v>1.013376402233362</v>
+        <v>1.021968519694403</v>
       </c>
       <c r="U7">
-        <v>1.008292274406247</v>
+        <v>0.9947395977913354</v>
       </c>
       <c r="V7">
-        <v>1.01471787110082</v>
+        <v>0.9858918472808916</v>
       </c>
       <c r="W7">
-        <v>1.002722438990139</v>
+        <v>0.9929880306269355</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.005127200166364</v>
+        <v>0.4385092129803458</v>
       </c>
       <c r="D8">
-        <v>0.9974414663356086</v>
+        <v>2.334482157112217</v>
       </c>
       <c r="E8">
-        <v>1.008239703266212</v>
+        <v>0.5747055985020091</v>
       </c>
       <c r="F8">
-        <v>0.9980009742630671</v>
+        <v>1.116024297814418</v>
       </c>
       <c r="G8">
-        <v>1.005127200166364</v>
+        <v>0.4385092129803458</v>
       </c>
       <c r="H8">
-        <v>0.9994180783567008</v>
+        <v>0.6895102014881167</v>
       </c>
       <c r="I8">
-        <v>1.00023610656259</v>
+        <v>0.5166063997628573</v>
       </c>
       <c r="J8">
-        <v>1.008239703266212</v>
+        <v>0.5747055985020091</v>
       </c>
       <c r="K8">
-        <v>1.008239703266212</v>
+        <v>0.5747055985020091</v>
       </c>
       <c r="L8">
-        <v>0.9999238758764856</v>
+        <v>1.558378770403783</v>
       </c>
       <c r="M8">
-        <v>0.9973096626796888</v>
+        <v>0.6240961799865764</v>
       </c>
       <c r="N8">
-        <v>1.008239703266212</v>
+        <v>0.5747055985020091</v>
       </c>
       <c r="O8">
-        <v>0.9974414663356086</v>
+        <v>2.334482157112217</v>
       </c>
       <c r="P8">
-        <v>1.001284333250986</v>
+        <v>1.386495685046282</v>
       </c>
       <c r="Q8">
-        <v>0.9973755645076487</v>
+        <v>1.479289168549397</v>
       </c>
       <c r="R8">
-        <v>1.003602789922728</v>
+        <v>1.115898989531524</v>
       </c>
       <c r="S8">
-        <v>0.999959443060554</v>
+        <v>1.132362516693046</v>
       </c>
       <c r="T8">
-        <v>1.003602789922728</v>
+        <v>1.115898989531524</v>
       </c>
       <c r="U8">
-        <v>1.002029508111968</v>
+        <v>0.9929482871452873</v>
       </c>
       <c r="V8">
-        <v>1.003271547142817</v>
+        <v>0.9092997494166315</v>
       </c>
       <c r="W8">
-        <v>1.00071213343834</v>
+        <v>0.9815391022562905</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.018061987890342</v>
+        <v>1.010403626782295</v>
       </c>
       <c r="D9">
-        <v>0.9845095129184515</v>
+        <v>0.989305322038683</v>
       </c>
       <c r="E9">
-        <v>1.066965948100107</v>
+        <v>1.040420257879107</v>
       </c>
       <c r="F9">
-        <v>0.9724853073651298</v>
+        <v>0.983625000792049</v>
       </c>
       <c r="G9">
-        <v>1.018061987890342</v>
+        <v>1.010403626782295</v>
       </c>
       <c r="H9">
-        <v>1.010594042399899</v>
+        <v>1.006274641959758</v>
       </c>
       <c r="I9">
-        <v>0.9942119729208772</v>
+        <v>0.9966093621194336</v>
       </c>
       <c r="J9">
-        <v>1.066965948100107</v>
+        <v>1.040420257879107</v>
       </c>
       <c r="K9">
-        <v>1.066965948100107</v>
+        <v>1.040420257879107</v>
       </c>
       <c r="L9">
-        <v>1.003216506674783</v>
+        <v>1.002101409424883</v>
       </c>
       <c r="M9">
-        <v>0.9886094469464985</v>
+        <v>0.9930398909249045</v>
       </c>
       <c r="N9">
-        <v>1.066965948100107</v>
+        <v>1.040420257879107</v>
       </c>
       <c r="O9">
-        <v>0.9845095129184515</v>
+        <v>0.989305322038683</v>
       </c>
       <c r="P9">
-        <v>1.001285750404397</v>
+        <v>0.9998544744104889</v>
       </c>
       <c r="Q9">
-        <v>0.9865594799324751</v>
+        <v>0.9911726064817938</v>
       </c>
       <c r="R9">
-        <v>1.0231791496363</v>
+        <v>1.013376402233362</v>
       </c>
       <c r="S9">
-        <v>0.9970603159184307</v>
+        <v>0.9975829465819608</v>
       </c>
       <c r="T9">
-        <v>1.0231791496363</v>
+        <v>1.013376402233362</v>
       </c>
       <c r="U9">
-        <v>1.01453672396385</v>
+        <v>1.008292274406247</v>
       </c>
       <c r="V9">
-        <v>1.025022568791101</v>
+        <v>1.01471787110082</v>
       </c>
       <c r="W9">
-        <v>1.004831840652011</v>
+        <v>1.002722438990139</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.4433765392047035</v>
+        <v>1.005127200166364</v>
       </c>
       <c r="D10">
-        <v>2.381196502040565</v>
+        <v>0.9974414663356086</v>
       </c>
       <c r="E10">
-        <v>0.5598695232096317</v>
+        <v>1.008239703266212</v>
       </c>
       <c r="F10">
-        <v>1.118527375267104</v>
+        <v>0.9980009742630671</v>
       </c>
       <c r="G10">
-        <v>0.4433765392047035</v>
+        <v>1.005127200166364</v>
       </c>
       <c r="H10">
-        <v>0.6719721326797238</v>
+        <v>0.9994180783567008</v>
       </c>
       <c r="I10">
-        <v>0.5059101400744392</v>
+        <v>1.00023610656259</v>
       </c>
       <c r="J10">
-        <v>0.5598695232096317</v>
+        <v>1.008239703266212</v>
       </c>
       <c r="K10">
-        <v>0.5598695232096317</v>
+        <v>1.008239703266212</v>
       </c>
       <c r="L10">
-        <v>1.578326877268044</v>
+        <v>0.9999238758764856</v>
       </c>
       <c r="M10">
-        <v>0.6048502953611316</v>
+        <v>0.9973096626796888</v>
       </c>
       <c r="N10">
-        <v>0.5598695232096317</v>
+        <v>1.008239703266212</v>
       </c>
       <c r="O10">
-        <v>2.381196502040565</v>
+        <v>0.9974414663356086</v>
       </c>
       <c r="P10">
-        <v>1.412286520622634</v>
+        <v>1.001284333250986</v>
       </c>
       <c r="Q10">
-        <v>1.493023398700848</v>
+        <v>0.9973755645076487</v>
       </c>
       <c r="R10">
-        <v>1.128147521484967</v>
+        <v>1.003602789922728</v>
       </c>
       <c r="S10">
-        <v>1.143141112202133</v>
+        <v>0.999959443060554</v>
       </c>
       <c r="T10">
-        <v>1.128147521484967</v>
+        <v>1.003602789922728</v>
       </c>
       <c r="U10">
-        <v>0.997323214954008</v>
+        <v>1.002029508111968</v>
       </c>
       <c r="V10">
-        <v>0.9098324766051327</v>
+        <v>1.003271547142817</v>
       </c>
       <c r="W10">
-        <v>0.9830036731381677</v>
+        <v>1.00071213343834</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.4684520838985147</v>
+        <v>1.018061987890342</v>
       </c>
       <c r="D11">
-        <v>1.29652235431551</v>
+        <v>0.9845095129184515</v>
       </c>
       <c r="E11">
-        <v>1.193828020659943</v>
+        <v>1.066965948100107</v>
       </c>
       <c r="F11">
-        <v>0.9336955637600742</v>
+        <v>0.9724853073651298</v>
       </c>
       <c r="G11">
-        <v>0.4684520838985147</v>
+        <v>1.018061987890342</v>
       </c>
       <c r="H11">
-        <v>1.07022058055835</v>
+        <v>1.010594042399899</v>
       </c>
       <c r="I11">
-        <v>0.6411936653680785</v>
+        <v>0.9942119729208772</v>
       </c>
       <c r="J11">
-        <v>1.193828020659943</v>
+        <v>1.066965948100107</v>
       </c>
       <c r="K11">
-        <v>1.193828020659943</v>
+        <v>1.066965948100107</v>
       </c>
       <c r="L11">
-        <v>1.248727256418112</v>
+        <v>1.003216506674783</v>
       </c>
       <c r="M11">
-        <v>0.8600429324605693</v>
+        <v>0.9886094469464985</v>
       </c>
       <c r="N11">
-        <v>1.193828020659943</v>
+        <v>1.066965948100107</v>
       </c>
       <c r="O11">
-        <v>1.29652235431551</v>
+        <v>0.9845095129184515</v>
       </c>
       <c r="P11">
-        <v>0.8824872191070123</v>
+        <v>1.001285750404397</v>
       </c>
       <c r="Q11">
-        <v>1.07828264338804</v>
+        <v>0.9865594799324751</v>
       </c>
       <c r="R11">
-        <v>0.9862674862913227</v>
+        <v>1.0231791496363</v>
       </c>
       <c r="S11">
-        <v>0.8750057902248646</v>
+        <v>0.9970603159184307</v>
       </c>
       <c r="T11">
-        <v>0.9862674862913227</v>
+        <v>1.0231791496363</v>
       </c>
       <c r="U11">
-        <v>0.9547113478336343</v>
+        <v>1.01453672396385</v>
       </c>
       <c r="V11">
-        <v>1.002534682398896</v>
+        <v>1.025022568791101</v>
       </c>
       <c r="W11">
-        <v>0.964085307179894</v>
+        <v>1.004831840652011</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8192004398949468</v>
+        <v>0.4433765392047035</v>
       </c>
       <c r="D12">
-        <v>1.404667167479996</v>
+        <v>2.381196502040565</v>
       </c>
       <c r="E12">
-        <v>0.8781127026111538</v>
+        <v>0.5598695232096317</v>
       </c>
       <c r="F12">
-        <v>1.035454017002105</v>
+        <v>1.118527375267104</v>
       </c>
       <c r="G12">
-        <v>0.8192004398949468</v>
+        <v>0.4433765392047035</v>
       </c>
       <c r="H12">
-        <v>0.9046973195894729</v>
+        <v>0.6719721326797238</v>
       </c>
       <c r="I12">
-        <v>0.8388834451557873</v>
+        <v>0.5059101400744392</v>
       </c>
       <c r="J12">
-        <v>0.8781127026111538</v>
+        <v>0.5598695232096317</v>
       </c>
       <c r="K12">
-        <v>0.8781127026111538</v>
+        <v>0.5598695232096317</v>
       </c>
       <c r="L12">
-        <v>1.181168457233681</v>
+        <v>1.578326877268044</v>
       </c>
       <c r="M12">
-        <v>0.8741875467368424</v>
+        <v>0.6048502953611316</v>
       </c>
       <c r="N12">
-        <v>0.8781127026111538</v>
+        <v>0.5598695232096317</v>
       </c>
       <c r="O12">
-        <v>1.404667167479996</v>
+        <v>2.381196502040565</v>
       </c>
       <c r="P12">
-        <v>1.111933803687472</v>
+        <v>1.412286520622634</v>
       </c>
       <c r="Q12">
-        <v>1.139427357108419</v>
+        <v>1.493023398700848</v>
       </c>
       <c r="R12">
-        <v>1.033993436662032</v>
+        <v>1.128147521484967</v>
       </c>
       <c r="S12">
-        <v>1.032685051370595</v>
+        <v>1.143141112202133</v>
       </c>
       <c r="T12">
-        <v>1.033993436662032</v>
+        <v>1.128147521484967</v>
       </c>
       <c r="U12">
-        <v>0.9940419641807349</v>
+        <v>0.997323214954008</v>
       </c>
       <c r="V12">
-        <v>0.9708561118668186</v>
+        <v>0.9098324766051327</v>
       </c>
       <c r="W12">
-        <v>0.9920463869629982</v>
+        <v>0.9830036731381677</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.164790025901699</v>
+        <v>0.4684520838985147</v>
       </c>
       <c r="D13">
-        <v>0.9865520076879692</v>
+        <v>1.29652235431551</v>
       </c>
       <c r="E13">
-        <v>0.9819036849905249</v>
+        <v>1.193828020659943</v>
       </c>
       <c r="F13">
-        <v>0.9964452724376196</v>
+        <v>0.9336955637600742</v>
       </c>
       <c r="G13">
-        <v>1.164790025901699</v>
+        <v>0.4684520838985147</v>
       </c>
       <c r="H13">
-        <v>0.9607708408790863</v>
+        <v>1.07022058055835</v>
       </c>
       <c r="I13">
-        <v>1.065374401430652</v>
+        <v>0.6411936653680785</v>
       </c>
       <c r="J13">
-        <v>0.9819036849905249</v>
+        <v>1.193828020659943</v>
       </c>
       <c r="K13">
-        <v>0.9819036849905249</v>
+        <v>1.193828020659943</v>
       </c>
       <c r="L13">
-        <v>0.9782546329189276</v>
+        <v>1.248727256418112</v>
       </c>
       <c r="M13">
-        <v>0.9863329662155578</v>
+        <v>0.8600429324605693</v>
       </c>
       <c r="N13">
-        <v>0.9819036849905249</v>
+        <v>1.193828020659943</v>
       </c>
       <c r="O13">
-        <v>0.9865520076879692</v>
+        <v>1.29652235431551</v>
       </c>
       <c r="P13">
-        <v>1.075671016794834</v>
+        <v>0.8824872191070123</v>
       </c>
       <c r="Q13">
-        <v>0.9864424869517635</v>
+        <v>1.07828264338804</v>
       </c>
       <c r="R13">
-        <v>1.044415239526731</v>
+        <v>0.9862674862913227</v>
       </c>
       <c r="S13">
-        <v>1.045891666601742</v>
+        <v>0.8750057902248646</v>
       </c>
       <c r="T13">
-        <v>1.044415239526731</v>
+        <v>0.9862674862913227</v>
       </c>
       <c r="U13">
-        <v>1.029894671198938</v>
+        <v>0.9547113478336343</v>
       </c>
       <c r="V13">
-        <v>1.020296473957255</v>
+        <v>1.002534682398896</v>
       </c>
       <c r="W13">
-        <v>1.015052979057755</v>
+        <v>0.964085307179894</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.02330075600000002</v>
+        <v>0.8192004398949468</v>
       </c>
       <c r="D14">
-        <v>3.442862200000002</v>
+        <v>1.404667167479996</v>
       </c>
       <c r="E14">
-        <v>0.2138068799999999</v>
+        <v>0.8781127026111538</v>
       </c>
       <c r="F14">
-        <v>1.209990899999999</v>
+        <v>1.035454017002105</v>
       </c>
       <c r="G14">
-        <v>0.02330075600000002</v>
+        <v>0.8192004398949468</v>
       </c>
       <c r="H14">
-        <v>0.4216041200000005</v>
+        <v>0.9046973195894729</v>
       </c>
       <c r="I14">
-        <v>0.1424155799999999</v>
+        <v>0.8388834451557873</v>
       </c>
       <c r="J14">
-        <v>0.2138068799999999</v>
+        <v>0.8781127026111538</v>
       </c>
       <c r="K14">
-        <v>0.2138068799999999</v>
+        <v>0.8781127026111538</v>
       </c>
       <c r="L14">
-        <v>2.008686600000002</v>
+        <v>1.181168457233681</v>
       </c>
       <c r="M14">
-        <v>0.31618718</v>
+        <v>0.8741875467368424</v>
       </c>
       <c r="N14">
-        <v>0.2138068799999999</v>
+        <v>0.8781127026111538</v>
       </c>
       <c r="O14">
-        <v>3.442862200000002</v>
+        <v>1.404667167479996</v>
       </c>
       <c r="P14">
-        <v>1.733081478000001</v>
+        <v>1.111933803687472</v>
       </c>
       <c r="Q14">
-        <v>1.879524690000001</v>
+        <v>1.139427357108419</v>
       </c>
       <c r="R14">
-        <v>1.226656612000001</v>
+        <v>1.033993436662032</v>
       </c>
       <c r="S14">
-        <v>1.260783378666667</v>
+        <v>1.032685051370595</v>
       </c>
       <c r="T14">
-        <v>1.226656612000001</v>
+        <v>1.033993436662032</v>
       </c>
       <c r="U14">
-        <v>0.9990392540000006</v>
+        <v>0.9940419641807349</v>
       </c>
       <c r="V14">
-        <v>0.8419927792000005</v>
+        <v>0.9708561118668186</v>
       </c>
       <c r="W14">
-        <v>0.9723567770000004</v>
+        <v>0.9920463869629982</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>6.8875632</v>
+        <v>1.164790025901699</v>
       </c>
       <c r="D15">
-        <v>0.023300756</v>
+        <v>0.9865520076879692</v>
       </c>
       <c r="E15">
-        <v>0.0017993233</v>
+        <v>0.9819036849905249</v>
       </c>
       <c r="F15">
-        <v>0.7731529700000001</v>
+        <v>0.9964452724376196</v>
       </c>
       <c r="G15">
-        <v>6.8875632</v>
+        <v>1.164790025901699</v>
       </c>
       <c r="H15">
-        <v>0.14230601</v>
+        <v>0.9607708408790863</v>
       </c>
       <c r="I15">
-        <v>3.193909</v>
+        <v>1.065374401430652</v>
       </c>
       <c r="J15">
-        <v>0.0017993233</v>
+        <v>0.9819036849905249</v>
       </c>
       <c r="K15">
-        <v>0.0017993233</v>
+        <v>0.9819036849905249</v>
       </c>
       <c r="L15">
-        <v>0.014853478</v>
+        <v>0.9782546329189276</v>
       </c>
       <c r="M15">
-        <v>0.95836551</v>
+        <v>0.9863329662155578</v>
       </c>
       <c r="N15">
-        <v>0.0017993233</v>
+        <v>0.9819036849905249</v>
       </c>
       <c r="O15">
-        <v>0.023300756</v>
+        <v>0.9865520076879692</v>
       </c>
       <c r="P15">
-        <v>3.455431978</v>
+        <v>1.075671016794834</v>
       </c>
       <c r="Q15">
-        <v>0.490833133</v>
+        <v>0.9864424869517635</v>
       </c>
       <c r="R15">
-        <v>2.3042210931</v>
+        <v>1.044415239526731</v>
       </c>
       <c r="S15">
-        <v>2.623076488666667</v>
+        <v>1.045891666601742</v>
       </c>
       <c r="T15">
-        <v>2.3042210931</v>
+        <v>1.044415239526731</v>
       </c>
       <c r="U15">
-        <v>1.967757197325</v>
+        <v>1.029894671198938</v>
       </c>
       <c r="V15">
-        <v>1.57456562252</v>
+        <v>1.020296473957255</v>
       </c>
       <c r="W15">
-        <v>1.4994062809125</v>
+        <v>1.015052979057755</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.023300756</v>
+        <v>0.02330075600000002</v>
       </c>
       <c r="D16">
-        <v>3.4428622</v>
+        <v>3.442862200000002</v>
       </c>
       <c r="E16">
-        <v>0.21380688</v>
+        <v>0.2138068799999999</v>
       </c>
       <c r="F16">
-        <v>1.2099909</v>
+        <v>1.209990899999999</v>
       </c>
       <c r="G16">
-        <v>0.023300756</v>
+        <v>0.02330075600000002</v>
       </c>
       <c r="H16">
-        <v>0.42160412</v>
+        <v>0.4216041200000005</v>
       </c>
       <c r="I16">
-        <v>0.14241558</v>
+        <v>0.1424155799999999</v>
       </c>
       <c r="J16">
-        <v>0.21380688</v>
+        <v>0.2138068799999999</v>
       </c>
       <c r="K16">
-        <v>0.21380688</v>
+        <v>0.2138068799999999</v>
       </c>
       <c r="L16">
-        <v>2.0086866</v>
+        <v>2.008686600000002</v>
       </c>
       <c r="M16">
         <v>0.31618718</v>
       </c>
       <c r="N16">
-        <v>0.21380688</v>
+        <v>0.2138068799999999</v>
       </c>
       <c r="O16">
-        <v>3.4428622</v>
+        <v>3.442862200000002</v>
       </c>
       <c r="P16">
-        <v>1.733081478</v>
+        <v>1.733081478000001</v>
       </c>
       <c r="Q16">
-        <v>1.87952469</v>
+        <v>1.879524690000001</v>
       </c>
       <c r="R16">
-        <v>1.226656612</v>
+        <v>1.226656612000001</v>
       </c>
       <c r="S16">
         <v>1.260783378666667</v>
       </c>
       <c r="T16">
-        <v>1.226656612</v>
+        <v>1.226656612000001</v>
       </c>
       <c r="U16">
-        <v>0.999039254</v>
+        <v>0.9990392540000006</v>
       </c>
       <c r="V16">
-        <v>0.8419927792000002</v>
+        <v>0.8419927792000005</v>
       </c>
       <c r="W16">
-        <v>0.9723567770000001</v>
+        <v>0.9723567770000004</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>3.4457045</v>
+        <v>6.8875632</v>
       </c>
       <c r="D17">
-        <v>0.21658931</v>
+        <v>0.023300756</v>
       </c>
       <c r="E17">
-        <v>0.017301633</v>
+        <v>0.0017993233</v>
       </c>
       <c r="F17">
-        <v>1.3509898</v>
+        <v>0.7731529700000001</v>
       </c>
       <c r="G17">
-        <v>3.4457045</v>
+        <v>6.8875632</v>
       </c>
       <c r="H17">
-        <v>0.38954228</v>
+        <v>0.14230601</v>
       </c>
       <c r="I17">
-        <v>2.5451957</v>
+        <v>3.193909</v>
       </c>
       <c r="J17">
-        <v>0.017301633</v>
+        <v>0.0017993233</v>
       </c>
       <c r="K17">
-        <v>0.017301633</v>
+        <v>0.0017993233</v>
       </c>
       <c r="L17">
-        <v>0.13660416</v>
+        <v>0.014853478</v>
       </c>
       <c r="M17">
-        <v>1.3306803</v>
+        <v>0.95836551</v>
       </c>
       <c r="N17">
-        <v>0.017301633</v>
+        <v>0.0017993233</v>
       </c>
       <c r="O17">
-        <v>0.21658931</v>
+        <v>0.023300756</v>
       </c>
       <c r="P17">
-        <v>1.831146905</v>
+        <v>3.455431978</v>
       </c>
       <c r="Q17">
-        <v>0.773634805</v>
+        <v>0.490833133</v>
       </c>
       <c r="R17">
-        <v>1.226531814333333</v>
+        <v>2.3042210931</v>
       </c>
       <c r="S17">
-        <v>1.664324703333333</v>
+        <v>2.623076488666667</v>
       </c>
       <c r="T17">
-        <v>1.226531814333333</v>
+        <v>2.3042210931</v>
       </c>
       <c r="U17">
-        <v>1.25256893575</v>
+        <v>1.967757197325</v>
       </c>
       <c r="V17">
-        <v>1.0055154752</v>
+        <v>1.57456562252</v>
       </c>
       <c r="W17">
-        <v>1.179075960375</v>
+        <v>1.4994062809125</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.302335194706849</v>
+        <v>0.023300756</v>
       </c>
       <c r="D18">
-        <v>0.7548764528219182</v>
+        <v>3.4428622</v>
       </c>
       <c r="E18">
-        <v>1.805248583839726</v>
+        <v>0.21380688</v>
       </c>
       <c r="F18">
-        <v>0.6620594544383563</v>
+        <v>1.2099909</v>
       </c>
       <c r="G18">
-        <v>1.302335194706849</v>
+        <v>0.023300756</v>
       </c>
       <c r="H18">
-        <v>1.127535245342466</v>
+        <v>0.42160412</v>
       </c>
       <c r="I18">
-        <v>0.9698589353424658</v>
+        <v>0.14241558</v>
       </c>
       <c r="J18">
-        <v>1.805248583839726</v>
+        <v>0.21380688</v>
       </c>
       <c r="K18">
-        <v>1.805248583839726</v>
+        <v>0.21380688</v>
       </c>
       <c r="L18">
-        <v>1.013239659095891</v>
+        <v>2.0086866</v>
       </c>
       <c r="M18">
-        <v>0.8724815289041099</v>
+        <v>0.31618718</v>
       </c>
       <c r="N18">
-        <v>1.805248583839726</v>
+        <v>0.21380688</v>
       </c>
       <c r="O18">
-        <v>0.7548764528219182</v>
+        <v>3.4428622</v>
       </c>
       <c r="P18">
-        <v>1.028605823764384</v>
+        <v>1.733081478</v>
       </c>
       <c r="Q18">
-        <v>0.813678990863014</v>
+        <v>1.87952469</v>
       </c>
       <c r="R18">
-        <v>1.287486743789498</v>
+        <v>1.226656612</v>
       </c>
       <c r="S18">
-        <v>0.9765643921442925</v>
+        <v>1.260783378666667</v>
       </c>
       <c r="T18">
-        <v>1.287486743789498</v>
+        <v>1.226656612</v>
       </c>
       <c r="U18">
-        <v>1.183735440068151</v>
+        <v>0.999039254</v>
       </c>
       <c r="V18">
-        <v>1.308038068822466</v>
+        <v>0.8419927792000002</v>
       </c>
       <c r="W18">
-        <v>1.063454381811473</v>
+        <v>0.9723567770000001</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>2.313446413578948</v>
+        <v>3.4457045</v>
       </c>
       <c r="D19">
-        <v>1.341504682947369</v>
+        <v>0.21658931</v>
       </c>
       <c r="E19">
-        <v>0.08656499415263157</v>
+        <v>0.017301633</v>
       </c>
       <c r="F19">
-        <v>1.35322254368421</v>
+        <v>1.3509898</v>
       </c>
       <c r="G19">
-        <v>2.313446413578948</v>
+        <v>3.4457045</v>
       </c>
       <c r="H19">
-        <v>0.4148450784210526</v>
+        <v>0.38954228</v>
       </c>
       <c r="I19">
-        <v>1.598232091578947</v>
+        <v>2.5451957</v>
       </c>
       <c r="J19">
-        <v>0.08656499415263157</v>
+        <v>0.017301633</v>
       </c>
       <c r="K19">
-        <v>0.08656499415263157</v>
+        <v>0.017301633</v>
       </c>
       <c r="L19">
-        <v>0.7895791353684212</v>
+        <v>0.13660416</v>
       </c>
       <c r="M19">
-        <v>0.921983937368421</v>
+        <v>1.3306803</v>
       </c>
       <c r="N19">
-        <v>0.08656499415263157</v>
+        <v>0.017301633</v>
       </c>
       <c r="O19">
-        <v>1.341504682947369</v>
+        <v>0.21658931</v>
       </c>
       <c r="P19">
-        <v>1.827475548263158</v>
+        <v>1.831146905</v>
       </c>
       <c r="Q19">
-        <v>1.131744310157895</v>
+        <v>0.773634805</v>
       </c>
       <c r="R19">
-        <v>1.247172030226316</v>
+        <v>1.226531814333333</v>
       </c>
       <c r="S19">
-        <v>1.525645011298246</v>
+        <v>1.664324703333333</v>
       </c>
       <c r="T19">
-        <v>1.247172030226316</v>
+        <v>1.226531814333333</v>
       </c>
       <c r="U19">
-        <v>1.165875007011842</v>
+        <v>1.25256893575</v>
       </c>
       <c r="V19">
-        <v>0.95001300444</v>
+        <v>1.0055154752</v>
       </c>
       <c r="W19">
-        <v>1.1024223596375</v>
+        <v>1.179075960375</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.342166235863158</v>
+        <v>1.302335194706849</v>
       </c>
       <c r="D20">
-        <v>0.8159869238421055</v>
+        <v>0.7548764528219182</v>
       </c>
       <c r="E20">
-        <v>1.739638943468421</v>
+        <v>1.805248583839726</v>
       </c>
       <c r="F20">
-        <v>0.6779404597894736</v>
+        <v>0.6620594544383563</v>
       </c>
       <c r="G20">
-        <v>1.342166235863158</v>
+        <v>1.302335194706849</v>
       </c>
       <c r="H20">
-        <v>1.095994567894737</v>
+        <v>1.127535245342466</v>
       </c>
       <c r="I20">
-        <v>0.9773479268421053</v>
+        <v>0.9698589353424658</v>
       </c>
       <c r="J20">
-        <v>1.739638943468421</v>
+        <v>1.805248583839726</v>
       </c>
       <c r="K20">
-        <v>1.739638943468421</v>
+        <v>1.805248583839726</v>
       </c>
       <c r="L20">
-        <v>1.026298970947369</v>
+        <v>1.013239659095891</v>
       </c>
       <c r="M20">
-        <v>0.8589722563157896</v>
+        <v>0.8724815289041099</v>
       </c>
       <c r="N20">
-        <v>1.739638943468421</v>
+        <v>1.805248583839726</v>
       </c>
       <c r="O20">
-        <v>0.8159869238421055</v>
+        <v>0.7548764528219182</v>
       </c>
       <c r="P20">
-        <v>1.079076579852632</v>
+        <v>1.028605823764384</v>
       </c>
       <c r="Q20">
-        <v>0.8374795900789476</v>
+        <v>0.813678990863014</v>
       </c>
       <c r="R20">
-        <v>1.299264034391228</v>
+        <v>1.287486743789498</v>
       </c>
       <c r="S20">
-        <v>1.005708472007018</v>
+        <v>0.9765643921442925</v>
       </c>
       <c r="T20">
-        <v>1.299264034391228</v>
+        <v>1.287486743789498</v>
       </c>
       <c r="U20">
-        <v>1.189191089872369</v>
+        <v>1.183735440068151</v>
       </c>
       <c r="V20">
-        <v>1.299280660591579</v>
+        <v>1.308038068822466</v>
       </c>
       <c r="W20">
-        <v>1.066793285620395</v>
+        <v>1.063454381811473</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>3.635942637510909</v>
+        <v>2.313446413578948</v>
       </c>
       <c r="D21">
-        <v>0.2404702404141349</v>
+        <v>1.341504682947369</v>
       </c>
       <c r="E21">
-        <v>0.04375825964634195</v>
+        <v>0.08656499415263157</v>
       </c>
       <c r="F21">
-        <v>1.212490319680187</v>
+        <v>1.35322254368421</v>
       </c>
       <c r="G21">
-        <v>3.635942637510909</v>
+        <v>2.313446413578948</v>
       </c>
       <c r="H21">
-        <v>0.4758779848770468</v>
+        <v>0.4148450784210526</v>
       </c>
       <c r="I21">
-        <v>2.492409552540417</v>
+        <v>1.598232091578947</v>
       </c>
       <c r="J21">
-        <v>0.04375825964634195</v>
+        <v>0.08656499415263157</v>
       </c>
       <c r="K21">
-        <v>0.04375825964634195</v>
+        <v>0.08656499415263157</v>
       </c>
       <c r="L21">
-        <v>0.177864771687463</v>
+        <v>0.7895791353684212</v>
       </c>
       <c r="M21">
-        <v>1.346905311395828</v>
+        <v>0.921983937368421</v>
       </c>
       <c r="N21">
-        <v>0.04375825964634195</v>
+        <v>0.08656499415263157</v>
       </c>
       <c r="O21">
-        <v>0.2404702404141349</v>
+        <v>1.341504682947369</v>
       </c>
       <c r="P21">
-        <v>1.938206438962522</v>
+        <v>1.827475548263158</v>
       </c>
       <c r="Q21">
-        <v>0.7936877759049816</v>
+        <v>1.131744310157895</v>
       </c>
       <c r="R21">
-        <v>1.306723712523795</v>
+        <v>1.247172030226316</v>
       </c>
       <c r="S21">
-        <v>1.741106063106957</v>
+        <v>1.525645011298246</v>
       </c>
       <c r="T21">
-        <v>1.306723712523795</v>
+        <v>1.247172030226316</v>
       </c>
       <c r="U21">
-        <v>1.316769112241803</v>
+        <v>1.165875007011842</v>
       </c>
       <c r="V21">
-        <v>1.062166941722711</v>
+        <v>0.95001300444</v>
       </c>
       <c r="W21">
-        <v>1.203214884719041</v>
+        <v>1.1024223596375</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.139827550582419</v>
+        <v>1.342166235863158</v>
       </c>
       <c r="D22">
-        <v>0.8386491562959589</v>
+        <v>0.8159869238421055</v>
       </c>
       <c r="E22">
-        <v>0.3732002823117419</v>
+        <v>1.739638943468421</v>
       </c>
       <c r="F22">
-        <v>1.266482888926951</v>
+        <v>0.6779404597894736</v>
       </c>
       <c r="G22">
-        <v>1.139827550582419</v>
+        <v>1.342166235863158</v>
       </c>
       <c r="H22">
-        <v>0.9237306816719273</v>
+        <v>1.095994567894737</v>
       </c>
       <c r="I22">
-        <v>1.333188373975093</v>
+        <v>0.9773479268421053</v>
       </c>
       <c r="J22">
-        <v>0.3732002823117419</v>
+        <v>1.739638943468421</v>
       </c>
       <c r="K22">
-        <v>0.3732002823117419</v>
+        <v>1.739638943468421</v>
       </c>
       <c r="L22">
-        <v>0.7202106691882119</v>
+        <v>1.026298970947369</v>
       </c>
       <c r="M22">
-        <v>1.286060510114968</v>
+        <v>0.8589722563157896</v>
       </c>
       <c r="N22">
-        <v>0.3732002823117419</v>
+        <v>1.739638943468421</v>
       </c>
       <c r="O22">
-        <v>0.8386491562959589</v>
+        <v>0.8159869238421055</v>
       </c>
       <c r="P22">
-        <v>0.9892383534391891</v>
+        <v>1.079076579852632</v>
       </c>
       <c r="Q22">
-        <v>1.062354833205463</v>
+        <v>0.8374795900789476</v>
       </c>
       <c r="R22">
-        <v>0.78389232973004</v>
+        <v>1.299264034391228</v>
       </c>
       <c r="S22">
-        <v>1.088179072331115</v>
+        <v>1.005708472007018</v>
       </c>
       <c r="T22">
-        <v>0.7838923297300401</v>
+        <v>1.299264034391228</v>
       </c>
       <c r="U22">
-        <v>0.9094343748262721</v>
+        <v>1.189191089872369</v>
       </c>
       <c r="V22">
-        <v>0.802187556323366</v>
+        <v>1.299280660591579</v>
       </c>
       <c r="W22">
-        <v>0.9851687641334088</v>
+        <v>1.066793285620395</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.7496650844597287</v>
+        <v>3.635942637510909</v>
       </c>
       <c r="D23">
-        <v>0.7997830995241429</v>
+        <v>0.2404702404141349</v>
       </c>
       <c r="E23">
-        <v>0.9597020113045045</v>
+        <v>0.04375825964634195</v>
       </c>
       <c r="F23">
-        <v>1.019123428434768</v>
+        <v>1.212490319680187</v>
       </c>
       <c r="G23">
-        <v>0.7496650844597287</v>
+        <v>3.635942637510909</v>
       </c>
       <c r="H23">
-        <v>1.137698033442856</v>
+        <v>0.4758779848770468</v>
       </c>
       <c r="I23">
-        <v>1.001317200607892</v>
+        <v>2.492409552540417</v>
       </c>
       <c r="J23">
-        <v>0.9597020113045045</v>
+        <v>0.04375825964634195</v>
       </c>
       <c r="K23">
-        <v>0.9597020113045045</v>
+        <v>0.04375825964634195</v>
       </c>
       <c r="L23">
-        <v>0.9149525429399392</v>
+        <v>0.177864771687463</v>
       </c>
       <c r="M23">
-        <v>1.153831219304493</v>
+        <v>1.346905311395828</v>
       </c>
       <c r="N23">
-        <v>0.9597020113045045</v>
+        <v>0.04375825964634195</v>
       </c>
       <c r="O23">
-        <v>0.7997830995241429</v>
+        <v>0.2404702404141349</v>
       </c>
       <c r="P23">
-        <v>0.7747240919919358</v>
+        <v>1.938206438962522</v>
       </c>
       <c r="Q23">
-        <v>0.9768071594143179</v>
+        <v>0.7936877759049816</v>
       </c>
       <c r="R23">
-        <v>0.8363833984294587</v>
+        <v>1.306723712523795</v>
       </c>
       <c r="S23">
-        <v>0.9010931344294549</v>
+        <v>1.741106063106957</v>
       </c>
       <c r="T23">
-        <v>0.8363833984294587</v>
+        <v>1.306723712523795</v>
       </c>
       <c r="U23">
-        <v>0.9157453536482172</v>
+        <v>1.316769112241803</v>
       </c>
       <c r="V23">
-        <v>0.9245366851794745</v>
+        <v>1.062166941722711</v>
       </c>
       <c r="W23">
-        <v>0.9670090775022904</v>
+        <v>1.203214884719041</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.268981835564235</v>
+        <v>1.139827550582419</v>
       </c>
       <c r="D24">
-        <v>1.212438411798979</v>
+        <v>0.8386491562959589</v>
       </c>
       <c r="E24">
-        <v>1.142429010762399</v>
+        <v>0.3732002823117419</v>
       </c>
       <c r="F24">
-        <v>0.978023070069021</v>
+        <v>1.266482888926951</v>
       </c>
       <c r="G24">
-        <v>1.268981835564235</v>
+        <v>1.139827550582419</v>
       </c>
       <c r="H24">
-        <v>0.830276611624532</v>
+        <v>0.9237306816719273</v>
       </c>
       <c r="I24">
-        <v>0.986909305837664</v>
+        <v>1.333188373975093</v>
       </c>
       <c r="J24">
-        <v>1.142429010762399</v>
+        <v>0.3732002823117419</v>
       </c>
       <c r="K24">
-        <v>1.142429010762399</v>
+        <v>0.3732002823117419</v>
       </c>
       <c r="L24">
-        <v>1.098423037694314</v>
+        <v>0.7202106691882119</v>
       </c>
       <c r="M24">
-        <v>0.7945051915643689</v>
+        <v>1.286060510114968</v>
       </c>
       <c r="N24">
-        <v>1.142429010762399</v>
+        <v>0.3732002823117419</v>
       </c>
       <c r="O24">
-        <v>1.212438411798979</v>
+        <v>0.8386491562959589</v>
       </c>
       <c r="P24">
-        <v>1.240710123681607</v>
+        <v>0.9892383534391891</v>
       </c>
       <c r="Q24">
-        <v>1.003471801681674</v>
+        <v>1.062354833205463</v>
       </c>
       <c r="R24">
-        <v>1.207949752708538</v>
+        <v>0.78389232973004</v>
       </c>
       <c r="S24">
-        <v>1.091975146309194</v>
+        <v>1.088179072331115</v>
       </c>
       <c r="T24">
-        <v>1.207949752708538</v>
+        <v>0.7838923297300401</v>
       </c>
       <c r="U24">
-        <v>1.104588612422496</v>
+        <v>0.9094343748262721</v>
       </c>
       <c r="V24">
-        <v>1.112156692090476</v>
+        <v>0.802187556323366</v>
       </c>
       <c r="W24">
-        <v>1.038998309364439</v>
+        <v>0.9851687641334088</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.01541286061306674</v>
+        <v>0.7496650844597287</v>
       </c>
       <c r="D25">
-        <v>0.5393055635557686</v>
+        <v>0.7997830995241429</v>
       </c>
       <c r="E25">
-        <v>3.239353708501929</v>
+        <v>0.9597020113045045</v>
       </c>
       <c r="F25">
-        <v>0.274247890737627</v>
+        <v>1.019123428434768</v>
       </c>
       <c r="G25">
-        <v>0.01541286061306674</v>
+        <v>0.7496650844597287</v>
       </c>
       <c r="H25">
-        <v>1.636972449125893</v>
+        <v>1.137698033442856</v>
       </c>
       <c r="I25">
-        <v>0.1483227251941897</v>
+        <v>1.001317200607892</v>
       </c>
       <c r="J25">
-        <v>3.239353708501929</v>
+        <v>0.9597020113045045</v>
       </c>
       <c r="K25">
-        <v>3.239353708501929</v>
+        <v>0.9597020113045045</v>
       </c>
       <c r="L25">
-        <v>1.358578469365289</v>
+        <v>0.9149525429399392</v>
       </c>
       <c r="M25">
-        <v>0.6052023913083295</v>
+        <v>1.153831219304493</v>
       </c>
       <c r="N25">
-        <v>3.239353708501929</v>
+        <v>0.9597020113045045</v>
       </c>
       <c r="O25">
-        <v>0.5393055635557686</v>
+        <v>0.7997830995241429</v>
       </c>
       <c r="P25">
-        <v>0.2773592120844177</v>
+        <v>0.7747240919919358</v>
       </c>
       <c r="Q25">
-        <v>0.5722539774320491</v>
+        <v>0.9768071594143179</v>
       </c>
       <c r="R25">
-        <v>1.264690710890255</v>
+        <v>0.8363833984294587</v>
       </c>
       <c r="S25">
-        <v>0.3866402718257216</v>
+        <v>0.9010931344294549</v>
       </c>
       <c r="T25">
-        <v>1.264690710890255</v>
+        <v>0.8363833984294587</v>
       </c>
       <c r="U25">
-        <v>1.099818630994773</v>
+        <v>0.9157453536482172</v>
       </c>
       <c r="V25">
-        <v>1.527725646496204</v>
+        <v>0.9245366851794745</v>
       </c>
       <c r="W25">
-        <v>0.9771745073002615</v>
+        <v>0.9670090775022904</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.2282703272202107</v>
+        <v>1.268981835564235</v>
       </c>
       <c r="D26">
-        <v>1.409578004869539</v>
+        <v>1.212438411798979</v>
       </c>
       <c r="E26">
-        <v>0.6710635157005971</v>
+        <v>1.142429010762399</v>
       </c>
       <c r="F26">
-        <v>1.013506945489436</v>
+        <v>0.978023070069021</v>
       </c>
       <c r="G26">
-        <v>0.2282703272202107</v>
+        <v>1.268981835564235</v>
       </c>
       <c r="H26">
-        <v>1.131783605331437</v>
+        <v>0.830276611624532</v>
       </c>
       <c r="I26">
-        <v>0.6058989482421134</v>
+        <v>0.986909305837664</v>
       </c>
       <c r="J26">
-        <v>0.6710635157005971</v>
+        <v>1.142429010762399</v>
       </c>
       <c r="K26">
-        <v>0.6710635157005971</v>
+        <v>1.142429010762399</v>
       </c>
       <c r="L26">
-        <v>1.284452279092895</v>
+        <v>1.098423037694314</v>
       </c>
       <c r="M26">
-        <v>1.020287393186638</v>
+        <v>0.7945051915643689</v>
       </c>
       <c r="N26">
-        <v>0.6710635157005971</v>
+        <v>1.142429010762399</v>
       </c>
       <c r="O26">
-        <v>1.409578004869539</v>
+        <v>1.212438411798979</v>
       </c>
       <c r="P26">
-        <v>0.8189241660448749</v>
+        <v>1.240710123681607</v>
       </c>
       <c r="Q26">
-        <v>1.214932699028089</v>
+        <v>1.003471801681674</v>
       </c>
       <c r="R26">
-        <v>0.7696372825967823</v>
+        <v>1.207949752708538</v>
       </c>
       <c r="S26">
-        <v>0.886045241758796</v>
+        <v>1.091975146309194</v>
       </c>
       <c r="T26">
-        <v>0.7696372825967823</v>
+        <v>1.207949752708538</v>
       </c>
       <c r="U26">
-        <v>0.8322998102442463</v>
+        <v>1.104588612422496</v>
       </c>
       <c r="V26">
-        <v>0.8000525513355164</v>
+        <v>1.112156692090476</v>
       </c>
       <c r="W26">
-        <v>0.9206051273916083</v>
+        <v>1.038998309364439</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.8799281347641448</v>
+        <v>0.01541286061306674</v>
       </c>
       <c r="D27">
-        <v>0.9664443216067362</v>
+        <v>0.5393055635557686</v>
       </c>
       <c r="E27">
-        <v>1.063381027047922</v>
+        <v>3.239353708501929</v>
       </c>
       <c r="F27">
-        <v>0.9664400315857395</v>
+        <v>0.274247890737627</v>
       </c>
       <c r="G27">
-        <v>0.8799281347641448</v>
+        <v>0.01541286061306674</v>
       </c>
       <c r="H27">
-        <v>1.039176766960464</v>
+        <v>1.636972449125893</v>
       </c>
       <c r="I27">
-        <v>0.998687515102231</v>
+        <v>0.1483227251941897</v>
       </c>
       <c r="J27">
-        <v>1.063381027047922</v>
+        <v>3.239353708501929</v>
       </c>
       <c r="K27">
-        <v>1.063381027047922</v>
+        <v>3.239353708501929</v>
       </c>
       <c r="L27">
-        <v>0.9996533598188774</v>
+        <v>1.358578469365289</v>
       </c>
       <c r="M27">
-        <v>1.048176835544121</v>
+        <v>0.6052023913083295</v>
       </c>
       <c r="N27">
-        <v>1.063381027047922</v>
+        <v>3.239353708501929</v>
       </c>
       <c r="O27">
-        <v>0.9664443216067362</v>
+        <v>0.5393055635557686</v>
       </c>
       <c r="P27">
-        <v>0.9231862281854405</v>
+        <v>0.2773592120844177</v>
       </c>
       <c r="Q27">
-        <v>1.007310578575429</v>
+        <v>0.5722539774320491</v>
       </c>
       <c r="R27">
-        <v>0.9699178278062677</v>
+        <v>1.264690710890255</v>
       </c>
       <c r="S27">
-        <v>0.9648497639716674</v>
+        <v>0.3866402718257216</v>
       </c>
       <c r="T27">
-        <v>0.9699178278062677</v>
+        <v>1.264690710890255</v>
       </c>
       <c r="U27">
-        <v>0.9894825797407312</v>
+        <v>1.099818630994773</v>
       </c>
       <c r="V27">
-        <v>1.004262269202169</v>
+        <v>1.527725646496204</v>
       </c>
       <c r="W27">
-        <v>0.9952359990537796</v>
+        <v>0.9771745073002615</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.127388372737343</v>
+        <v>0.2282703272202107</v>
       </c>
       <c r="D28">
-        <v>0.850064924454385</v>
+        <v>1.409578004869539</v>
       </c>
       <c r="E28">
-        <v>1.13809338825602</v>
+        <v>0.6710635157005971</v>
       </c>
       <c r="F28">
-        <v>0.8886509388033247</v>
+        <v>1.013506945489436</v>
       </c>
       <c r="G28">
-        <v>1.127388372737343</v>
+        <v>0.2282703272202107</v>
       </c>
       <c r="H28">
-        <v>1.068205745052721</v>
+        <v>1.131783605331437</v>
       </c>
       <c r="I28">
-        <v>1.098889913839875</v>
+        <v>0.6058989482421134</v>
       </c>
       <c r="J28">
-        <v>1.13809338825602</v>
+        <v>0.6710635157005971</v>
       </c>
       <c r="K28">
-        <v>1.13809338825602</v>
+        <v>0.6710635157005971</v>
       </c>
       <c r="L28">
-        <v>0.9308148223452857</v>
+        <v>1.284452279092895</v>
       </c>
       <c r="M28">
-        <v>1.084414291141361</v>
+        <v>1.020287393186638</v>
       </c>
       <c r="N28">
-        <v>1.13809338825602</v>
+        <v>0.6710635157005971</v>
       </c>
       <c r="O28">
-        <v>0.850064924454385</v>
+        <v>1.409578004869539</v>
       </c>
       <c r="P28">
-        <v>0.9887266485958638</v>
+        <v>0.8189241660448749</v>
       </c>
       <c r="Q28">
-        <v>0.9672396077978732</v>
+        <v>1.214932699028089</v>
       </c>
       <c r="R28">
-        <v>1.038515561815916</v>
+        <v>0.7696372825967823</v>
       </c>
       <c r="S28">
-        <v>1.020622529444363</v>
+        <v>0.886045241758796</v>
       </c>
       <c r="T28">
-        <v>1.038515561815916</v>
+        <v>0.7696372825967823</v>
       </c>
       <c r="U28">
-        <v>1.049990244147277</v>
+        <v>0.8322998102442463</v>
       </c>
       <c r="V28">
-        <v>1.067610872969026</v>
+        <v>0.8000525513355164</v>
       </c>
       <c r="W28">
-        <v>1.02331529957879</v>
+        <v>0.9206051273916083</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.8799281347641448</v>
+      </c>
+      <c r="D29">
+        <v>0.9664443216067362</v>
+      </c>
+      <c r="E29">
+        <v>1.063381027047922</v>
+      </c>
+      <c r="F29">
+        <v>0.9664400315857395</v>
+      </c>
+      <c r="G29">
+        <v>0.8799281347641448</v>
+      </c>
+      <c r="H29">
+        <v>1.039176766960464</v>
+      </c>
+      <c r="I29">
+        <v>0.998687515102231</v>
+      </c>
+      <c r="J29">
+        <v>1.063381027047922</v>
+      </c>
+      <c r="K29">
+        <v>1.063381027047922</v>
+      </c>
+      <c r="L29">
+        <v>0.9996533598188774</v>
+      </c>
+      <c r="M29">
+        <v>1.048176835544121</v>
+      </c>
+      <c r="N29">
+        <v>1.063381027047922</v>
+      </c>
+      <c r="O29">
+        <v>0.9664443216067362</v>
+      </c>
+      <c r="P29">
+        <v>0.9231862281854405</v>
+      </c>
+      <c r="Q29">
+        <v>1.007310578575429</v>
+      </c>
+      <c r="R29">
+        <v>0.9699178278062677</v>
+      </c>
+      <c r="S29">
+        <v>0.9648497639716674</v>
+      </c>
+      <c r="T29">
+        <v>0.9699178278062677</v>
+      </c>
+      <c r="U29">
+        <v>0.9894825797407312</v>
+      </c>
+      <c r="V29">
+        <v>1.004262269202169</v>
+      </c>
+      <c r="W29">
+        <v>0.9952359990537796</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.127388372737343</v>
+      </c>
+      <c r="D30">
+        <v>0.850064924454385</v>
+      </c>
+      <c r="E30">
+        <v>1.13809338825602</v>
+      </c>
+      <c r="F30">
+        <v>0.8886509388033247</v>
+      </c>
+      <c r="G30">
+        <v>1.127388372737343</v>
+      </c>
+      <c r="H30">
+        <v>1.068205745052721</v>
+      </c>
+      <c r="I30">
+        <v>1.098889913839875</v>
+      </c>
+      <c r="J30">
+        <v>1.13809338825602</v>
+      </c>
+      <c r="K30">
+        <v>1.13809338825602</v>
+      </c>
+      <c r="L30">
+        <v>0.9308148223452857</v>
+      </c>
+      <c r="M30">
+        <v>1.084414291141361</v>
+      </c>
+      <c r="N30">
+        <v>1.13809338825602</v>
+      </c>
+      <c r="O30">
+        <v>0.850064924454385</v>
+      </c>
+      <c r="P30">
+        <v>0.9887266485958638</v>
+      </c>
+      <c r="Q30">
+        <v>0.9672396077978732</v>
+      </c>
+      <c r="R30">
+        <v>1.038515561815916</v>
+      </c>
+      <c r="S30">
+        <v>1.020622529444363</v>
+      </c>
+      <c r="T30">
+        <v>1.038515561815916</v>
+      </c>
+      <c r="U30">
+        <v>1.049990244147277</v>
+      </c>
+      <c r="V30">
+        <v>1.067610872969026</v>
+      </c>
+      <c r="W30">
+        <v>1.02331529957879</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.671020857415538</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.8804038564634685</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.377010916546527</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.8335011395042078</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.671020857415538</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.8943972772203008</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.23937203971718</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.377010916546527</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.377010916546527</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9100717848401919</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9239339613005311</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.377010916546527</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.8804038564634685</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.275712356939503</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9021689088819997</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.309478543475178</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.158452891726512</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.309478543475177</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>1.213092397931516</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>1.245876101654518</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>1.091213979125993</v>
       </c>
     </row>
